--- a/data/vintage_data/data_20010214.xlsx
+++ b/data/vintage_data/data_20010214.xlsx
@@ -370,47 +370,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>baag10_obs</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>hours_dngs15_obs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gdpdef_obs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>ffr_obs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>hours_dngs15_obs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ifi_rgd_obs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>gdp_rgd_obs</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ifi_rgd_obs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hours_sw07_obs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>c_rgd_obs</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>baag10_obs</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hours_sw07_obs</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gdpdef_obs</t>
         </is>
       </c>
     </row>
@@ -421,31 +421,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.298846153846154</v>
+        <v>0.5309126984126984</v>
       </c>
       <c r="C2" t="n">
         <v>-48.27938397314787</v>
       </c>
       <c r="D2" t="n">
+        <v>1.054912683789466</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.298846153846154</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.346775844035946</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.8263738142164924</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.346775844035946</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>-4.149121206128029</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.7350438262892435</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.5309126984126984</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-2.145282671659061</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1.084206314342287</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.054912683789466</v>
       </c>
     </row>
     <row r="3">
@@ -455,31 +455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.320869565217391</v>
+        <v>0.4719531249999998</v>
       </c>
       <c r="C3" t="n">
         <v>-48.30252661550355</v>
       </c>
       <c r="D3" t="n">
+        <v>1.373778118802745</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.320869565217391</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.085512643831388</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.4731321301381656</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.085512643831388</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>-4.171273279159379</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.218027685709443</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.4719531249999998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-4.980656214653436</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.9792716222166878</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.373778118802745</v>
       </c>
     </row>
     <row r="4">
@@ -489,31 +489,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.218559782608696</v>
+        <v>0.5087841530054644</v>
       </c>
       <c r="C4" t="n">
         <v>-48.56736142121225</v>
       </c>
       <c r="D4" t="n">
+        <v>1.72578910071896</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.218559782608696</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.83451467252504</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.8180428829448858</v>
       </c>
-      <c r="E4" t="n">
-        <v>4.83451467252504</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>-4.37559840255193</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.264236632413376</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.5087841530054644</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-9.299911659278962</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.06683252609622044</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.72578910071896</v>
       </c>
     </row>
     <row r="5">
@@ -523,31 +523,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.165166666666668</v>
+        <v>0.4374206349206344</v>
       </c>
       <c r="C5" t="n">
         <v>-48.22004723309941</v>
       </c>
       <c r="D5" t="n">
+        <v>1.651034981483042</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.165166666666668</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.089327070728564</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.211251250658821</v>
       </c>
-      <c r="E5" t="n">
-        <v>4.089327070728564</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>-4.068840388215449</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.273832648766004</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.4374206349206344</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-10.46440807896693</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.1100168193805117</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.651034981483042</v>
       </c>
     </row>
     <row r="6">
@@ -557,31 +557,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.289368131868132</v>
+        <v>0.4076587301587298</v>
       </c>
       <c r="C6" t="n">
         <v>-47.07280612035791</v>
       </c>
       <c r="D6" t="n">
+        <v>1.624217975264144</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.289368131868132</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.699517122665231</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.782009561554619</v>
       </c>
-      <c r="E6" t="n">
-        <v>5.699517122665231</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>-2.934896632797177</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.6820536471139551</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.4076587301587298</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-11.67966884623456</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.3511548983591037</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.624217975264144</v>
       </c>
     </row>
     <row r="7">
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.454103260869565</v>
+        <v>0.3677777777777784</v>
       </c>
       <c r="C7" t="n">
         <v>-46.84174459975006</v>
       </c>
       <c r="D7" t="n">
+        <v>1.399867321444558</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.454103260869565</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.027031194253166</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.783632998441625</v>
       </c>
-      <c r="E7" t="n">
-        <v>2.027031194253166</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>-2.829501272530081</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.073973978484797</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.3677777777777784</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-13.54958122082803</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.5372392541554332</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.399867321444558</v>
       </c>
     </row>
     <row r="8">
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.627826086956521</v>
+        <v>0.336541666666667</v>
       </c>
       <c r="C8" t="n">
         <v>-46.14925185347762</v>
       </c>
       <c r="D8" t="n">
+        <v>1.663058022783015</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.627826086956521</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.28890981757359</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.1202619668926444</v>
       </c>
-      <c r="E8" t="n">
-        <v>2.28890981757359</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>-2.101182276709835</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.241003457563125</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.336541666666667</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-12.27424510547257</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.2372366897785221</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.663058022783015</v>
       </c>
     </row>
     <row r="9">
@@ -659,31 +659,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.689888888888888</v>
+        <v>0.2972404371584689</v>
       </c>
       <c r="C9" t="n">
         <v>-46.35239691931135</v>
       </c>
       <c r="D9" t="n">
+        <v>1.678541669201373</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.689888888888888</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9168778846091633</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.2793236949768886</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.9168778846091633</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>-2.291387372480358</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.5472423370038857</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.2972404371584689</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-9.480972726306447</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1.105860947915959</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.678541669201373</v>
       </c>
     </row>
     <row r="10">
@@ -693,31 +693,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.820659340659342</v>
+        <v>0.286111111111111</v>
       </c>
       <c r="C10" t="n">
         <v>-44.69230797025832</v>
       </c>
       <c r="D10" t="n">
+        <v>1.96519795104173</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.820659340659342</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.857225390442186</v>
+      </c>
+      <c r="G10" t="n">
         <v>3.780408689347913</v>
       </c>
-      <c r="E10" t="n">
-        <v>6.857225390442186</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>-0.4616141369835418</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.289027194429558</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.286111111111111</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-6.552191962616234</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>-0.3760612173782659</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.96519795104173</v>
       </c>
     </row>
     <row r="11">
@@ -727,31 +727,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.023695652173912</v>
+        <v>0.2536507936507939</v>
       </c>
       <c r="C11" t="n">
         <v>-44.84350588539988</v>
       </c>
       <c r="D11" t="n">
+        <v>1.762982506784476</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.023695652173912</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.798068618420749</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.9606021200483589</v>
       </c>
-      <c r="E11" t="n">
-        <v>2.798068618420749</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>-0.4959210953340971</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.5475007302610772</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.2536507936507939</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-6.235902821765421</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.2437737982964335</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.762982506784476</v>
       </c>
     </row>
     <row r="12">
@@ -761,31 +761,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.394456521739132</v>
+        <v>0.2428961748633873</v>
       </c>
       <c r="C12" t="n">
         <v>-44.2753979323154</v>
       </c>
       <c r="D12" t="n">
+        <v>1.994774060574329</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.394456521739132</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.005296841501262</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.327475958972028</v>
       </c>
-      <c r="E12" t="n">
-        <v>2.005296841501262</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>-0.05003880116390746</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.6197243308428289</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.2428961748633873</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-3.26299117459439</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.4044686137477984</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.994774060574329</v>
       </c>
     </row>
     <row r="13">
@@ -795,31 +795,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.518305555555556</v>
+        <v>0.2627956989247306</v>
       </c>
       <c r="C13" t="n">
         <v>-44.13144885564565</v>
       </c>
       <c r="D13" t="n">
+        <v>1.916226297816421</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.518305555555556</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.075736106093146</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.2519383162330859</v>
       </c>
-      <c r="E13" t="n">
-        <v>1.075736106093146</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>-0.08083485212642927</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.7950190207633172</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.2627956989247306</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.4479477505358318</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.6371039027000576</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.916226297816421</v>
       </c>
     </row>
     <row r="14">
@@ -829,31 +829,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.545494505494503</v>
+        <v>0.319583333333334</v>
       </c>
       <c r="C14" t="n">
         <v>-44.80565711232767</v>
       </c>
       <c r="D14" t="n">
+        <v>2.248164277360457</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.545494505494503</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.3093169186137638</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.06339662983173713</v>
       </c>
-      <c r="E14" t="n">
-        <v>-0.3093169186137638</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>-0.8604526669264487</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.03050520497229362</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.319583333333334</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.751374813737129</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.03646260775651751</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.248164277360457</v>
       </c>
     </row>
     <row r="15">
@@ -863,31 +863,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.735027173913043</v>
+        <v>0.3245634920634908</v>
       </c>
       <c r="C15" t="n">
         <v>-44.30315116623221</v>
       </c>
       <c r="D15" t="n">
+        <v>2.028389482010122</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.735027173913043</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.258131834991599</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.7089338687698552</v>
       </c>
-      <c r="E15" t="n">
-        <v>2.258131834991599</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>-0.4033172676202526</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.314668408952749</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.3245634920634908</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.751374813737129</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.2052059121961721</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.028389482010122</v>
       </c>
     </row>
     <row r="16">
@@ -897,31 +897,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.395054347826087</v>
+        <v>0.3446994535519123</v>
       </c>
       <c r="C16" t="n">
         <v>-44.4995729324078</v>
       </c>
       <c r="D16" t="n">
+        <v>2.006630854792798</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.395054347826087</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.998910244774579</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.332360876635667</v>
       </c>
-      <c r="E16" t="n">
-        <v>-0.998910244774579</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>-0.3746223777278033</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.8130857633276733</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.3446994535519123</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15.58601374858779</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.3744340145790591</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.006630854792798</v>
       </c>
     </row>
     <row r="17">
@@ -931,31 +931,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.766318681318682</v>
+        <v>0.3810483870967736</v>
       </c>
       <c r="C17" t="n">
         <v>-45.1681974874005</v>
       </c>
       <c r="D17" t="n">
+        <v>2.239858647700132</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.766318681318682</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.080248460962925</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.3292433414026114</v>
       </c>
-      <c r="E17" t="n">
-        <v>-1.080248460962925</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>-1.101708741655727</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.6911222854116749</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.3810483870967736</v>
-      </c>
-      <c r="H17" t="n">
-        <v>28.75562786600119</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.4682372125669566</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.239858647700132</v>
       </c>
     </row>
     <row r="18">
@@ -965,31 +965,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.167225274725274</v>
+        <v>0.719761904761905</v>
       </c>
       <c r="C18" t="n">
         <v>-47.22906164316002</v>
       </c>
       <c r="D18" t="n">
+        <v>2.279556662533132</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.167225274725274</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-9.382761707345084</v>
+      </c>
+      <c r="G18" t="n">
         <v>-2.059828142068326</v>
       </c>
-      <c r="E18" t="n">
-        <v>-9.382761707345084</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>-3.157051598808778</v>
+      </c>
+      <c r="I18" t="n">
         <v>-2.089376127819929</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.719761904761905</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27.83648091557939</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.5428319962623585</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.279556662533132</v>
       </c>
     </row>
     <row r="19">
@@ -999,31 +999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.455788043478262</v>
+        <v>0.5562369791666657</v>
       </c>
       <c r="C19" t="n">
         <v>-47.79309152212507</v>
       </c>
       <c r="D19" t="n">
+        <v>2.2287489170597</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.455788043478262</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9766537119486277</v>
+      </c>
+      <c r="G19" t="n">
         <v>-0.1545101820559532</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.9766537119486277</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
+        <v>-3.800555282254606</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.077810179504212</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.5562369791666657</v>
-      </c>
-      <c r="H19" t="n">
-        <v>26.40375564148172</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.3354941442740488</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.2287489170597</v>
       </c>
     </row>
     <row r="20">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.963206521739131</v>
+        <v>0.5661065573770498</v>
       </c>
       <c r="C20" t="n">
         <v>-46.87283434878555</v>
       </c>
       <c r="D20" t="n">
+        <v>2.637590818621657</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.963206521739131</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.658408065830473</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.763627642497441</v>
       </c>
-      <c r="E20" t="n">
-        <v>3.658408065830473</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
+        <v>-3.179444859745104</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.7971964071314483</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.5661065573770498</v>
-      </c>
-      <c r="H20" t="n">
-        <v>37.21537653307411</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-0.3139831505368311</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.637590818621657</v>
       </c>
     </row>
     <row r="21">
@@ -1067,31 +1067,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.148888888888891</v>
+        <v>0.5740027322404364</v>
       </c>
       <c r="C21" t="n">
         <v>-46.28958074396847</v>
       </c>
       <c r="D21" t="n">
+        <v>2.520370411160759</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.148888888888891</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8388426343868262</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.924004340032314</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.8388426343868262</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
+        <v>-2.687991987088253</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.3663690496487231</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.5740027322404364</v>
-      </c>
-      <c r="H21" t="n">
-        <v>41.07100731023758</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-0.07696787743255375</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.520370411160759</v>
       </c>
     </row>
     <row r="22">
@@ -1101,31 +1101,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.446730769230768</v>
+        <v>0.5073809523809518</v>
       </c>
       <c r="C22" t="n">
         <v>-46.43710802284869</v>
       </c>
       <c r="D22" t="n">
+        <v>1.764463355388001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.446730769230768</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8737148976310295</v>
+      </c>
+      <c r="G22" t="n">
         <v>-0.7019111950218361</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.8737148976310295</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
+        <v>-2.899420171511395</v>
+      </c>
+      <c r="I22" t="n">
         <v>-0.003402772423209798</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.5073809523809518</v>
-      </c>
-      <c r="H22" t="n">
-        <v>44.44585741507979</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0.2833897789660766</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.764463355388001</v>
       </c>
     </row>
     <row r="23">
@@ -1135,31 +1135,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.398586956521742</v>
+        <v>0.4095572916666681</v>
       </c>
       <c r="C23" t="n">
         <v>-47.28096326622956</v>
       </c>
       <c r="D23" t="n">
+        <v>1.924678498226969</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.398586956521742</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.2464463948107675</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.183610559436087</v>
       </c>
-      <c r="E23" t="n">
-        <v>-0.2464463948107675</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
+        <v>-3.919260039675862</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.3231837766074236</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.4095572916666681</v>
-      </c>
-      <c r="H23" t="n">
-        <v>48.82944118266096</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.4126566203039123</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.924678498226969</v>
       </c>
     </row>
     <row r="24">
@@ -1169,31 +1169,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.397092391304347</v>
+        <v>0.6416530054644816</v>
       </c>
       <c r="C24" t="n">
         <v>-48.40272326225109</v>
       </c>
       <c r="D24" t="n">
+        <v>1.810360343626795</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.397092391304347</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.159828632663878</v>
+      </c>
+      <c r="G24" t="n">
         <v>-1.187612800691716</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.159828632663878</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
+        <v>-4.536489327458071</v>
+      </c>
+      <c r="I24" t="n">
         <v>-1.008374679411132</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.6416530054644816</v>
-      </c>
-      <c r="H24" t="n">
-        <v>50.07593902689706</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>-0.3361321699064641</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.810360343626795</v>
       </c>
     </row>
     <row r="25">
@@ -1203,31 +1203,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.551861111111113</v>
+        <v>0.6913251366120221</v>
       </c>
       <c r="C25" t="n">
         <v>-49.8296287686016</v>
       </c>
       <c r="D25" t="n">
+        <v>1.394290596901289</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.551861111111113</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.063112202748291</v>
+      </c>
+      <c r="G25" t="n">
         <v>-1.670842187247645</v>
       </c>
-      <c r="E25" t="n">
-        <v>-3.063112202748291</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
+        <v>-6.040613414483687</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.4315000606660209</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.6913251366120221</v>
-      </c>
-      <c r="H25" t="n">
-        <v>52.15213817174003</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.6974992692667927</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.394290596901289</v>
       </c>
     </row>
     <row r="26">
@@ -1237,31 +1237,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.628543956043953</v>
+        <v>0.7094841269841266</v>
       </c>
       <c r="C26" t="n">
         <v>-50.00204542802283</v>
       </c>
       <c r="D26" t="n">
+        <v>1.284028647317737</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.628543956043953</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3.746888062621709</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.4304662579247325</v>
       </c>
-      <c r="E26" t="n">
-        <v>-3.746888062621709</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>-5.708063959377512</v>
+      </c>
+      <c r="I26" t="n">
         <v>-0.0151111440750123</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.7094841269841266</v>
-      </c>
-      <c r="H26" t="n">
-        <v>50.6536874214911</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0.2957830403413962</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.284028647317737</v>
       </c>
     </row>
     <row r="27">
@@ -1271,31 +1271,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.753179347826086</v>
+        <v>0.7843750000000016</v>
       </c>
       <c r="C27" t="n">
         <v>-50.6870282743219</v>
       </c>
       <c r="D27" t="n">
+        <v>1.372674091154444</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.753179347826086</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.820846460443481</v>
+      </c>
+      <c r="G27" t="n">
         <v>-0.4752435932002781</v>
       </c>
-      <c r="E27" t="n">
-        <v>-3.820846460443481</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
+        <v>-6.19387003967438</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.7951838894356019</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.7843750000000016</v>
-      </c>
-      <c r="H27" t="n">
-        <v>47.44420819515977</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0.4907338633348499</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.372674091154444</v>
       </c>
     </row>
     <row r="28">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.320978260869566</v>
+        <v>0.9316393442622943</v>
       </c>
       <c r="C28" t="n">
         <v>-51.51284047006961</v>
       </c>
       <c r="D28" t="n">
+        <v>1.028401641324114</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.320978260869566</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.4918991090102581</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.07122724845023939</v>
       </c>
-      <c r="E28" t="n">
-        <v>-0.4918991090102581</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
+        <v>-6.984232661677026</v>
+      </c>
+      <c r="I28" t="n">
         <v>1.705686676173024</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.9316393442622943</v>
-      </c>
-      <c r="H28" t="n">
-        <v>35.2882694075127</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>0.04276391816866596</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.028401641324114</v>
       </c>
     </row>
     <row r="29">
@@ -1339,31 +1339,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.164388888888889</v>
+        <v>0.8193650793650793</v>
       </c>
       <c r="C29" t="n">
         <v>-51.65836755823844</v>
       </c>
       <c r="D29" t="n">
+        <v>0.7975230574370042</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.164388888888889</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6255158505520185</v>
+      </c>
+      <c r="G29" t="n">
         <v>1.148879950711806</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.6255158505520185</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
+        <v>-6.902680732228248</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.8906501804679745</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.8193650793650793</v>
-      </c>
-      <c r="H29" t="n">
-        <v>31.34303117443937</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.1115741126881956</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7975230574370042</v>
       </c>
     </row>
     <row r="30">
@@ -1373,31 +1373,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.200686813186812</v>
+        <v>0.6749999999999998</v>
       </c>
       <c r="C30" t="n">
         <v>-50.63526943207235</v>
       </c>
       <c r="D30" t="n">
+        <v>0.8933207243260013</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.200686813186812</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.914198888838404</v>
+      </c>
+      <c r="G30" t="n">
         <v>2.333591612418377</v>
       </c>
-      <c r="E30" t="n">
-        <v>2.914198888838404</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
+        <v>-6.178852297141191</v>
+      </c>
+      <c r="I30" t="n">
         <v>2.32761547778348</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.6749999999999998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>27.03467256080819</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>-0.1420023892476789</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8933207243260013</v>
       </c>
     </row>
     <row r="31">
@@ -1407,31 +1407,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.364538043478261</v>
+        <v>0.4725651041666659</v>
       </c>
       <c r="C31" t="n">
         <v>-49.07437376860357</v>
       </c>
       <c r="D31" t="n">
+        <v>0.8420491101263422</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.364538043478261</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4.59330416205631</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.764373630768803</v>
       </c>
-      <c r="E31" t="n">
-        <v>4.59330416205631</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
+        <v>-4.128348728008348</v>
+      </c>
+      <c r="I31" t="n">
         <v>1.753759858460592</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.4725651041666659</v>
-      </c>
-      <c r="H31" t="n">
-        <v>29.10122189054096</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>-0.2450324114759349</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.8420491101263422</v>
       </c>
     </row>
     <row r="32">
@@ -1441,31 +1441,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.357527173913042</v>
+        <v>0.4793750000000001</v>
       </c>
       <c r="C32" t="n">
         <v>-48.0240390358033</v>
       </c>
       <c r="D32" t="n">
+        <v>0.8350178088981722</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.357527173913042</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.743319256421956</v>
+      </c>
+      <c r="G32" t="n">
         <v>2.033087453421959</v>
       </c>
-      <c r="E32" t="n">
-        <v>4.743319256421956</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
+        <v>-3.403981962108276</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.654466418066904</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.4793750000000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>29.69090418894399</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>0.3484279558021058</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.8350178088981722</v>
       </c>
     </row>
     <row r="33">
@@ -1475,31 +1475,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.422142857142858</v>
+        <v>0.4472043010752684</v>
       </c>
       <c r="C33" t="n">
         <v>-47.30134837439239</v>
       </c>
       <c r="D33" t="n">
+        <v>1.197107070590594</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.422142857142858</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.110167756811619</v>
+      </c>
+      <c r="G33" t="n">
         <v>2.161164091394069</v>
       </c>
-      <c r="E33" t="n">
-        <v>2.110167756811619</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
+        <v>-2.444612770021308</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.8535780326767866</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.4472043010752684</v>
-      </c>
-      <c r="H33" t="n">
-        <v>30.690303122655</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>-0.1729576653708816</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.197107070590594</v>
       </c>
     </row>
     <row r="34">
@@ -1509,31 +1509,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.638681318681318</v>
+        <v>0.3715079365079372</v>
       </c>
       <c r="C34" t="n">
         <v>-46.14199259296331</v>
       </c>
       <c r="D34" t="n">
+        <v>0.8323388674665968</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.638681318681318</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.819662696022725</v>
+      </c>
+      <c r="G34" t="n">
         <v>1.679539484590057</v>
       </c>
-      <c r="E34" t="n">
-        <v>3.819662696022725</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
+        <v>-1.203599718681915</v>
+      </c>
+      <c r="I34" t="n">
         <v>1.377493207958008</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.3715079365079372</v>
-      </c>
-      <c r="H34" t="n">
-        <v>37.41966669605415</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>0.3254164667776762</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.8323388674665968</v>
       </c>
     </row>
     <row r="35">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.848070652173912</v>
+        <v>0.4592063492063501</v>
       </c>
       <c r="C35" t="n">
         <v>-46.48092624399895</v>
       </c>
       <c r="D35" t="n">
+        <v>0.7836592022089766</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.848070652173912</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.485626163087784</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.8608946609890773</v>
       </c>
-      <c r="E35" t="n">
-        <v>1.485626163087784</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
+        <v>-1.510551958115286</v>
+      </c>
+      <c r="I35" t="n">
         <v>0.6434693311763863</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.4592063492063501</v>
-      </c>
-      <c r="H35" t="n">
-        <v>37.48767077891966</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0.5029918571160692</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7836592022089766</v>
       </c>
     </row>
     <row r="36">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.315624999999999</v>
+        <v>0.461502732240437</v>
       </c>
       <c r="C36" t="n">
         <v>-46.32901859253334</v>
       </c>
       <c r="D36" t="n">
+        <v>0.6945437004593411</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.315624999999999</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.309007639839499</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.7515047413672785</v>
       </c>
-      <c r="E36" t="n">
-        <v>1.309007639839499</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
+        <v>-1.353977952734454</v>
+      </c>
+      <c r="I36" t="n">
         <v>1.310072664838016</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.461502732240437</v>
-      </c>
-      <c r="H36" t="n">
-        <v>29.69090418894399</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>0.2948636640604868</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6945437004593411</v>
       </c>
     </row>
     <row r="37">
@@ -1611,31 +1611,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.118777777777778</v>
+        <v>0.4517083333333329</v>
       </c>
       <c r="C37" t="n">
         <v>-46.20317518949663</v>
       </c>
       <c r="D37" t="n">
+        <v>1.060250895926464</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.118777777777778</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2534906890969545</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.831197707890337</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.2534906890969545</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
+        <v>-0.8752697151894608</v>
+      </c>
+      <c r="I37" t="n">
         <v>1.433036493779949</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.4517083333333329</v>
-      </c>
-      <c r="H37" t="n">
-        <v>28.11062438945294</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>-0.08053697142812447</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.060250895926464</v>
       </c>
     </row>
     <row r="38">
@@ -1645,31 +1645,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.981098901098901</v>
+        <v>0.5491269841269846</v>
       </c>
       <c r="C38" t="n">
         <v>-46.46794215043609</v>
       </c>
       <c r="D38" t="n">
+        <v>0.6552924472785392</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.981098901098901</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4311379919120683</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.7802932499655038</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.4311379919120683</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
+        <v>-0.865632663060353</v>
+      </c>
+      <c r="I38" t="n">
         <v>1.196147723908102</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.5491269841269846</v>
-      </c>
-      <c r="H38" t="n">
-        <v>25.2835809956274</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>0.4527521303786584</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6552924472785392</v>
       </c>
     </row>
     <row r="39">
@@ -1679,31 +1679,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.975244565217391</v>
+        <v>0.5336111111111115</v>
       </c>
       <c r="C39" t="n">
         <v>-46.36052709329963</v>
       </c>
       <c r="D39" t="n">
+        <v>0.5292812790259432</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.975244565217391</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.6978206447640405</v>
+      </c>
+      <c r="G39" t="n">
         <v>1.483530234597771</v>
       </c>
-      <c r="E39" t="n">
-        <v>-0.6978206447640405</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
+        <v>-0.9667782770258668</v>
+      </c>
+      <c r="I39" t="n">
         <v>1.964772734834485</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.5336111111111115</v>
-      </c>
-      <c r="H39" t="n">
-        <v>20.96749328677959</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>0.8387291113820747</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5292812790259432</v>
       </c>
     </row>
     <row r="40">
@@ -1713,31 +1713,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.026114130434783</v>
+        <v>0.5526344086021506</v>
       </c>
       <c r="C40" t="n">
         <v>-45.87780946960859</v>
       </c>
       <c r="D40" t="n">
+        <v>0.701378650800716</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.026114130434783</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.769939678214606</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.8197475992982421</v>
       </c>
-      <c r="E40" t="n">
-        <v>1.769939678214606</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
+        <v>-0.673776569808922</v>
+      </c>
+      <c r="I40" t="n">
         <v>0.5909355388296585</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.5526344086021506</v>
-      </c>
-      <c r="H40" t="n">
-        <v>16.93094856331686</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>0.9159072737594085</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.701378650800716</v>
       </c>
     </row>
     <row r="41">
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.956722222222221</v>
+        <v>0.6149713114754092</v>
       </c>
       <c r="C41" t="n">
         <v>-45.61917596475499</v>
       </c>
       <c r="D41" t="n">
+        <v>0.3890272529928908</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.956722222222221</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2125605607818274</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.9070007055554232</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.2125605607818274</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
+        <v>-0.7335266624463088</v>
+      </c>
+      <c r="I41" t="n">
         <v>1.02021660147615</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.6149713114754092</v>
-      </c>
-      <c r="H41" t="n">
-        <v>8.668557725107121</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>0.9390135137965314</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.3890272529928908</v>
       </c>
     </row>
     <row r="42">
@@ -1781,31 +1781,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.729615384615386</v>
+        <v>0.6681640624999996</v>
       </c>
       <c r="C42" t="n">
         <v>-45.94026168806973</v>
       </c>
       <c r="D42" t="n">
+        <v>0.4675090328993975</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.729615384615386</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1982090700185209</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.4155956314773733</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.1982090700185209</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
+        <v>-1.134393422757853</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.6553270717651473</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.6681640624999996</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1.563705212926834</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>0.4517357855170038</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.4675090328993975</v>
       </c>
     </row>
     <row r="43">
@@ -1815,31 +1815,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.552364130434782</v>
+        <v>0.7192578125000004</v>
       </c>
       <c r="C43" t="n">
         <v>-45.6239155235047</v>
       </c>
       <c r="D43" t="n">
+        <v>0.6243793117364942</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.552364130434782</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.3404226609286983</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.9237706539895741</v>
       </c>
-      <c r="E43" t="n">
-        <v>-0.3404226609286983</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
+        <v>-1.003281296737327</v>
+      </c>
+      <c r="I43" t="n">
         <v>1.84971947054663</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.7192578125000004</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.701973371628128</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>0.2864923080875492</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6243793117364942</v>
       </c>
     </row>
     <row r="44">
@@ -1849,31 +1849,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.566684782608696</v>
+        <v>0.707859122983872</v>
       </c>
       <c r="C44" t="n">
         <v>-45.63495799067974</v>
       </c>
       <c r="D44" t="n">
+        <v>0.7125920889967664</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.566684782608696</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5219914932331495</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.5307636290643926</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.5219914932331495</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
+        <v>-0.6917388536410272</v>
+      </c>
+      <c r="I44" t="n">
         <v>0.6922920853173447</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.707859122983872</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-0.1564142259209689</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>0.9573246867664578</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.7125920889967664</v>
       </c>
     </row>
     <row r="45">
@@ -1883,31 +1883,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.555638888888889</v>
+        <v>0.6166314119513487</v>
       </c>
       <c r="C45" t="n">
         <v>-44.95701864014428</v>
       </c>
       <c r="D45" t="n">
+        <v>0.890174748427211</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.555638888888889</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-2.938211840051665</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.7310510910447735</v>
       </c>
-      <c r="E45" t="n">
-        <v>-2.938211840051665</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
+        <v>0.09440160157430455</v>
+      </c>
+      <c r="I45" t="n">
         <v>0.4941386607925461</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.6166314119513487</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-4.545683802006806</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>-0.635721684927732</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.890174748427211</v>
       </c>
     </row>
     <row r="46">
@@ -1917,31 +1917,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.6625</v>
+        <v>0.5042460317460318</v>
       </c>
       <c r="C46" t="n">
         <v>-44.48865135928218</v>
       </c>
       <c r="D46" t="n">
+        <v>0.701301575591844</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.6625</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.360071516585803</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.057038087372075</v>
       </c>
-      <c r="E46" t="n">
-        <v>1.360071516585803</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
+        <v>0.5190842468496726</v>
+      </c>
+      <c r="I46" t="n">
         <v>1.600920594161518</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.5042460317460318</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.427076664989897</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>0.3100850481010285</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.701301575591844</v>
       </c>
     </row>
     <row r="47">
@@ -1951,31 +1951,31 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.709891304347826</v>
+        <v>0.5077343750000005</v>
       </c>
       <c r="C47" t="n">
         <v>-44.03069102221102</v>
       </c>
       <c r="D47" t="n">
+        <v>0.7221179025804431</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.709891304347826</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.179933891569046</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.8340687255529061</v>
       </c>
-      <c r="E47" t="n">
-        <v>1.179933891569046</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
+        <v>0.838544503638559</v>
+      </c>
+      <c r="I47" t="n">
         <v>1.333496949102059</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.5077343750000005</v>
-      </c>
-      <c r="H47" t="n">
-        <v>7.516930021664677</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>0.1545314186378164</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7221179025804431</v>
       </c>
     </row>
     <row r="48">
@@ -1985,31 +1985,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.72991847826087</v>
+        <v>0.5633278729838715</v>
       </c>
       <c r="C48" t="n">
         <v>-43.78958808608546</v>
       </c>
       <c r="D48" t="n">
+        <v>0.8061979810109721</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.72991847826087</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.2581799080297491</v>
+      </c>
+      <c r="G48" t="n">
         <v>1.719759270421075</v>
       </c>
-      <c r="E48" t="n">
-        <v>-0.2581799080297491</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
+        <v>1.359599851920677</v>
+      </c>
+      <c r="I48" t="n">
         <v>0.3747293972867039</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.5633278729838715</v>
-      </c>
-      <c r="H48" t="n">
-        <v>11.84125340956058</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>0.6789778325916129</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.8061979810109721</v>
       </c>
     </row>
     <row r="49">
@@ -2019,31 +2019,31 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.666483516483517</v>
+        <v>0.5835675883256504</v>
       </c>
       <c r="C49" t="n">
         <v>-43.85206655806537</v>
       </c>
       <c r="D49" t="n">
+        <v>0.673232139492117</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.666483516483517</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9018068752673495</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.6634557480886494</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.9018068752673495</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
+        <v>0.9850435103217023</v>
+      </c>
+      <c r="I49" t="n">
         <v>1.713056587583995</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.5835675883256504</v>
-      </c>
-      <c r="H49" t="n">
-        <v>6.081186172543767</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>0.06116528608373858</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.673232139492117</v>
       </c>
     </row>
     <row r="50">
@@ -2053,31 +2053,31 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.788736263736262</v>
+        <v>0.5175000000000014</v>
       </c>
       <c r="C50" t="n">
         <v>-43.81051972180227</v>
       </c>
       <c r="D50" t="n">
+        <v>1.007692114386201</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.788736263736262</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.371865800390151</v>
+      </c>
+      <c r="G50" t="n">
         <v>1.170641531749608</v>
       </c>
-      <c r="E50" t="n">
-        <v>1.371865800390151</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
+        <v>1.485602162117516</v>
+      </c>
+      <c r="I50" t="n">
         <v>0.8091671480838</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.5175000000000014</v>
-      </c>
-      <c r="H50" t="n">
-        <v>8.268478878257497</v>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>0.5652380764681929</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.007692114386201</v>
       </c>
     </row>
     <row r="51">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.995869565217391</v>
+        <v>0.4937890624999994</v>
       </c>
       <c r="C51" t="n">
         <v>-43.52433317385061</v>
       </c>
       <c r="D51" t="n">
+        <v>1.171207008673443</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.995869565217391</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.1755547263931864</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.5105217613422749</v>
       </c>
-      <c r="E51" t="n">
-        <v>-0.1755547263931864</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
+        <v>1.608459877338419</v>
+      </c>
+      <c r="I51" t="n">
         <v>0.8398451349840864</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.4937890624999994</v>
-      </c>
-      <c r="H51" t="n">
-        <v>9.137803224632194</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>-0.09656980112504204</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.171207008673443</v>
       </c>
     </row>
     <row r="52">
@@ -2121,31 +2121,31 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.117119565217391</v>
+        <v>0.3882377049180321</v>
       </c>
       <c r="C52" t="n">
         <v>-43.03294805812113</v>
       </c>
       <c r="D52" t="n">
+        <v>0.7773498333380227</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.117119565217391</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.111813318147542</v>
+      </c>
+      <c r="G52" t="n">
         <v>1.290541359449702</v>
       </c>
-      <c r="E52" t="n">
-        <v>1.111813318147542</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
+        <v>2.372606537047886</v>
+      </c>
+      <c r="I52" t="n">
         <v>1.358925981653157</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.3882377049180321</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3.867635806471014</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>-0.06728767838041383</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7773498333380227</v>
       </c>
     </row>
     <row r="53">
@@ -2155,31 +2155,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.36161111111111</v>
+        <v>0.3583804865150717</v>
       </c>
       <c r="C53" t="n">
         <v>-42.64623831622479</v>
       </c>
       <c r="D53" t="n">
+        <v>1.02715503218297</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.36161111111111</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1927405233345467</v>
+      </c>
+      <c r="G53" t="n">
         <v>1.208408893270304</v>
       </c>
-      <c r="E53" t="n">
-        <v>0.1927405233345467</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
+        <v>3.019304501813053</v>
+      </c>
+      <c r="I53" t="n">
         <v>0.4550193981556611</v>
       </c>
-      <c r="G53" t="n">
-        <v>0.3583804865150717</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5.145462315123041</v>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>-0.9092999802385253</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.02715503218297</v>
       </c>
     </row>
     <row r="54">
@@ -2189,31 +2189,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.431428571428573</v>
+        <v>0.4010937499999998</v>
       </c>
       <c r="C54" t="n">
         <v>-42.74143671757792</v>
       </c>
       <c r="D54" t="n">
+        <v>0.9926240562758334</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.431428571428573</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.2272531830110515</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.5425519283029521</v>
       </c>
-      <c r="E54" t="n">
-        <v>-0.2272531830110515</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
+        <v>3.217572848143504</v>
+      </c>
+      <c r="I54" t="n">
         <v>0.7322786178853364</v>
       </c>
-      <c r="G54" t="n">
-        <v>0.4010937499999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2.452761511586402</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>-0.6398900044790241</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.9926240562758334</v>
       </c>
     </row>
     <row r="55">
@@ -2223,31 +2223,31 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.270896739130434</v>
+        <v>0.4448015873015883</v>
       </c>
       <c r="C55" t="n">
         <v>-42.81939346613131</v>
       </c>
       <c r="D55" t="n">
+        <v>0.7201183303526349</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.270896739130434</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.518165711347191</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.4730865533102396</v>
       </c>
-      <c r="E55" t="n">
-        <v>1.518165711347191</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
+        <v>3.398486302478091</v>
+      </c>
+      <c r="I55" t="n">
         <v>0.7818034733682262</v>
       </c>
-      <c r="G55" t="n">
-        <v>0.4448015873015883</v>
-      </c>
-      <c r="H55" t="n">
-        <v>-2.246377878247245</v>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>0.09812118514135591</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.7201183303526349</v>
       </c>
     </row>
     <row r="56">
@@ -2257,31 +2257,31 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.153614130434783</v>
+        <v>0.4765988223246289</v>
       </c>
       <c r="C56" t="n">
         <v>-42.89979464000221</v>
       </c>
       <c r="D56" t="n">
+        <v>0.7387141897300964</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.153614130434783</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-1.710334359047649</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.345814707248302</v>
       </c>
-      <c r="E56" t="n">
-        <v>-1.710334359047649</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
+        <v>3.032736274465663</v>
+      </c>
+      <c r="I56" t="n">
         <v>0.5805721813346457</v>
       </c>
-      <c r="G56" t="n">
-        <v>0.4765988223246289</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-2.989264681415648</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>0.7633360027423075</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.7387141897300964</v>
       </c>
     </row>
     <row r="57">
@@ -2291,31 +2291,31 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.061999999999999</v>
+        <v>0.4179211469534052</v>
       </c>
       <c r="C57" t="n">
         <v>-42.37513738902543</v>
       </c>
       <c r="D57" t="n">
+        <v>1.121418822902911</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.061999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.927785494710185</v>
+      </c>
+      <c r="G57" t="n">
         <v>1.240483928890894</v>
       </c>
-      <c r="E57" t="n">
-        <v>0.927785494710185</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
+        <v>3.046799379596735</v>
+      </c>
+      <c r="I57" t="n">
         <v>1.024049007272622</v>
       </c>
-      <c r="G57" t="n">
-        <v>0.4179211469534052</v>
-      </c>
-      <c r="H57" t="n">
-        <v>-0.1555543829111343</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>0.2453450499634662</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.121418822902911</v>
       </c>
     </row>
     <row r="58">
@@ -2325,31 +2325,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.059835164835165</v>
+        <v>0.4096825396825405</v>
       </c>
       <c r="C58" t="n">
         <v>-42.78185328979351</v>
       </c>
       <c r="D58" t="n">
+        <v>1.143803319692638</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.059835164835165</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-3.287158521040694</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.2290304391986389</v>
       </c>
-      <c r="E58" t="n">
-        <v>-3.287158521040694</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
+        <v>2.199614245892349</v>
+      </c>
+      <c r="I58" t="n">
         <v>0.2167019025857855</v>
       </c>
-      <c r="G58" t="n">
-        <v>0.4096825396825405</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1.974055627160737</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>0.7610161773768187</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.143803319692638</v>
       </c>
     </row>
     <row r="59">
@@ -2359,31 +2359,31 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.040054347826086</v>
+        <v>0.4265476190476178</v>
       </c>
       <c r="C59" t="n">
         <v>-43.54121787527573</v>
       </c>
       <c r="D59" t="n">
+        <v>0.9586029402908339</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.040054347826086</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-1.158968379472779</v>
+      </c>
+      <c r="G59" t="n">
         <v>-0.182884722116399</v>
       </c>
-      <c r="E59" t="n">
-        <v>-1.158968379472779</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
+        <v>1.310387802552555</v>
+      </c>
+      <c r="I59" t="n">
         <v>0.744175518640439</v>
       </c>
-      <c r="G59" t="n">
-        <v>0.4265476190476178</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2.887206037643182</v>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>0.4739284442903958</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.9586029402908339</v>
       </c>
     </row>
     <row r="60">
@@ -2393,31 +2393,31 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.935842391304347</v>
+        <v>0.5499143145161289</v>
       </c>
       <c r="C60" t="n">
         <v>-44.30222372720048</v>
       </c>
       <c r="D60" t="n">
+        <v>0.8697697312391089</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.935842391304347</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-3.669330480181821</v>
+      </c>
+      <c r="G60" t="n">
         <v>-0.824894841557354</v>
       </c>
-      <c r="E60" t="n">
-        <v>-3.669330480181821</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="H60" t="n">
+        <v>0.6707182691882849</v>
+      </c>
+      <c r="I60" t="n">
         <v>-0.3065620884274358</v>
       </c>
-      <c r="G60" t="n">
-        <v>0.5499143145161289</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4.77336939208044</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>0.1100965736310962</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8697697312391089</v>
       </c>
     </row>
     <row r="61">
@@ -2427,31 +2427,31 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.60761111111111</v>
+        <v>0.5476099726775963</v>
       </c>
       <c r="C61" t="n">
         <v>-45.29726562825098</v>
       </c>
       <c r="D61" t="n">
+        <v>1.155558343891428</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.60761111111111</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-3.91096021352249</v>
+      </c>
+      <c r="G61" t="n">
         <v>-0.493397312501702</v>
       </c>
-      <c r="E61" t="n">
-        <v>-3.91096021352249</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
+        <v>-0.3700708482692221</v>
+      </c>
+      <c r="I61" t="n">
         <v>-0.8700172893262821</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.5476099726775963</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1.006998072371971</v>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>-0.2925540664699352</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.155558343891428</v>
       </c>
     </row>
     <row r="62">
@@ -2461,31 +2461,31 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.466016483516483</v>
+        <v>0.4489843750000007</v>
       </c>
       <c r="C62" t="n">
         <v>-45.64130575915615</v>
       </c>
       <c r="D62" t="n">
+        <v>0.7071133341337452</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.466016483516483</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.144586689799079</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.5579003786336859</v>
       </c>
-      <c r="E62" t="n">
-        <v>-1.144586689799079</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="H62" t="n">
+        <v>-0.7715257009391507</v>
+      </c>
+      <c r="I62" t="n">
         <v>0.6655528275786259</v>
       </c>
-      <c r="G62" t="n">
-        <v>0.4489843750000007</v>
-      </c>
-      <c r="H62" t="n">
-        <v>-1.895615650165439</v>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>0.8912158433473732</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7071133341337452</v>
       </c>
     </row>
     <row r="63">
@@ -2495,31 +2495,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.411304347826086</v>
+        <v>0.4350390625000009</v>
       </c>
       <c r="C63" t="n">
         <v>-45.74942029436372</v>
       </c>
       <c r="D63" t="n">
+        <v>0.6466020298630455</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.411304347826086</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.371395451361428</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.2456304498582897</v>
       </c>
-      <c r="E63" t="n">
-        <v>-0.371395451361428</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
+        <v>-0.9353173304218103</v>
+      </c>
+      <c r="I63" t="n">
         <v>0.35129066882171</v>
       </c>
-      <c r="G63" t="n">
-        <v>0.4350390625000009</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-4.254027618047701</v>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>0.3002751130221616</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6466020298630455</v>
       </c>
     </row>
     <row r="64">
@@ -2529,31 +2529,31 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.204619565217391</v>
+        <v>0.5142968749999994</v>
       </c>
       <c r="C64" t="n">
         <v>-45.91290674638478</v>
       </c>
       <c r="D64" t="n">
+        <v>0.5319750991793072</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.204619565217391</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4570500207491403</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.5370822559961117</v>
       </c>
-      <c r="E64" t="n">
-        <v>-0.4570500207491403</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="H64" t="n">
+        <v>-1.184206375707845</v>
+      </c>
+      <c r="I64" t="n">
         <v>0.09880549263521338</v>
       </c>
-      <c r="G64" t="n">
-        <v>0.5142968749999994</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-7.270845185564951</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>0.7167403980770832</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5319750991793072</v>
       </c>
     </row>
     <row r="65">
@@ -2563,31 +2563,31 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.006071428571428</v>
+        <v>0.473266129032258</v>
       </c>
       <c r="C65" t="n">
         <v>-45.89652737031187</v>
       </c>
       <c r="D65" t="n">
+        <v>0.7597900339833207</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.006071428571428</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5670320843892851</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.9241635064650321</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.5670320843892851</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
+        <v>-1.121520439532617</v>
+      </c>
+      <c r="I65" t="n">
         <v>1.68467519851528</v>
       </c>
-      <c r="G65" t="n">
-        <v>0.473266129032258</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-9.444734276915483</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>1.287364364035414</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.7597900339833207</v>
       </c>
     </row>
     <row r="66">
@@ -2597,31 +2597,31 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9435164835164841</v>
+        <v>0.4378968253968256</v>
       </c>
       <c r="C66" t="n">
         <v>-45.45070909323537</v>
       </c>
       <c r="D66" t="n">
+        <v>0.5688048588946006</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9435164835164841</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.486783513894636</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.9317680635865615</v>
       </c>
-      <c r="E66" t="n">
-        <v>3.486783513894636</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
+        <v>-0.7012213901699056</v>
+      </c>
+      <c r="I66" t="n">
         <v>0.5966251894700353</v>
       </c>
-      <c r="G66" t="n">
-        <v>0.4378968253968256</v>
-      </c>
-      <c r="H66" t="n">
-        <v>-10.23459496204873</v>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>0.03725760227447895</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5688048588946006</v>
       </c>
     </row>
     <row r="67">
@@ -2631,31 +2631,31 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.8148097826086955</v>
+        <v>0.5213671874999992</v>
       </c>
       <c r="C67" t="n">
         <v>-45.42718875919548</v>
       </c>
       <c r="D67" t="n">
+        <v>0.3266909145348321</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.8148097826086955</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.339036749031762</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.7696542557765008</v>
       </c>
-      <c r="E67" t="n">
-        <v>1.339036749031762</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
+        <v>-0.7199534015181257</v>
+      </c>
+      <c r="I67" t="n">
         <v>0.9650325816354068</v>
       </c>
-      <c r="G67" t="n">
-        <v>0.5213671874999992</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-14.98430049032072</v>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>0.9739777469163584</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.3266909145348321</v>
       </c>
     </row>
     <row r="68">
@@ -2665,31 +2665,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.758722826086957</v>
+        <v>0.5317552923387101</v>
       </c>
       <c r="C68" t="n">
         <v>-45.66516711426459</v>
       </c>
       <c r="D68" t="n">
+        <v>0.6285920773643321</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.758722826086957</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.801883795431928</v>
+      </c>
+      <c r="G68" t="n">
         <v>1.308845707467641</v>
       </c>
-      <c r="E68" t="n">
-        <v>2.801883795431928</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="H68" t="n">
+        <v>-0.755675450586466</v>
+      </c>
+      <c r="I68" t="n">
         <v>1.539867701330399</v>
       </c>
-      <c r="G68" t="n">
-        <v>0.5317552923387101</v>
-      </c>
-      <c r="H68" t="n">
-        <v>-13.12755398381398</v>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>0.1634912717800875</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6285920773643321</v>
       </c>
     </row>
     <row r="69">
@@ -2699,31 +2699,31 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.7605833333333336</v>
+        <v>0.5328701745108417</v>
       </c>
       <c r="C69" t="n">
         <v>-45.43182352191968</v>
       </c>
       <c r="D69" t="n">
+        <v>0.8284516692234215</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7605833333333336</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.544720898311038</v>
+      </c>
+      <c r="G69" t="n">
         <v>-0.02718304939016979</v>
       </c>
-      <c r="E69" t="n">
-        <v>0.544720898311038</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
+        <v>-0.5534898384070175</v>
+      </c>
+      <c r="I69" t="n">
         <v>-0.08249519752331831</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.5328701745108417</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-18.66487553136449</v>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>-0.7298809367475073</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.8284516692234215</v>
       </c>
     </row>
     <row r="70">
@@ -2733,31 +2733,31 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.7493131868131868</v>
+        <v>0.5377380952380946</v>
       </c>
       <c r="C70" t="n">
         <v>-45.01262614853529</v>
       </c>
       <c r="D70" t="n">
+        <v>0.5343034724303025</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7493131868131868</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.376582697374342</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.6062829290386691</v>
       </c>
-      <c r="E70" t="n">
-        <v>1.376582697374342</v>
-      </c>
-      <c r="F70" t="n">
+      <c r="H70" t="n">
+        <v>0.1407293137412466</v>
+      </c>
+      <c r="I70" t="n">
         <v>1.074656707019964</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.5377380952380946</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-21.69776537717485</v>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>0.05508919644747602</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5343034724303025</v>
       </c>
     </row>
     <row r="71">
@@ -2767,31 +2767,31 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.7644293478260871</v>
+        <v>0.5019140624999994</v>
       </c>
       <c r="C71" t="n">
         <v>-44.528898547303</v>
       </c>
       <c r="D71" t="n">
+        <v>0.4572287193626645</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7644293478260871</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.353751031436346</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.4370909237896318</v>
       </c>
-      <c r="E71" t="n">
-        <v>1.353751031436346</v>
-      </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
+        <v>0.4185241454372886</v>
+      </c>
+      <c r="I71" t="n">
         <v>1.046075145624545</v>
       </c>
-      <c r="G71" t="n">
-        <v>0.5019140624999994</v>
-      </c>
-      <c r="H71" t="n">
-        <v>-28.24849332623324</v>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>-0.1638299758838738</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.4572287193626645</v>
       </c>
     </row>
     <row r="72">
@@ -2801,31 +2801,31 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.7470652173913048</v>
+        <v>0.484679939516129</v>
       </c>
       <c r="C72" t="n">
         <v>-44.18373734704694</v>
       </c>
       <c r="D72" t="n">
+        <v>0.560699696936549</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7470652173913048</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.899802622145206</v>
+      </c>
+      <c r="G72" t="n">
         <v>1.499602964837351</v>
       </c>
-      <c r="E72" t="n">
-        <v>3.899802622145206</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="H72" t="n">
+        <v>0.6294047088558727</v>
+      </c>
+      <c r="I72" t="n">
         <v>0.9986079684419568</v>
       </c>
-      <c r="G72" t="n">
-        <v>0.484679939516129</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-29.14825952904718</v>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>-0.2681592640260389</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.560699696936549</v>
       </c>
     </row>
     <row r="73">
@@ -2835,31 +2835,31 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.8023333333333335</v>
+        <v>0.4421812596006143</v>
       </c>
       <c r="C73" t="n">
         <v>-43.82461461889655</v>
       </c>
       <c r="D73" t="n">
+        <v>0.5156006582094423</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8023333333333335</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.437013354192978</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.843171802058048</v>
       </c>
-      <c r="E73" t="n">
-        <v>1.437013354192978</v>
-      </c>
-      <c r="F73" t="n">
+      <c r="H73" t="n">
+        <v>0.7603199091669808</v>
+      </c>
+      <c r="I73" t="n">
         <v>0.6843774002827572</v>
       </c>
-      <c r="G73" t="n">
-        <v>0.4421812596006143</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-25.19853957845763</v>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>0.8383852104316034</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5156006582094423</v>
       </c>
     </row>
     <row r="74">
@@ -2869,31 +2869,31 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9845054945054948</v>
+        <v>0.377943548387097</v>
       </c>
       <c r="C74" t="n">
         <v>-43.16981981545911</v>
       </c>
       <c r="D74" t="n">
+        <v>0.460733799312787</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9845054945054948</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.354684044053412</v>
+      </c>
+      <c r="G74" t="n">
         <v>1.384675548078348</v>
       </c>
-      <c r="E74" t="n">
-        <v>2.354684044053412</v>
-      </c>
-      <c r="F74" t="n">
+      <c r="H74" t="n">
+        <v>1.727872872115597</v>
+      </c>
+      <c r="I74" t="n">
         <v>0.9111853426933835</v>
       </c>
-      <c r="G74" t="n">
-        <v>0.377943548387097</v>
-      </c>
-      <c r="H74" t="n">
-        <v>-16.17385973098112</v>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>-0.4607337993127787</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.460733799312787</v>
       </c>
     </row>
     <row r="75">
@@ -2903,31 +2903,31 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.121358695652174</v>
+        <v>0.3774609374999998</v>
       </c>
       <c r="C75" t="n">
         <v>-43.10245473753427</v>
       </c>
       <c r="D75" t="n">
+        <v>0.5937208212020041</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.121358695652174</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.8952363975089407</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.5442042219172748</v>
       </c>
-      <c r="E75" t="n">
-        <v>0.8952363975089407</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="H75" t="n">
+        <v>2.01865988118044</v>
+      </c>
+      <c r="I75" t="n">
         <v>1.007501025374469</v>
       </c>
-      <c r="G75" t="n">
-        <v>0.3774609374999998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>-13.46114355477067</v>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>-0.4977054513676619</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5937208212020041</v>
       </c>
     </row>
     <row r="76">
@@ -2937,31 +2937,31 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.291983695652174</v>
+        <v>0.3426411657559199</v>
       </c>
       <c r="C76" t="n">
         <v>-42.40880966519898</v>
       </c>
       <c r="D76" t="n">
+        <v>0.4662496142644469</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.291983695652174</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.334841921449708</v>
+      </c>
+      <c r="G76" t="n">
         <v>1.225801355353728</v>
       </c>
-      <c r="E76" t="n">
-        <v>2.334841921449708</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="H76" t="n">
+        <v>2.747296837699707</v>
+      </c>
+      <c r="I76" t="n">
         <v>0.9605107466480176</v>
       </c>
-      <c r="G76" t="n">
-        <v>0.3426411657559199</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-9.360228929941741</v>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>0.2985724695612195</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.4662496142644469</v>
       </c>
     </row>
     <row r="77">
@@ -2971,31 +2971,31 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.450694444444444</v>
+        <v>0.3502726574500761</v>
       </c>
       <c r="C77" t="n">
         <v>-42.52014124200664</v>
       </c>
       <c r="D77" t="n">
+        <v>0.7312458558732677</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.450694444444444</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.893576751620352</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.3692361283377139</v>
       </c>
-      <c r="E77" t="n">
-        <v>1.893576751620352</v>
-      </c>
-      <c r="F77" t="n">
+      <c r="H77" t="n">
+        <v>2.725698890669946</v>
+      </c>
+      <c r="I77" t="n">
         <v>0.2457208205203396</v>
       </c>
-      <c r="G77" t="n">
-        <v>0.3502726574500761</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-13.07076389714871</v>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>-0.3510172608994027</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7312458558732677</v>
       </c>
     </row>
     <row r="78">
@@ -3005,31 +3005,31 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.50478021978022</v>
+        <v>0.4041666666666666</v>
       </c>
       <c r="C78" t="n">
         <v>-43.19479940801998</v>
       </c>
       <c r="D78" t="n">
+        <v>0.4198459907407757</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.50478021978022</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.6838064589349453</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.194770605863079</v>
       </c>
-      <c r="E78" t="n">
-        <v>-0.6838064589349453</v>
-      </c>
-      <c r="F78" t="n">
+      <c r="H78" t="n">
+        <v>1.981069068704414</v>
+      </c>
+      <c r="I78" t="n">
         <v>1.109556817937518</v>
       </c>
-      <c r="G78" t="n">
-        <v>0.4041666666666666</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-20.74668971180949</v>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>0.3363012793168789</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.4198459907407757</v>
       </c>
     </row>
     <row r="79">
@@ -3039,31 +3039,31 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.44929347826087</v>
+        <v>0.4331746031746033</v>
       </c>
       <c r="C79" t="n">
         <v>-43.30529080285601</v>
       </c>
       <c r="D79" t="n">
+        <v>0.4587865517855493</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.44929347826087</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.710075575729767</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.7713434461316827</v>
       </c>
-      <c r="E79" t="n">
-        <v>0.710075575729767</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="H79" t="n">
+        <v>2.395537457445187</v>
+      </c>
+      <c r="I79" t="n">
         <v>0.7788870117552169</v>
       </c>
-      <c r="G79" t="n">
-        <v>0.4331746031746033</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-22.65009754084826</v>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>0.1981843705305607</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.4587865517855493</v>
       </c>
     </row>
     <row r="80">
@@ -3073,31 +3073,31 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.429864130434783</v>
+        <v>0.4369502048131082</v>
       </c>
       <c r="C80" t="n">
         <v>-43.44583910757746</v>
       </c>
       <c r="D80" t="n">
+        <v>0.4870633677549687</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.429864130434783</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.766427672047497</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.7969324217602153</v>
       </c>
-      <c r="E80" t="n">
-        <v>1.766427672047497</v>
-      </c>
-      <c r="F80" t="n">
+      <c r="H80" t="n">
+        <v>2.170774120876672</v>
+      </c>
+      <c r="I80" t="n">
         <v>0.570215203486378</v>
       </c>
-      <c r="G80" t="n">
-        <v>0.4369502048131082</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-27.94225208234025</v>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>0.2585132453793839</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.4870633677549687</v>
       </c>
     </row>
     <row r="81">
@@ -3107,31 +3107,31 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.342747252747253</v>
+        <v>0.4491250640040965</v>
       </c>
       <c r="C81" t="n">
         <v>-43.59689180876213</v>
       </c>
       <c r="D81" t="n">
+        <v>0.6155728606145845</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.342747252747253</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.009523553822333</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.7125004812386161</v>
       </c>
-      <c r="E81" t="n">
-        <v>2.009523553822333</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="H81" t="n">
+        <v>1.367059941407774</v>
+      </c>
+      <c r="I81" t="n">
         <v>0.7990574274444159</v>
       </c>
-      <c r="G81" t="n">
-        <v>0.4491250640040965</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-27.15238795887211</v>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>0.03227762370571586</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6155728606145845</v>
       </c>
     </row>
     <row r="82">
@@ -3141,31 +3141,31 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.310989010989011</v>
+        <v>0.3951562499999997</v>
       </c>
       <c r="C82" t="n">
         <v>-42.77766190069848</v>
       </c>
       <c r="D82" t="n">
+        <v>0.3414686455448036</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.310989010989011</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.708655858081106</v>
+      </c>
+      <c r="G82" t="n">
         <v>1.634477220679891</v>
       </c>
-      <c r="E82" t="n">
-        <v>2.708655858081106</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
+        <v>1.892109010117906</v>
+      </c>
+      <c r="I82" t="n">
         <v>1.349637993896184</v>
       </c>
-      <c r="G82" t="n">
-        <v>0.3951562499999997</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-19.8035577188565</v>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>0.5768114526886964</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.3414686455448036</v>
       </c>
     </row>
     <row r="83">
@@ -3175,31 +3175,31 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.326548913043478</v>
+        <v>0.3783984374999994</v>
       </c>
       <c r="C83" t="n">
         <v>-42.22505039739417</v>
       </c>
       <c r="D83" t="n">
+        <v>0.4900744918798357</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.326548913043478</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.048779369208999</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.4985692471062164</v>
       </c>
-      <c r="E83" t="n">
-        <v>2.048779369208999</v>
-      </c>
-      <c r="F83" t="n">
+      <c r="H83" t="n">
+        <v>2.486321266265179</v>
+      </c>
+      <c r="I83" t="n">
         <v>0.3806604441839119</v>
       </c>
-      <c r="G83" t="n">
-        <v>0.3783984374999994</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-19.86574033045702</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>0.3292291352777339</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.4900744918798357</v>
       </c>
     </row>
     <row r="84">
@@ -3209,31 +3209,31 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.320217391304347</v>
+        <v>0.3922177419354842</v>
       </c>
       <c r="C84" t="n">
         <v>-41.94283804437397</v>
       </c>
       <c r="D84" t="n">
+        <v>0.3982878908466979</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.320217391304347</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.075465378408611</v>
+      </c>
+      <c r="G84" t="n">
         <v>1.133580469739027</v>
       </c>
-      <c r="E84" t="n">
-        <v>1.075465378408611</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="H84" t="n">
+        <v>2.94596685423403</v>
+      </c>
+      <c r="I84" t="n">
         <v>1.002165754260838</v>
       </c>
-      <c r="G84" t="n">
-        <v>0.3922177419354842</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-24.38727619827381</v>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>0.4143576648558447</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.3982878908466979</v>
       </c>
     </row>
     <row r="85">
@@ -3243,31 +3243,31 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.31961111111111</v>
+        <v>0.3772663934426224</v>
       </c>
       <c r="C85" t="n">
         <v>-41.79766641045085</v>
       </c>
       <c r="D85" t="n">
+        <v>0.7228112067641712</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.31961111111111</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.224685429352858</v>
+      </c>
+      <c r="G85" t="n">
         <v>1.067248665992981</v>
       </c>
-      <c r="E85" t="n">
-        <v>1.224685429352858</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="H85" t="n">
+        <v>3.354616438720029</v>
+      </c>
+      <c r="I85" t="n">
         <v>0.9872671805742985</v>
       </c>
-      <c r="G85" t="n">
-        <v>0.3772663934426224</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-22.474600682127</v>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>-0.1846933163125067</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.7228112067641712</v>
       </c>
     </row>
     <row r="86">
@@ -3277,31 +3277,31 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.38054945054945</v>
+        <v>0.3723437500000006</v>
       </c>
       <c r="C86" t="n">
         <v>-41.17710718681963</v>
       </c>
       <c r="D86" t="n">
+        <v>0.4528012461306312</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.38054945054945</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.216086615202498</v>
+      </c>
+      <c r="G86" t="n">
         <v>1.430515529546919</v>
       </c>
-      <c r="E86" t="n">
-        <v>2.216086615202498</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="H86" t="n">
+        <v>3.777628565463544</v>
+      </c>
+      <c r="I86" t="n">
         <v>0.2963896191648462</v>
       </c>
-      <c r="G86" t="n">
-        <v>0.3723437500000006</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-21.08514043756998</v>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>-0.09565800937092235</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.4528012461306312</v>
       </c>
     </row>
     <row r="87">
@@ -3311,31 +3311,31 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1.383668478260869</v>
+        <v>0.3791406249999991</v>
       </c>
       <c r="C87" t="n">
         <v>-40.95610757010943</v>
       </c>
       <c r="D87" t="n">
+        <v>0.2942043899093243</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.383668478260869</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.142250490257475</v>
+      </c>
+      <c r="G87" t="n">
         <v>1.036189960480518</v>
       </c>
-      <c r="E87" t="n">
-        <v>3.142250490257475</v>
-      </c>
-      <c r="F87" t="n">
+      <c r="H87" t="n">
+        <v>4.089149268573067</v>
+      </c>
+      <c r="I87" t="n">
         <v>1.608695221681822</v>
       </c>
-      <c r="G87" t="n">
-        <v>0.3791406249999991</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-26.48295880784241</v>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>0.6814131046271403</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2942043899093243</v>
       </c>
     </row>
     <row r="88">
@@ -3345,31 +3345,31 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.376847826086956</v>
+        <v>0.3834677419354837</v>
       </c>
       <c r="C88" t="n">
         <v>-40.90854085083651</v>
       </c>
       <c r="D88" t="n">
+        <v>0.3616640470188515</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.376847826086956</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.6291333871134438</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.6828614423982419</v>
       </c>
-      <c r="E88" t="n">
-        <v>0.6291333871134438</v>
-      </c>
-      <c r="F88" t="n">
+      <c r="H88" t="n">
+        <v>4.112295725119736</v>
+      </c>
+      <c r="I88" t="n">
         <v>0.7920131637462404</v>
       </c>
-      <c r="G88" t="n">
-        <v>0.3834677419354837</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-30.67582994073322</v>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>1.127631985910102</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.3616640470188515</v>
       </c>
     </row>
     <row r="89">
@@ -3379,31 +3379,31 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.379833333333333</v>
+        <v>0.4170901639344258</v>
       </c>
       <c r="C89" t="n">
         <v>-40.74522569438824</v>
       </c>
       <c r="D89" t="n">
+        <v>0.2533620532872358</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.379833333333333</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3.361230079846785</v>
+      </c>
+      <c r="G89" t="n">
         <v>1.582975648845578</v>
       </c>
-      <c r="E89" t="n">
-        <v>3.361230079846785</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="H89" t="n">
+        <v>4.121099936362782</v>
+      </c>
+      <c r="I89" t="n">
         <v>1.016194276619068</v>
       </c>
-      <c r="G89" t="n">
-        <v>0.4170901639344258</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-33.13613240646447</v>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>1.299732149800417</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.2533620532872358</v>
       </c>
     </row>
     <row r="90">
@@ -3413,31 +3413,31 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.374368131868132</v>
+        <v>0.4146031746031751</v>
       </c>
       <c r="C90" t="n">
         <v>-40.7216859923744</v>
       </c>
       <c r="D90" t="n">
+        <v>0.2818408979699453</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.374368131868132</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.886425207663567</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.719602405788173</v>
       </c>
-      <c r="E90" t="n">
-        <v>2.886425207663567</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="H90" t="n">
+        <v>4.004923899337712</v>
+      </c>
+      <c r="I90" t="n">
         <v>1.432300013720079</v>
       </c>
-      <c r="G90" t="n">
-        <v>0.4146031746031751</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-33.24523330332752</v>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>0.9942291610514674</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.2818408979699453</v>
       </c>
     </row>
     <row r="91">
@@ -3447,31 +3447,31 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.382907608695652</v>
+        <v>0.4799609374999994</v>
       </c>
       <c r="C91" t="n">
         <v>-40.9379256598767</v>
       </c>
       <c r="D91" t="n">
+        <v>0.3681104612031821</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.382907608695652</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.7853048633254653</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.8469044691327877</v>
       </c>
-      <c r="E91" t="n">
-        <v>0.7853048633254653</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="H91" t="n">
+        <v>3.710641718589272</v>
+      </c>
+      <c r="I91" t="n">
         <v>1.033047039045272</v>
       </c>
-      <c r="G91" t="n">
-        <v>0.4799609374999994</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-34.97341302458176</v>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>0.891881008497622</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.3681104612031821</v>
       </c>
     </row>
     <row r="92">
@@ -3481,31 +3481,31 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.215135869565217</v>
+        <v>0.6459274193548394</v>
       </c>
       <c r="C92" t="n">
         <v>-40.60553795356979</v>
       </c>
       <c r="D92" t="n">
+        <v>0.2607311602111331</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.215135869565217</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.513436431854259</v>
+      </c>
+      <c r="G92" t="n">
         <v>1.359947902525827</v>
       </c>
-      <c r="E92" t="n">
-        <v>2.513436431854259</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="H92" t="n">
+        <v>4.835218171747897</v>
+      </c>
+      <c r="I92" t="n">
         <v>1.298858566712822</v>
       </c>
-      <c r="G92" t="n">
-        <v>0.6459274193548394</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-33.32502058387374</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>0.6532760337286826</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.2607311602111331</v>
       </c>
     </row>
     <row r="93">
@@ -3515,31 +3515,31 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.183638888888889</v>
+        <v>0.6028278688524591</v>
       </c>
       <c r="C93" t="n">
         <v>-40.6984930641263</v>
       </c>
       <c r="D93" t="n">
+        <v>0.5386182108723997</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.183638888888889</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.828010868213278</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.8685952967194454</v>
       </c>
-      <c r="E93" t="n">
-        <v>1.828010868213278</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="H93" t="n">
+        <v>4.779806918302313</v>
+      </c>
+      <c r="I93" t="n">
         <v>1.270282232205684</v>
       </c>
-      <c r="G93" t="n">
-        <v>0.6028278688524591</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-31.05328246097869</v>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>0.4490441387187689</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5386182108723997</v>
       </c>
     </row>
     <row r="94">
@@ -3549,31 +3549,31 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.186923076923077</v>
+        <v>0.5494921874999998</v>
       </c>
       <c r="C94" t="n">
         <v>-40.86088452049536</v>
       </c>
       <c r="D94" t="n">
+        <v>0.3638456714045064</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.186923076923077</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.716127854955996</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.6075436086874911</v>
       </c>
-      <c r="E94" t="n">
-        <v>1.716127854955996</v>
-      </c>
-      <c r="F94" t="n">
+      <c r="H94" t="n">
+        <v>4.757695378654887</v>
+      </c>
+      <c r="I94" t="n">
         <v>1.551425708656503</v>
       </c>
-      <c r="G94" t="n">
-        <v>0.5494921874999998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-26.73500810094703</v>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>0.6952273640583474</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.3638456714045064</v>
       </c>
     </row>
     <row r="95">
@@ -3583,31 +3583,31 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.273885869565218</v>
+        <v>0.5548437500000007</v>
       </c>
       <c r="C95" t="n">
         <v>-40.8294230355643</v>
       </c>
       <c r="D95" t="n">
+        <v>0.2577198009295625</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.273885869565218</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.545923844130261</v>
+      </c>
+      <c r="G95" t="n">
         <v>1.386194393825136</v>
       </c>
-      <c r="E95" t="n">
-        <v>1.545923844130261</v>
-      </c>
-      <c r="F95" t="n">
+      <c r="H95" t="n">
+        <v>4.910468401602259</v>
+      </c>
+      <c r="I95" t="n">
         <v>1.44554910442485</v>
       </c>
-      <c r="G95" t="n">
-        <v>0.5548437500000007</v>
-      </c>
-      <c r="H95" t="n">
-        <v>-22.14974551480776</v>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>1.030542782171802</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.2577198009295625</v>
       </c>
     </row>
     <row r="96">
@@ -3617,31 +3617,31 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.326005434782608</v>
+        <v>0.5225601638504864</v>
       </c>
       <c r="C96" t="n">
         <v>-40.65082235436009</v>
       </c>
       <c r="D96" t="n">
+        <v>0.3900865990254268</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.326005434782608</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.357376453300973</v>
+      </c>
+      <c r="G96" t="n">
         <v>1.982288267244167</v>
       </c>
-      <c r="E96" t="n">
-        <v>1.357376453300973</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="H96" t="n">
+        <v>4.966786458873344</v>
+      </c>
+      <c r="I96" t="n">
         <v>1.589690062317656</v>
       </c>
-      <c r="G96" t="n">
-        <v>0.5225601638504864</v>
-      </c>
-      <c r="H96" t="n">
-        <v>-20.52478257085801</v>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>0.6445426063889922</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.3900865990254268</v>
       </c>
     </row>
     <row r="97">
@@ -3651,31 +3651,31 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.419423076923077</v>
+        <v>0.465595238095238</v>
       </c>
       <c r="C97" t="n">
         <v>-40.10116621611106</v>
       </c>
       <c r="D97" t="n">
+        <v>0.8133201632975978</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.419423076923077</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.61763445211032</v>
+      </c>
+      <c r="G97" t="n">
         <v>1.178614971018704</v>
       </c>
-      <c r="E97" t="n">
-        <v>3.61763445211032</v>
-      </c>
-      <c r="F97" t="n">
+      <c r="H97" t="n">
+        <v>5.141752573721362</v>
+      </c>
+      <c r="I97" t="n">
         <v>1.872281501131163</v>
       </c>
-      <c r="G97" t="n">
-        <v>0.465595238095238</v>
-      </c>
-      <c r="H97" t="n">
-        <v>-19.36920989781669</v>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>0.2107139921268283</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.8133201632975978</v>
       </c>
     </row>
     <row r="98">
@@ -3685,31 +3685,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.567994505494505</v>
+        <v>0.6048015873015873</v>
       </c>
       <c r="C98" t="n">
         <v>-40.31188148404594</v>
       </c>
       <c r="D98" t="n">
+        <v>0.5916343500612675</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.567994505494505</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.52871691430126</v>
+      </c>
+      <c r="G98" t="n">
         <v>1.373281372157375</v>
       </c>
-      <c r="E98" t="n">
-        <v>2.52871691430126</v>
-      </c>
-      <c r="F98" t="n">
+      <c r="H98" t="n">
+        <v>4.743832357389465</v>
+      </c>
+      <c r="I98" t="n">
         <v>0.6773871093566295</v>
       </c>
-      <c r="G98" t="n">
-        <v>0.6048015873015873</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-16.14088567959396</v>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>0.8091667655498215</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5916343500612675</v>
       </c>
     </row>
     <row r="99">
@@ -3719,31 +3719,31 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1.629864130434783</v>
+        <v>0.6057936507936512</v>
       </c>
       <c r="C99" t="n">
         <v>-41.06596582809084</v>
       </c>
       <c r="D99" t="n">
+        <v>0.3924871873297208</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.629864130434783</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.8632848612187485</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.5415137052743655</v>
       </c>
-      <c r="E99" t="n">
-        <v>0.8632848612187485</v>
-      </c>
-      <c r="F99" t="n">
+      <c r="H99" t="n">
+        <v>4.205925546125343</v>
+      </c>
+      <c r="I99" t="n">
         <v>1.15471209178025</v>
       </c>
-      <c r="G99" t="n">
-        <v>0.6057936507936512</v>
-      </c>
-      <c r="H99" t="n">
-        <v>-19.58283628561293</v>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>1.141285211041262</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.3924871873297208</v>
       </c>
     </row>
     <row r="100">
@@ -3753,31 +3753,31 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.618722826086957</v>
+        <v>0.6617338709677425</v>
       </c>
       <c r="C100" t="n">
         <v>-41.25286827241382</v>
       </c>
       <c r="D100" t="n">
+        <v>0.5116528209348645</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.618722826086957</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.8004777273366943</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.3409517979808664</v>
       </c>
-      <c r="E100" t="n">
-        <v>-0.8004777273366943</v>
-      </c>
-      <c r="F100" t="n">
+      <c r="H100" t="n">
+        <v>3.990031571985526</v>
+      </c>
+      <c r="I100" t="n">
         <v>0.7242788925457383</v>
       </c>
-      <c r="G100" t="n">
-        <v>0.6617338709677425</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-20.73749864844524</v>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>1.073884358044545</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5116528209348645</v>
       </c>
     </row>
   </sheetData>
@@ -3802,47 +3802,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>baag10_obs</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>hours_dngs15_obs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gdpdef_obs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>ffr_obs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>hours_dngs15_obs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ifi_rgd_obs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>gdp_rgd_obs</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ifi_rgd_obs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hours_sw07_obs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>c_rgd_obs</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>baag10_obs</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hours_sw07_obs</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gdpdef_obs</t>
         </is>
       </c>
     </row>
@@ -3853,31 +3853,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.298846153846154</v>
+        <v>0.5309126984126984</v>
       </c>
       <c r="C2" t="n">
         <v>-48.27938397314787</v>
       </c>
       <c r="D2" t="n">
+        <v>1.054912683789466</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.298846153846154</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.346775844035946</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.8263738142164924</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.346775844035946</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>-4.149121206128029</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.7350438262892435</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.5309126984126984</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-2.145282671659061</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1.084206314342287</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.054912683789466</v>
       </c>
     </row>
     <row r="3">
@@ -3887,31 +3887,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.320869565217391</v>
+        <v>0.4719531249999998</v>
       </c>
       <c r="C3" t="n">
         <v>-48.30252661550355</v>
       </c>
       <c r="D3" t="n">
+        <v>1.373778118802745</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.320869565217391</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.085512643831388</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.4731321301381656</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.085512643831388</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>-4.171273279159379</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.218027685709443</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.4719531249999998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-4.980656214653436</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.9792716222166878</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.373778118802745</v>
       </c>
     </row>
     <row r="4">
@@ -3921,31 +3921,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.218559782608696</v>
+        <v>0.5087841530054644</v>
       </c>
       <c r="C4" t="n">
         <v>-48.56736142121225</v>
       </c>
       <c r="D4" t="n">
+        <v>1.72578910071896</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.218559782608696</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.83451467252504</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.8180428829448858</v>
       </c>
-      <c r="E4" t="n">
-        <v>4.83451467252504</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>-4.37559840255193</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.264236632413376</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.5087841530054644</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-9.299911659278962</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.06683252609622044</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.72578910071896</v>
       </c>
     </row>
     <row r="5">
@@ -3955,31 +3955,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.165166666666668</v>
+        <v>0.4374206349206344</v>
       </c>
       <c r="C5" t="n">
         <v>-48.22004723309941</v>
       </c>
       <c r="D5" t="n">
+        <v>1.651034981483042</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.165166666666668</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.089327070728564</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.211251250658821</v>
       </c>
-      <c r="E5" t="n">
-        <v>4.089327070728564</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>-4.068840388215449</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.273832648766004</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.4374206349206344</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-10.46440807896693</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.1100168193805117</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.651034981483042</v>
       </c>
     </row>
     <row r="6">
@@ -3989,31 +3989,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.289368131868132</v>
+        <v>0.4076587301587298</v>
       </c>
       <c r="C6" t="n">
         <v>-47.07280612035791</v>
       </c>
       <c r="D6" t="n">
+        <v>1.624217975264144</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.289368131868132</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.699517122665231</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.782009561554619</v>
       </c>
-      <c r="E6" t="n">
-        <v>5.699517122665231</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>-2.934896632797177</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.6820536471139551</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.4076587301587298</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-11.67966884623456</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.3511548983591037</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.624217975264144</v>
       </c>
     </row>
     <row r="7">
@@ -4023,31 +4023,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.454103260869565</v>
+        <v>0.3677777777777784</v>
       </c>
       <c r="C7" t="n">
         <v>-46.84174459975006</v>
       </c>
       <c r="D7" t="n">
+        <v>1.399867321444558</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.454103260869565</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.027031194253166</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.783632998441625</v>
       </c>
-      <c r="E7" t="n">
-        <v>2.027031194253166</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>-2.829501272530081</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.073973978484797</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.3677777777777784</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-13.54958122082803</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.5372392541554332</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.399867321444558</v>
       </c>
     </row>
     <row r="8">
@@ -4057,31 +4057,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.627826086956521</v>
+        <v>0.336541666666667</v>
       </c>
       <c r="C8" t="n">
         <v>-46.14925185347762</v>
       </c>
       <c r="D8" t="n">
+        <v>1.663058022783015</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.627826086956521</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.28890981757359</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.1202619668926444</v>
       </c>
-      <c r="E8" t="n">
-        <v>2.28890981757359</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>-2.101182276709835</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.241003457563125</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.336541666666667</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-12.27424510547257</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.2372366897785221</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.663058022783015</v>
       </c>
     </row>
     <row r="9">
@@ -4091,31 +4091,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.689888888888888</v>
+        <v>0.2972404371584689</v>
       </c>
       <c r="C9" t="n">
         <v>-46.35239691931135</v>
       </c>
       <c r="D9" t="n">
+        <v>1.678541669201373</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.689888888888888</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9168778846091633</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.2793236949768886</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.9168778846091633</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>-2.291387372480358</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.5472423370038857</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.2972404371584689</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-9.480972726306447</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1.105860947915959</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.678541669201373</v>
       </c>
     </row>
     <row r="10">
@@ -4125,31 +4125,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.820659340659342</v>
+        <v>0.286111111111111</v>
       </c>
       <c r="C10" t="n">
         <v>-44.69230797025832</v>
       </c>
       <c r="D10" t="n">
+        <v>1.96519795104173</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.820659340659342</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.857225390442186</v>
+      </c>
+      <c r="G10" t="n">
         <v>3.780408689347913</v>
       </c>
-      <c r="E10" t="n">
-        <v>6.857225390442186</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>-0.4616141369835418</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.289027194429558</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.286111111111111</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-6.552191962616234</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>-0.3760612173782659</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.96519795104173</v>
       </c>
     </row>
     <row r="11">
@@ -4159,31 +4159,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.023695652173912</v>
+        <v>0.2536507936507939</v>
       </c>
       <c r="C11" t="n">
         <v>-44.84350588539988</v>
       </c>
       <c r="D11" t="n">
+        <v>1.762982506784476</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.023695652173912</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.798068618420749</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.9606021200483589</v>
       </c>
-      <c r="E11" t="n">
-        <v>2.798068618420749</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>-0.4959210953340971</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.5475007302610772</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.2536507936507939</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-6.235902821765421</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.2437737982964335</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.762982506784476</v>
       </c>
     </row>
     <row r="12">
@@ -4193,31 +4193,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.394456521739132</v>
+        <v>0.2428961748633873</v>
       </c>
       <c r="C12" t="n">
         <v>-44.2753979323154</v>
       </c>
       <c r="D12" t="n">
+        <v>1.994774060574329</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.394456521739132</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.005296841501262</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.327475958972028</v>
       </c>
-      <c r="E12" t="n">
-        <v>2.005296841501262</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>-0.05003880116390746</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.6197243308428289</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.2428961748633873</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-3.26299117459439</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.4044686137477984</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.994774060574329</v>
       </c>
     </row>
     <row r="13">
@@ -4227,31 +4227,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.518305555555556</v>
+        <v>0.2627956989247306</v>
       </c>
       <c r="C13" t="n">
         <v>-44.13144885564565</v>
       </c>
       <c r="D13" t="n">
+        <v>1.916226297816421</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.518305555555556</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.075736106093146</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.2519383162330859</v>
       </c>
-      <c r="E13" t="n">
-        <v>1.075736106093146</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>-0.08083485212642927</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.7950190207633172</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.2627956989247306</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.4479477505358318</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.6371039027000576</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.916226297816421</v>
       </c>
     </row>
     <row r="14">
@@ -4261,31 +4261,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.545494505494503</v>
+        <v>0.319583333333334</v>
       </c>
       <c r="C14" t="n">
         <v>-44.80565711232767</v>
       </c>
       <c r="D14" t="n">
+        <v>2.248164277360457</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.545494505494503</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.3093169186137638</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.06339662983173713</v>
       </c>
-      <c r="E14" t="n">
-        <v>-0.3093169186137638</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>-0.8604526669264487</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.03050520497229362</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.319583333333334</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.751374813737129</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.03646260775651751</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.248164277360457</v>
       </c>
     </row>
     <row r="15">
@@ -4295,31 +4295,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.735027173913043</v>
+        <v>0.3245634920634908</v>
       </c>
       <c r="C15" t="n">
         <v>-44.30315116623221</v>
       </c>
       <c r="D15" t="n">
+        <v>2.028389482010122</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.735027173913043</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.258131834991599</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.7089338687698552</v>
       </c>
-      <c r="E15" t="n">
-        <v>2.258131834991599</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>-0.4033172676202526</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.314668408952749</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.3245634920634908</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.751374813737129</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.2052059121961721</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.028389482010122</v>
       </c>
     </row>
     <row r="16">
@@ -4329,31 +4329,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.395054347826087</v>
+        <v>0.3446994535519123</v>
       </c>
       <c r="C16" t="n">
         <v>-44.4995729324078</v>
       </c>
       <c r="D16" t="n">
+        <v>2.006630854792798</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.395054347826087</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.998910244774579</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.332360876635667</v>
       </c>
-      <c r="E16" t="n">
-        <v>-0.998910244774579</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>-0.3746223777278033</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.8130857633276733</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.3446994535519123</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15.58601374858779</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.3744340145790591</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.006630854792798</v>
       </c>
     </row>
     <row r="17">
@@ -4363,31 +4363,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.766318681318682</v>
+        <v>0.3810483870967736</v>
       </c>
       <c r="C17" t="n">
         <v>-45.1681974874005</v>
       </c>
       <c r="D17" t="n">
+        <v>2.239858647700132</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.766318681318682</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.080248460962925</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.3292433414026114</v>
       </c>
-      <c r="E17" t="n">
-        <v>-1.080248460962925</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>-1.101708741655727</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.6911222854116749</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.3810483870967736</v>
-      </c>
-      <c r="H17" t="n">
-        <v>28.75562786600119</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.4682372125669566</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.239858647700132</v>
       </c>
     </row>
     <row r="18">
@@ -4397,31 +4397,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.167225274725274</v>
+        <v>0.719761904761905</v>
       </c>
       <c r="C18" t="n">
         <v>-47.22906164316002</v>
       </c>
       <c r="D18" t="n">
+        <v>2.279556662533132</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.167225274725274</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-9.382761707345084</v>
+      </c>
+      <c r="G18" t="n">
         <v>-2.059828142068326</v>
       </c>
-      <c r="E18" t="n">
-        <v>-9.382761707345084</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>-3.157051598808778</v>
+      </c>
+      <c r="I18" t="n">
         <v>-2.089376127819929</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.719761904761905</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27.83648091557939</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.5428319962623585</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.279556662533132</v>
       </c>
     </row>
     <row r="19">
@@ -4431,31 +4431,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.455788043478262</v>
+        <v>0.5562369791666657</v>
       </c>
       <c r="C19" t="n">
         <v>-47.79309152212507</v>
       </c>
       <c r="D19" t="n">
+        <v>2.2287489170597</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.455788043478262</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9766537119486277</v>
+      </c>
+      <c r="G19" t="n">
         <v>-0.1545101820559532</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.9766537119486277</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
+        <v>-3.800555282254606</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.077810179504212</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.5562369791666657</v>
-      </c>
-      <c r="H19" t="n">
-        <v>26.40375564148172</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.3354941442740488</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.2287489170597</v>
       </c>
     </row>
     <row r="20">
@@ -4465,31 +4465,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.963206521739131</v>
+        <v>0.5661065573770498</v>
       </c>
       <c r="C20" t="n">
         <v>-46.87283434878555</v>
       </c>
       <c r="D20" t="n">
+        <v>2.637590818621657</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.963206521739131</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.658408065830473</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.763627642497441</v>
       </c>
-      <c r="E20" t="n">
-        <v>3.658408065830473</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
+        <v>-3.179444859745104</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.7971964071314483</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.5661065573770498</v>
-      </c>
-      <c r="H20" t="n">
-        <v>37.21537653307411</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-0.3139831505368311</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.637590818621657</v>
       </c>
     </row>
     <row r="21">
@@ -4499,31 +4499,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.148888888888891</v>
+        <v>0.5740027322404364</v>
       </c>
       <c r="C21" t="n">
         <v>-46.28958074396847</v>
       </c>
       <c r="D21" t="n">
+        <v>2.520370411160759</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.148888888888891</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8388426343868262</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.924004340032314</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.8388426343868262</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
+        <v>-2.687991987088253</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.3663690496487231</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.5740027322404364</v>
-      </c>
-      <c r="H21" t="n">
-        <v>41.07100731023758</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-0.07696787743255375</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.520370411160759</v>
       </c>
     </row>
     <row r="22">
@@ -4533,31 +4533,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.446730769230768</v>
+        <v>0.5073809523809518</v>
       </c>
       <c r="C22" t="n">
         <v>-46.43710802284869</v>
       </c>
       <c r="D22" t="n">
+        <v>1.764463355388001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.446730769230768</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8737148976310295</v>
+      </c>
+      <c r="G22" t="n">
         <v>-0.7019111950218361</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.8737148976310295</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
+        <v>-2.899420171511395</v>
+      </c>
+      <c r="I22" t="n">
         <v>-0.003402772423209798</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.5073809523809518</v>
-      </c>
-      <c r="H22" t="n">
-        <v>44.44585741507979</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0.2833897789660766</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.764463355388001</v>
       </c>
     </row>
     <row r="23">
@@ -4567,31 +4567,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.398586956521742</v>
+        <v>0.4095572916666681</v>
       </c>
       <c r="C23" t="n">
         <v>-47.28096326622956</v>
       </c>
       <c r="D23" t="n">
+        <v>1.924678498226969</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.398586956521742</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.2464463948107675</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.183610559436087</v>
       </c>
-      <c r="E23" t="n">
-        <v>-0.2464463948107675</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
+        <v>-3.919260039675862</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.3231837766074236</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.4095572916666681</v>
-      </c>
-      <c r="H23" t="n">
-        <v>48.82944118266096</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.4126566203039123</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.924678498226969</v>
       </c>
     </row>
     <row r="24">
@@ -4601,31 +4601,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.397092391304347</v>
+        <v>0.6416530054644816</v>
       </c>
       <c r="C24" t="n">
         <v>-48.40272326225109</v>
       </c>
       <c r="D24" t="n">
+        <v>1.810360343626795</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.397092391304347</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.159828632663878</v>
+      </c>
+      <c r="G24" t="n">
         <v>-1.187612800691716</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.159828632663878</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
+        <v>-4.536489327458071</v>
+      </c>
+      <c r="I24" t="n">
         <v>-1.008374679411132</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.6416530054644816</v>
-      </c>
-      <c r="H24" t="n">
-        <v>50.07593902689706</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>-0.3361321699064641</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.810360343626795</v>
       </c>
     </row>
     <row r="25">
@@ -4635,31 +4635,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.551861111111113</v>
+        <v>0.6913251366120221</v>
       </c>
       <c r="C25" t="n">
         <v>-49.8296287686016</v>
       </c>
       <c r="D25" t="n">
+        <v>1.394290596901289</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.551861111111113</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.063112202748291</v>
+      </c>
+      <c r="G25" t="n">
         <v>-1.670842187247645</v>
       </c>
-      <c r="E25" t="n">
-        <v>-3.063112202748291</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
+        <v>-6.040613414483687</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.4315000606660209</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.6913251366120221</v>
-      </c>
-      <c r="H25" t="n">
-        <v>52.15213817174003</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.6974992692667927</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.394290596901289</v>
       </c>
     </row>
     <row r="26">
@@ -4669,31 +4669,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.628543956043953</v>
+        <v>0.7094841269841266</v>
       </c>
       <c r="C26" t="n">
         <v>-50.00204542802283</v>
       </c>
       <c r="D26" t="n">
+        <v>1.284028647317737</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.628543956043953</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3.746888062621709</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.4304662579247325</v>
       </c>
-      <c r="E26" t="n">
-        <v>-3.746888062621709</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>-5.708063959377512</v>
+      </c>
+      <c r="I26" t="n">
         <v>-0.0151111440750123</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.7094841269841266</v>
-      </c>
-      <c r="H26" t="n">
-        <v>50.6536874214911</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0.2957830403413962</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.284028647317737</v>
       </c>
     </row>
     <row r="27">
@@ -4703,31 +4703,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.753179347826086</v>
+        <v>0.7843750000000016</v>
       </c>
       <c r="C27" t="n">
         <v>-50.6870282743219</v>
       </c>
       <c r="D27" t="n">
+        <v>1.372674091154444</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.753179347826086</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.820846460443481</v>
+      </c>
+      <c r="G27" t="n">
         <v>-0.4752435932002781</v>
       </c>
-      <c r="E27" t="n">
-        <v>-3.820846460443481</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
+        <v>-6.19387003967438</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.7951838894356019</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.7843750000000016</v>
-      </c>
-      <c r="H27" t="n">
-        <v>47.44420819515977</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0.4907338633348499</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.372674091154444</v>
       </c>
     </row>
     <row r="28">
@@ -4737,31 +4737,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.320978260869566</v>
+        <v>0.9316393442622943</v>
       </c>
       <c r="C28" t="n">
         <v>-51.51284047006961</v>
       </c>
       <c r="D28" t="n">
+        <v>1.028401641324114</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.320978260869566</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.4918991090102581</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.07122724845023939</v>
       </c>
-      <c r="E28" t="n">
-        <v>-0.4918991090102581</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
+        <v>-6.984232661677026</v>
+      </c>
+      <c r="I28" t="n">
         <v>1.705686676173024</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.9316393442622943</v>
-      </c>
-      <c r="H28" t="n">
-        <v>35.2882694075127</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>0.04276391816866596</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.028401641324114</v>
       </c>
     </row>
     <row r="29">
@@ -4771,31 +4771,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.164388888888889</v>
+        <v>0.8193650793650793</v>
       </c>
       <c r="C29" t="n">
         <v>-51.65836755823844</v>
       </c>
       <c r="D29" t="n">
+        <v>0.7975230574370042</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.164388888888889</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6255158505520185</v>
+      </c>
+      <c r="G29" t="n">
         <v>1.148879950711806</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.6255158505520185</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
+        <v>-6.902680732228248</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.8906501804679745</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.8193650793650793</v>
-      </c>
-      <c r="H29" t="n">
-        <v>31.34303117443937</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.1115741126881956</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7975230574370042</v>
       </c>
     </row>
     <row r="30">
@@ -4805,31 +4805,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.200686813186812</v>
+        <v>0.6749999999999998</v>
       </c>
       <c r="C30" t="n">
         <v>-50.63526943207235</v>
       </c>
       <c r="D30" t="n">
+        <v>0.8933207243260013</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.200686813186812</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.914198888838404</v>
+      </c>
+      <c r="G30" t="n">
         <v>2.333591612418377</v>
       </c>
-      <c r="E30" t="n">
-        <v>2.914198888838404</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
+        <v>-6.178852297141191</v>
+      </c>
+      <c r="I30" t="n">
         <v>2.32761547778348</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.6749999999999998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>27.03467256080819</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>-0.1420023892476789</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8933207243260013</v>
       </c>
     </row>
     <row r="31">
@@ -4839,31 +4839,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.364538043478261</v>
+        <v>0.4725651041666659</v>
       </c>
       <c r="C31" t="n">
         <v>-49.07437376860357</v>
       </c>
       <c r="D31" t="n">
+        <v>0.8420491101263422</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.364538043478261</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4.59330416205631</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.764373630768803</v>
       </c>
-      <c r="E31" t="n">
-        <v>4.59330416205631</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
+        <v>-4.128348728008348</v>
+      </c>
+      <c r="I31" t="n">
         <v>1.753759858460592</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.4725651041666659</v>
-      </c>
-      <c r="H31" t="n">
-        <v>29.10122189054096</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>-0.2450324114759349</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.8420491101263422</v>
       </c>
     </row>
     <row r="32">
@@ -4873,31 +4873,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.357527173913042</v>
+        <v>0.4793750000000001</v>
       </c>
       <c r="C32" t="n">
         <v>-48.0240390358033</v>
       </c>
       <c r="D32" t="n">
+        <v>0.8350178088981722</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.357527173913042</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.743319256421956</v>
+      </c>
+      <c r="G32" t="n">
         <v>2.033087453421959</v>
       </c>
-      <c r="E32" t="n">
-        <v>4.743319256421956</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
+        <v>-3.403981962108276</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.654466418066904</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.4793750000000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>29.69090418894399</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>0.3484279558021058</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.8350178088981722</v>
       </c>
     </row>
     <row r="33">
@@ -4907,31 +4907,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.422142857142858</v>
+        <v>0.4472043010752684</v>
       </c>
       <c r="C33" t="n">
         <v>-47.30134837439239</v>
       </c>
       <c r="D33" t="n">
+        <v>1.197107070590594</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.422142857142858</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.110167756811619</v>
+      </c>
+      <c r="G33" t="n">
         <v>2.161164091394069</v>
       </c>
-      <c r="E33" t="n">
-        <v>2.110167756811619</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
+        <v>-2.444612770021308</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.8535780326767866</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.4472043010752684</v>
-      </c>
-      <c r="H33" t="n">
-        <v>30.690303122655</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>-0.1729576653708816</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.197107070590594</v>
       </c>
     </row>
     <row r="34">
@@ -4941,31 +4941,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.638681318681318</v>
+        <v>0.3715079365079372</v>
       </c>
       <c r="C34" t="n">
         <v>-46.14199259296331</v>
       </c>
       <c r="D34" t="n">
+        <v>0.8323388674665968</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.638681318681318</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.819662696022725</v>
+      </c>
+      <c r="G34" t="n">
         <v>1.679539484590057</v>
       </c>
-      <c r="E34" t="n">
-        <v>3.819662696022725</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
+        <v>-1.203599718681915</v>
+      </c>
+      <c r="I34" t="n">
         <v>1.377493207958008</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.3715079365079372</v>
-      </c>
-      <c r="H34" t="n">
-        <v>37.41966669605415</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>0.3254164667776762</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.8323388674665968</v>
       </c>
     </row>
     <row r="35">
@@ -4975,31 +4975,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.848070652173912</v>
+        <v>0.4592063492063501</v>
       </c>
       <c r="C35" t="n">
         <v>-46.48092624399895</v>
       </c>
       <c r="D35" t="n">
+        <v>0.7836592022089766</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.848070652173912</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.485626163087784</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.8608946609890773</v>
       </c>
-      <c r="E35" t="n">
-        <v>1.485626163087784</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
+        <v>-1.510551958115286</v>
+      </c>
+      <c r="I35" t="n">
         <v>0.6434693311763863</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.4592063492063501</v>
-      </c>
-      <c r="H35" t="n">
-        <v>37.48767077891966</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0.5029918571160692</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7836592022089766</v>
       </c>
     </row>
     <row r="36">
@@ -5009,31 +5009,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.315624999999999</v>
+        <v>0.461502732240437</v>
       </c>
       <c r="C36" t="n">
         <v>-46.32901859253334</v>
       </c>
       <c r="D36" t="n">
+        <v>0.6945437004593411</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.315624999999999</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.309007639839499</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.7515047413672785</v>
       </c>
-      <c r="E36" t="n">
-        <v>1.309007639839499</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
+        <v>-1.353977952734454</v>
+      </c>
+      <c r="I36" t="n">
         <v>1.310072664838016</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.461502732240437</v>
-      </c>
-      <c r="H36" t="n">
-        <v>29.69090418894399</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>0.2948636640604868</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6945437004593411</v>
       </c>
     </row>
     <row r="37">
@@ -5043,31 +5043,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.118777777777778</v>
+        <v>0.4517083333333329</v>
       </c>
       <c r="C37" t="n">
         <v>-46.20317518949663</v>
       </c>
       <c r="D37" t="n">
+        <v>1.060250895926464</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.118777777777778</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2534906890969545</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.831197707890337</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.2534906890969545</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
+        <v>-0.8752697151894608</v>
+      </c>
+      <c r="I37" t="n">
         <v>1.433036493779949</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.4517083333333329</v>
-      </c>
-      <c r="H37" t="n">
-        <v>28.11062438945294</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>-0.08053697142812447</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.060250895926464</v>
       </c>
     </row>
     <row r="38">
@@ -5077,31 +5077,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.981098901098901</v>
+        <v>0.5491269841269846</v>
       </c>
       <c r="C38" t="n">
         <v>-46.46794215043609</v>
       </c>
       <c r="D38" t="n">
+        <v>0.6552924472785392</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.981098901098901</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4311379919120683</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.7802932499655038</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.4311379919120683</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
+        <v>-0.865632663060353</v>
+      </c>
+      <c r="I38" t="n">
         <v>1.196147723908102</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.5491269841269846</v>
-      </c>
-      <c r="H38" t="n">
-        <v>25.2835809956274</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>0.4527521303786584</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6552924472785392</v>
       </c>
     </row>
     <row r="39">
@@ -5111,31 +5111,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.975244565217391</v>
+        <v>0.5336111111111115</v>
       </c>
       <c r="C39" t="n">
         <v>-46.36052709329963</v>
       </c>
       <c r="D39" t="n">
+        <v>0.5292812790259432</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.975244565217391</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.6978206447640405</v>
+      </c>
+      <c r="G39" t="n">
         <v>1.483530234597771</v>
       </c>
-      <c r="E39" t="n">
-        <v>-0.6978206447640405</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
+        <v>-0.9667782770258668</v>
+      </c>
+      <c r="I39" t="n">
         <v>1.964772734834485</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.5336111111111115</v>
-      </c>
-      <c r="H39" t="n">
-        <v>20.96749328677959</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>0.8387291113820747</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5292812790259432</v>
       </c>
     </row>
     <row r="40">
@@ -5145,31 +5145,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.026114130434783</v>
+        <v>0.5526344086021506</v>
       </c>
       <c r="C40" t="n">
         <v>-45.87780946960859</v>
       </c>
       <c r="D40" t="n">
+        <v>0.701378650800716</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.026114130434783</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.769939678214606</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.8197475992982421</v>
       </c>
-      <c r="E40" t="n">
-        <v>1.769939678214606</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
+        <v>-0.673776569808922</v>
+      </c>
+      <c r="I40" t="n">
         <v>0.5909355388296585</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.5526344086021506</v>
-      </c>
-      <c r="H40" t="n">
-        <v>16.93094856331686</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>0.9159072737594085</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.701378650800716</v>
       </c>
     </row>
     <row r="41">
@@ -5179,31 +5179,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.956722222222221</v>
+        <v>0.6149713114754092</v>
       </c>
       <c r="C41" t="n">
         <v>-45.61917596475499</v>
       </c>
       <c r="D41" t="n">
+        <v>0.3890272529928908</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.956722222222221</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2125605607818274</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.9070007055554232</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.2125605607818274</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
+        <v>-0.7335266624463088</v>
+      </c>
+      <c r="I41" t="n">
         <v>1.02021660147615</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.6149713114754092</v>
-      </c>
-      <c r="H41" t="n">
-        <v>8.668557725107121</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>0.9390135137965314</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.3890272529928908</v>
       </c>
     </row>
     <row r="42">
@@ -5213,31 +5213,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.729615384615386</v>
+        <v>0.6681640624999996</v>
       </c>
       <c r="C42" t="n">
         <v>-45.94026168806973</v>
       </c>
       <c r="D42" t="n">
+        <v>0.4675090328993975</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.729615384615386</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1982090700185209</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.4155956314773733</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.1982090700185209</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
+        <v>-1.134393422757853</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.6553270717651473</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.6681640624999996</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1.563705212926834</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>0.4517357855170038</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.4675090328993975</v>
       </c>
     </row>
     <row r="43">
@@ -5247,31 +5247,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.552364130434782</v>
+        <v>0.7192578125000004</v>
       </c>
       <c r="C43" t="n">
         <v>-45.6239155235047</v>
       </c>
       <c r="D43" t="n">
+        <v>0.6243793117364942</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.552364130434782</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.3404226609286983</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.9237706539895741</v>
       </c>
-      <c r="E43" t="n">
-        <v>-0.3404226609286983</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
+        <v>-1.003281296737327</v>
+      </c>
+      <c r="I43" t="n">
         <v>1.84971947054663</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.7192578125000004</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.701973371628128</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>0.2864923080875492</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6243793117364942</v>
       </c>
     </row>
     <row r="44">
@@ -5281,31 +5281,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.566684782608696</v>
+        <v>0.707859122983872</v>
       </c>
       <c r="C44" t="n">
         <v>-45.63495799067974</v>
       </c>
       <c r="D44" t="n">
+        <v>0.7125920889967664</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.566684782608696</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5219914932331495</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.5307636290643926</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.5219914932331495</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
+        <v>-0.6917388536410272</v>
+      </c>
+      <c r="I44" t="n">
         <v>0.6922920853173447</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.707859122983872</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-0.1564142259209689</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>0.9573246867664578</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.7125920889967664</v>
       </c>
     </row>
     <row r="45">
@@ -5315,31 +5315,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.555638888888889</v>
+        <v>0.6166314119513487</v>
       </c>
       <c r="C45" t="n">
         <v>-44.95701864014428</v>
       </c>
       <c r="D45" t="n">
+        <v>0.890174748427211</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.555638888888889</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-2.938211840051665</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.7310510910447735</v>
       </c>
-      <c r="E45" t="n">
-        <v>-2.938211840051665</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
+        <v>0.09440160157430455</v>
+      </c>
+      <c r="I45" t="n">
         <v>0.4941386607925461</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.6166314119513487</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-4.545683802006806</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>-0.635721684927732</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.890174748427211</v>
       </c>
     </row>
     <row r="46">
@@ -5349,31 +5349,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.6625</v>
+        <v>0.5042460317460318</v>
       </c>
       <c r="C46" t="n">
         <v>-44.48865135928218</v>
       </c>
       <c r="D46" t="n">
+        <v>0.701301575591844</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.6625</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.360071516585803</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.057038087372075</v>
       </c>
-      <c r="E46" t="n">
-        <v>1.360071516585803</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
+        <v>0.5190842468496726</v>
+      </c>
+      <c r="I46" t="n">
         <v>1.600920594161518</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.5042460317460318</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.427076664989897</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>0.3100850481010285</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.701301575591844</v>
       </c>
     </row>
     <row r="47">
@@ -5383,31 +5383,31 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.709891304347826</v>
+        <v>0.5077343750000005</v>
       </c>
       <c r="C47" t="n">
         <v>-44.03069102221102</v>
       </c>
       <c r="D47" t="n">
+        <v>0.7221179025804431</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.709891304347826</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.179933891569046</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.8340687255529061</v>
       </c>
-      <c r="E47" t="n">
-        <v>1.179933891569046</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
+        <v>0.838544503638559</v>
+      </c>
+      <c r="I47" t="n">
         <v>1.333496949102059</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.5077343750000005</v>
-      </c>
-      <c r="H47" t="n">
-        <v>7.516930021664677</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>0.1545314186378164</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7221179025804431</v>
       </c>
     </row>
     <row r="48">
@@ -5417,31 +5417,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.72991847826087</v>
+        <v>0.5633278729838715</v>
       </c>
       <c r="C48" t="n">
         <v>-43.78958808608546</v>
       </c>
       <c r="D48" t="n">
+        <v>0.8061979810109721</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.72991847826087</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.2581799080297491</v>
+      </c>
+      <c r="G48" t="n">
         <v>1.719759270421075</v>
       </c>
-      <c r="E48" t="n">
-        <v>-0.2581799080297491</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
+        <v>1.359599851920677</v>
+      </c>
+      <c r="I48" t="n">
         <v>0.3747293972867039</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.5633278729838715</v>
-      </c>
-      <c r="H48" t="n">
-        <v>11.84125340956058</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>0.6789778325916129</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.8061979810109721</v>
       </c>
     </row>
     <row r="49">
@@ -5451,31 +5451,31 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.666483516483517</v>
+        <v>0.5835675883256504</v>
       </c>
       <c r="C49" t="n">
         <v>-43.85206655806537</v>
       </c>
       <c r="D49" t="n">
+        <v>0.673232139492117</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.666483516483517</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9018068752673495</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.6634557480886494</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.9018068752673495</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
+        <v>0.9850435103217023</v>
+      </c>
+      <c r="I49" t="n">
         <v>1.713056587583995</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.5835675883256504</v>
-      </c>
-      <c r="H49" t="n">
-        <v>6.081186172543767</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>0.06116528608373858</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.673232139492117</v>
       </c>
     </row>
     <row r="50">
@@ -5485,31 +5485,31 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.788736263736262</v>
+        <v>0.5175000000000014</v>
       </c>
       <c r="C50" t="n">
         <v>-43.81051972180227</v>
       </c>
       <c r="D50" t="n">
+        <v>1.007692114386201</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.788736263736262</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.371865800390151</v>
+      </c>
+      <c r="G50" t="n">
         <v>1.170641531749608</v>
       </c>
-      <c r="E50" t="n">
-        <v>1.371865800390151</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
+        <v>1.485602162117516</v>
+      </c>
+      <c r="I50" t="n">
         <v>0.8091671480838</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.5175000000000014</v>
-      </c>
-      <c r="H50" t="n">
-        <v>8.268478878257497</v>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>0.5652380764681929</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.007692114386201</v>
       </c>
     </row>
     <row r="51">
@@ -5519,31 +5519,31 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.995869565217391</v>
+        <v>0.4937890624999994</v>
       </c>
       <c r="C51" t="n">
         <v>-43.52433317385061</v>
       </c>
       <c r="D51" t="n">
+        <v>1.171207008673443</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.995869565217391</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.1755547263931864</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.5105217613422749</v>
       </c>
-      <c r="E51" t="n">
-        <v>-0.1755547263931864</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
+        <v>1.608459877338419</v>
+      </c>
+      <c r="I51" t="n">
         <v>0.8398451349840864</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.4937890624999994</v>
-      </c>
-      <c r="H51" t="n">
-        <v>9.137803224632194</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>-0.09656980112504204</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.171207008673443</v>
       </c>
     </row>
     <row r="52">
@@ -5553,31 +5553,31 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.117119565217391</v>
+        <v>0.3882377049180321</v>
       </c>
       <c r="C52" t="n">
         <v>-43.03294805812113</v>
       </c>
       <c r="D52" t="n">
+        <v>0.7773498333380227</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.117119565217391</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.111813318147542</v>
+      </c>
+      <c r="G52" t="n">
         <v>1.290541359449702</v>
       </c>
-      <c r="E52" t="n">
-        <v>1.111813318147542</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
+        <v>2.372606537047886</v>
+      </c>
+      <c r="I52" t="n">
         <v>1.358925981653157</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.3882377049180321</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3.867635806471014</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>-0.06728767838041383</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7773498333380227</v>
       </c>
     </row>
     <row r="53">
@@ -5587,31 +5587,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.36161111111111</v>
+        <v>0.3583804865150717</v>
       </c>
       <c r="C53" t="n">
         <v>-42.64623831622479</v>
       </c>
       <c r="D53" t="n">
+        <v>1.02715503218297</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.36161111111111</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1927405233345467</v>
+      </c>
+      <c r="G53" t="n">
         <v>1.208408893270304</v>
       </c>
-      <c r="E53" t="n">
-        <v>0.1927405233345467</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
+        <v>3.019304501813053</v>
+      </c>
+      <c r="I53" t="n">
         <v>0.4550193981556611</v>
       </c>
-      <c r="G53" t="n">
-        <v>0.3583804865150717</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5.145462315123041</v>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>-0.9092999802385253</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.02715503218297</v>
       </c>
     </row>
     <row r="54">
@@ -5621,31 +5621,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.431428571428573</v>
+        <v>0.4010937499999998</v>
       </c>
       <c r="C54" t="n">
         <v>-42.74143671757792</v>
       </c>
       <c r="D54" t="n">
+        <v>0.9926240562758334</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.431428571428573</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.2272531830110515</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.5425519283029521</v>
       </c>
-      <c r="E54" t="n">
-        <v>-0.2272531830110515</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
+        <v>3.217572848143504</v>
+      </c>
+      <c r="I54" t="n">
         <v>0.7322786178853364</v>
       </c>
-      <c r="G54" t="n">
-        <v>0.4010937499999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2.452761511586402</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>-0.6398900044790241</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.9926240562758334</v>
       </c>
     </row>
     <row r="55">
@@ -5655,31 +5655,31 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.270896739130434</v>
+        <v>0.4448015873015883</v>
       </c>
       <c r="C55" t="n">
         <v>-42.81939346613131</v>
       </c>
       <c r="D55" t="n">
+        <v>0.7201183303526349</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.270896739130434</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.518165711347191</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.4730865533102396</v>
       </c>
-      <c r="E55" t="n">
-        <v>1.518165711347191</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
+        <v>3.398486302478091</v>
+      </c>
+      <c r="I55" t="n">
         <v>0.7818034733682262</v>
       </c>
-      <c r="G55" t="n">
-        <v>0.4448015873015883</v>
-      </c>
-      <c r="H55" t="n">
-        <v>-2.246377878247245</v>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>0.09812118514135591</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.7201183303526349</v>
       </c>
     </row>
     <row r="56">
@@ -5689,31 +5689,31 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.153614130434783</v>
+        <v>0.4765988223246289</v>
       </c>
       <c r="C56" t="n">
         <v>-42.89979464000221</v>
       </c>
       <c r="D56" t="n">
+        <v>0.7387141897300964</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.153614130434783</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-1.710334359047649</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.345814707248302</v>
       </c>
-      <c r="E56" t="n">
-        <v>-1.710334359047649</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
+        <v>3.032736274465663</v>
+      </c>
+      <c r="I56" t="n">
         <v>0.5805721813346457</v>
       </c>
-      <c r="G56" t="n">
-        <v>0.4765988223246289</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-2.989264681415648</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>0.7633360027423075</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.7387141897300964</v>
       </c>
     </row>
     <row r="57">
@@ -5723,31 +5723,31 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.061999999999999</v>
+        <v>0.4179211469534052</v>
       </c>
       <c r="C57" t="n">
         <v>-42.37513738902543</v>
       </c>
       <c r="D57" t="n">
+        <v>1.121418822902911</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.061999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.927785494710185</v>
+      </c>
+      <c r="G57" t="n">
         <v>1.240483928890894</v>
       </c>
-      <c r="E57" t="n">
-        <v>0.927785494710185</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
+        <v>3.046799379596735</v>
+      </c>
+      <c r="I57" t="n">
         <v>1.024049007272622</v>
       </c>
-      <c r="G57" t="n">
-        <v>0.4179211469534052</v>
-      </c>
-      <c r="H57" t="n">
-        <v>-0.1555543829111343</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>0.2453450499634662</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.121418822902911</v>
       </c>
     </row>
     <row r="58">
@@ -5757,31 +5757,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.059835164835165</v>
+        <v>0.4096825396825405</v>
       </c>
       <c r="C58" t="n">
         <v>-42.78185328979351</v>
       </c>
       <c r="D58" t="n">
+        <v>1.143803319692638</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.059835164835165</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-3.287158521040694</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.2290304391986389</v>
       </c>
-      <c r="E58" t="n">
-        <v>-3.287158521040694</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
+        <v>2.199614245892349</v>
+      </c>
+      <c r="I58" t="n">
         <v>0.2167019025857855</v>
       </c>
-      <c r="G58" t="n">
-        <v>0.4096825396825405</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1.974055627160737</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>0.7610161773768187</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.143803319692638</v>
       </c>
     </row>
     <row r="59">
@@ -5791,31 +5791,31 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.040054347826086</v>
+        <v>0.4265476190476178</v>
       </c>
       <c r="C59" t="n">
         <v>-43.54121787527573</v>
       </c>
       <c r="D59" t="n">
+        <v>0.9586029402908339</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.040054347826086</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-1.158968379472779</v>
+      </c>
+      <c r="G59" t="n">
         <v>-0.182884722116399</v>
       </c>
-      <c r="E59" t="n">
-        <v>-1.158968379472779</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
+        <v>1.310387802552555</v>
+      </c>
+      <c r="I59" t="n">
         <v>0.744175518640439</v>
       </c>
-      <c r="G59" t="n">
-        <v>0.4265476190476178</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2.887206037643182</v>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>0.4739284442903958</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.9586029402908339</v>
       </c>
     </row>
     <row r="60">
@@ -5825,31 +5825,31 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.935842391304347</v>
+        <v>0.5499143145161289</v>
       </c>
       <c r="C60" t="n">
         <v>-44.30222372720048</v>
       </c>
       <c r="D60" t="n">
+        <v>0.8697697312391089</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.935842391304347</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-3.669330480181821</v>
+      </c>
+      <c r="G60" t="n">
         <v>-0.824894841557354</v>
       </c>
-      <c r="E60" t="n">
-        <v>-3.669330480181821</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="H60" t="n">
+        <v>0.6707182691882849</v>
+      </c>
+      <c r="I60" t="n">
         <v>-0.3065620884274358</v>
       </c>
-      <c r="G60" t="n">
-        <v>0.5499143145161289</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4.77336939208044</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>0.1100965736310962</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8697697312391089</v>
       </c>
     </row>
     <row r="61">
@@ -5859,31 +5859,31 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.60761111111111</v>
+        <v>0.5476099726775963</v>
       </c>
       <c r="C61" t="n">
         <v>-45.29726562825098</v>
       </c>
       <c r="D61" t="n">
+        <v>1.155558343891428</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.60761111111111</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-3.91096021352249</v>
+      </c>
+      <c r="G61" t="n">
         <v>-0.493397312501702</v>
       </c>
-      <c r="E61" t="n">
-        <v>-3.91096021352249</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
+        <v>-0.3700708482692221</v>
+      </c>
+      <c r="I61" t="n">
         <v>-0.8700172893262821</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.5476099726775963</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1.006998072371971</v>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>-0.2925540664699352</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.155558343891428</v>
       </c>
     </row>
     <row r="62">
@@ -5893,31 +5893,31 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.466016483516483</v>
+        <v>0.4489843750000007</v>
       </c>
       <c r="C62" t="n">
         <v>-45.64130575915615</v>
       </c>
       <c r="D62" t="n">
+        <v>0.7071133341337452</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.466016483516483</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.144586689799079</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.5579003786336859</v>
       </c>
-      <c r="E62" t="n">
-        <v>-1.144586689799079</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="H62" t="n">
+        <v>-0.7715257009391507</v>
+      </c>
+      <c r="I62" t="n">
         <v>0.6655528275786259</v>
       </c>
-      <c r="G62" t="n">
-        <v>0.4489843750000007</v>
-      </c>
-      <c r="H62" t="n">
-        <v>-1.895615650165439</v>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>0.8912158433473732</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7071133341337452</v>
       </c>
     </row>
     <row r="63">
@@ -5927,31 +5927,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.411304347826086</v>
+        <v>0.4350390625000009</v>
       </c>
       <c r="C63" t="n">
         <v>-45.74942029436372</v>
       </c>
       <c r="D63" t="n">
+        <v>0.6466020298630455</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.411304347826086</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.371395451361428</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.2456304498582897</v>
       </c>
-      <c r="E63" t="n">
-        <v>-0.371395451361428</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
+        <v>-0.9353173304218103</v>
+      </c>
+      <c r="I63" t="n">
         <v>0.35129066882171</v>
       </c>
-      <c r="G63" t="n">
-        <v>0.4350390625000009</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-4.254027618047701</v>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>0.3002751130221616</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6466020298630455</v>
       </c>
     </row>
     <row r="64">
@@ -5961,31 +5961,31 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.204619565217391</v>
+        <v>0.5142968749999994</v>
       </c>
       <c r="C64" t="n">
         <v>-45.91290674638478</v>
       </c>
       <c r="D64" t="n">
+        <v>0.5319750991793072</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.204619565217391</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4570500207491403</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.5370822559961117</v>
       </c>
-      <c r="E64" t="n">
-        <v>-0.4570500207491403</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="H64" t="n">
+        <v>-1.184206375707845</v>
+      </c>
+      <c r="I64" t="n">
         <v>0.09880549263521338</v>
       </c>
-      <c r="G64" t="n">
-        <v>0.5142968749999994</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-7.270845185564951</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>0.7167403980770832</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5319750991793072</v>
       </c>
     </row>
     <row r="65">
@@ -5995,31 +5995,31 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.006071428571428</v>
+        <v>0.473266129032258</v>
       </c>
       <c r="C65" t="n">
         <v>-45.89652737031187</v>
       </c>
       <c r="D65" t="n">
+        <v>0.7597900339833207</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.006071428571428</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5670320843892851</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.9241635064650321</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.5670320843892851</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
+        <v>-1.121520439532617</v>
+      </c>
+      <c r="I65" t="n">
         <v>1.68467519851528</v>
       </c>
-      <c r="G65" t="n">
-        <v>0.473266129032258</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-9.444734276915483</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>1.287364364035414</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.7597900339833207</v>
       </c>
     </row>
     <row r="66">
@@ -6029,31 +6029,31 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9435164835164841</v>
+        <v>0.4378968253968256</v>
       </c>
       <c r="C66" t="n">
         <v>-45.45070909323537</v>
       </c>
       <c r="D66" t="n">
+        <v>0.5688048588946006</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9435164835164841</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.486783513894636</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.9317680635865615</v>
       </c>
-      <c r="E66" t="n">
-        <v>3.486783513894636</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
+        <v>-0.7012213901699056</v>
+      </c>
+      <c r="I66" t="n">
         <v>0.5966251894700353</v>
       </c>
-      <c r="G66" t="n">
-        <v>0.4378968253968256</v>
-      </c>
-      <c r="H66" t="n">
-        <v>-10.23459496204873</v>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>0.03725760227447895</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5688048588946006</v>
       </c>
     </row>
     <row r="67">
@@ -6063,31 +6063,31 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.8148097826086955</v>
+        <v>0.5213671874999992</v>
       </c>
       <c r="C67" t="n">
         <v>-45.42718875919548</v>
       </c>
       <c r="D67" t="n">
+        <v>0.3266909145348321</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.8148097826086955</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.339036749031762</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.7696542557765008</v>
       </c>
-      <c r="E67" t="n">
-        <v>1.339036749031762</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
+        <v>-0.7199534015181257</v>
+      </c>
+      <c r="I67" t="n">
         <v>0.9650325816354068</v>
       </c>
-      <c r="G67" t="n">
-        <v>0.5213671874999992</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-14.98430049032072</v>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>0.9739777469163584</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.3266909145348321</v>
       </c>
     </row>
     <row r="68">
@@ -6097,31 +6097,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.758722826086957</v>
+        <v>0.5317552923387101</v>
       </c>
       <c r="C68" t="n">
         <v>-45.66516711426459</v>
       </c>
       <c r="D68" t="n">
+        <v>0.6285920773643321</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.758722826086957</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.801883795431928</v>
+      </c>
+      <c r="G68" t="n">
         <v>1.308845707467641</v>
       </c>
-      <c r="E68" t="n">
-        <v>2.801883795431928</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="H68" t="n">
+        <v>-0.755675450586466</v>
+      </c>
+      <c r="I68" t="n">
         <v>1.539867701330399</v>
       </c>
-      <c r="G68" t="n">
-        <v>0.5317552923387101</v>
-      </c>
-      <c r="H68" t="n">
-        <v>-13.12755398381398</v>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>0.1634912717800875</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6285920773643321</v>
       </c>
     </row>
     <row r="69">
@@ -6131,31 +6131,31 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.7605833333333336</v>
+        <v>0.5328701745108417</v>
       </c>
       <c r="C69" t="n">
         <v>-45.43182352191968</v>
       </c>
       <c r="D69" t="n">
+        <v>0.8284516692234215</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7605833333333336</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.544720898311038</v>
+      </c>
+      <c r="G69" t="n">
         <v>-0.02718304939016979</v>
       </c>
-      <c r="E69" t="n">
-        <v>0.544720898311038</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
+        <v>-0.5534898384070175</v>
+      </c>
+      <c r="I69" t="n">
         <v>-0.08249519752331831</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.5328701745108417</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-18.66487553136449</v>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>-0.7298809367475073</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.8284516692234215</v>
       </c>
     </row>
     <row r="70">
@@ -6165,31 +6165,31 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.7493131868131868</v>
+        <v>0.5377380952380946</v>
       </c>
       <c r="C70" t="n">
         <v>-45.01262614853529</v>
       </c>
       <c r="D70" t="n">
+        <v>0.5343034724303025</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7493131868131868</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.376582697374342</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.6062829290386691</v>
       </c>
-      <c r="E70" t="n">
-        <v>1.376582697374342</v>
-      </c>
-      <c r="F70" t="n">
+      <c r="H70" t="n">
+        <v>0.1407293137412466</v>
+      </c>
+      <c r="I70" t="n">
         <v>1.074656707019964</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.5377380952380946</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-21.69776537717485</v>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>0.05508919644747602</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5343034724303025</v>
       </c>
     </row>
     <row r="71">
@@ -6199,31 +6199,31 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.7644293478260871</v>
+        <v>0.5019140624999994</v>
       </c>
       <c r="C71" t="n">
         <v>-44.528898547303</v>
       </c>
       <c r="D71" t="n">
+        <v>0.4572287193626645</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7644293478260871</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.353751031436346</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.4370909237896318</v>
       </c>
-      <c r="E71" t="n">
-        <v>1.353751031436346</v>
-      </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
+        <v>0.4185241454372886</v>
+      </c>
+      <c r="I71" t="n">
         <v>1.046075145624545</v>
       </c>
-      <c r="G71" t="n">
-        <v>0.5019140624999994</v>
-      </c>
-      <c r="H71" t="n">
-        <v>-28.24849332623324</v>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>-0.1638299758838738</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.4572287193626645</v>
       </c>
     </row>
     <row r="72">
@@ -6233,31 +6233,31 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.7470652173913048</v>
+        <v>0.484679939516129</v>
       </c>
       <c r="C72" t="n">
         <v>-44.18373734704694</v>
       </c>
       <c r="D72" t="n">
+        <v>0.560699696936549</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7470652173913048</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.899802622145206</v>
+      </c>
+      <c r="G72" t="n">
         <v>1.499602964837351</v>
       </c>
-      <c r="E72" t="n">
-        <v>3.899802622145206</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="H72" t="n">
+        <v>0.6294047088558727</v>
+      </c>
+      <c r="I72" t="n">
         <v>0.9986079684419568</v>
       </c>
-      <c r="G72" t="n">
-        <v>0.484679939516129</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-29.14825952904718</v>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>-0.2681592640260389</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.560699696936549</v>
       </c>
     </row>
     <row r="73">
@@ -6267,31 +6267,31 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.8023333333333335</v>
+        <v>0.4421812596006143</v>
       </c>
       <c r="C73" t="n">
         <v>-43.82461461889655</v>
       </c>
       <c r="D73" t="n">
+        <v>0.5156006582094423</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8023333333333335</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.437013354192978</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.843171802058048</v>
       </c>
-      <c r="E73" t="n">
-        <v>1.437013354192978</v>
-      </c>
-      <c r="F73" t="n">
+      <c r="H73" t="n">
+        <v>0.7603199091669808</v>
+      </c>
+      <c r="I73" t="n">
         <v>0.6843774002827572</v>
       </c>
-      <c r="G73" t="n">
-        <v>0.4421812596006143</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-25.19853957845763</v>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>0.8383852104316034</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5156006582094423</v>
       </c>
     </row>
     <row r="74">
@@ -6301,31 +6301,31 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9845054945054948</v>
+        <v>0.377943548387097</v>
       </c>
       <c r="C74" t="n">
         <v>-43.16981981545911</v>
       </c>
       <c r="D74" t="n">
+        <v>0.460733799312787</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9845054945054948</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.354684044053412</v>
+      </c>
+      <c r="G74" t="n">
         <v>1.384675548078348</v>
       </c>
-      <c r="E74" t="n">
-        <v>2.354684044053412</v>
-      </c>
-      <c r="F74" t="n">
+      <c r="H74" t="n">
+        <v>1.727872872115597</v>
+      </c>
+      <c r="I74" t="n">
         <v>0.9111853426933835</v>
       </c>
-      <c r="G74" t="n">
-        <v>0.377943548387097</v>
-      </c>
-      <c r="H74" t="n">
-        <v>-16.17385973098112</v>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>-0.4607337993127787</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.460733799312787</v>
       </c>
     </row>
     <row r="75">
@@ -6335,31 +6335,31 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.121358695652174</v>
+        <v>0.3774609374999998</v>
       </c>
       <c r="C75" t="n">
         <v>-43.10245473753427</v>
       </c>
       <c r="D75" t="n">
+        <v>0.5937208212020041</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.121358695652174</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.8952363975089407</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.5442042219172748</v>
       </c>
-      <c r="E75" t="n">
-        <v>0.8952363975089407</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="H75" t="n">
+        <v>2.01865988118044</v>
+      </c>
+      <c r="I75" t="n">
         <v>1.007501025374469</v>
       </c>
-      <c r="G75" t="n">
-        <v>0.3774609374999998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>-13.46114355477067</v>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>-0.4977054513676619</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5937208212020041</v>
       </c>
     </row>
     <row r="76">
@@ -6369,31 +6369,31 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.291983695652174</v>
+        <v>0.3426411657559199</v>
       </c>
       <c r="C76" t="n">
         <v>-42.40880966519898</v>
       </c>
       <c r="D76" t="n">
+        <v>0.4662496142644469</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.291983695652174</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.334841921449708</v>
+      </c>
+      <c r="G76" t="n">
         <v>1.225801355353728</v>
       </c>
-      <c r="E76" t="n">
-        <v>2.334841921449708</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="H76" t="n">
+        <v>2.747296837699707</v>
+      </c>
+      <c r="I76" t="n">
         <v>0.9605107466480176</v>
       </c>
-      <c r="G76" t="n">
-        <v>0.3426411657559199</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-9.360228929941741</v>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>0.2985724695612195</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.4662496142644469</v>
       </c>
     </row>
     <row r="77">
@@ -6403,31 +6403,31 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.450694444444444</v>
+        <v>0.3502726574500761</v>
       </c>
       <c r="C77" t="n">
         <v>-42.52014124200664</v>
       </c>
       <c r="D77" t="n">
+        <v>0.7312458558732677</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.450694444444444</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.893576751620352</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.3692361283377139</v>
       </c>
-      <c r="E77" t="n">
-        <v>1.893576751620352</v>
-      </c>
-      <c r="F77" t="n">
+      <c r="H77" t="n">
+        <v>2.725698890669946</v>
+      </c>
+      <c r="I77" t="n">
         <v>0.2457208205203396</v>
       </c>
-      <c r="G77" t="n">
-        <v>0.3502726574500761</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-13.07076389714871</v>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>-0.3510172608994027</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7312458558732677</v>
       </c>
     </row>
     <row r="78">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.50478021978022</v>
+        <v>0.4041666666666666</v>
       </c>
       <c r="C78" t="n">
         <v>-43.19479940801998</v>
       </c>
       <c r="D78" t="n">
+        <v>0.4198459907407757</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.50478021978022</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.6838064589349453</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.194770605863079</v>
       </c>
-      <c r="E78" t="n">
-        <v>-0.6838064589349453</v>
-      </c>
-      <c r="F78" t="n">
+      <c r="H78" t="n">
+        <v>1.981069068704414</v>
+      </c>
+      <c r="I78" t="n">
         <v>1.109556817937518</v>
       </c>
-      <c r="G78" t="n">
-        <v>0.4041666666666666</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-20.74668971180949</v>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>0.3363012793168789</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.4198459907407757</v>
       </c>
     </row>
     <row r="79">
@@ -6471,31 +6471,31 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.44929347826087</v>
+        <v>0.4331746031746033</v>
       </c>
       <c r="C79" t="n">
         <v>-43.30529080285601</v>
       </c>
       <c r="D79" t="n">
+        <v>0.4587865517855493</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.44929347826087</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.710075575729767</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.7713434461316827</v>
       </c>
-      <c r="E79" t="n">
-        <v>0.710075575729767</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="H79" t="n">
+        <v>2.395537457445187</v>
+      </c>
+      <c r="I79" t="n">
         <v>0.7788870117552169</v>
       </c>
-      <c r="G79" t="n">
-        <v>0.4331746031746033</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-22.65009754084826</v>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>0.1981843705305607</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.4587865517855493</v>
       </c>
     </row>
     <row r="80">
@@ -6505,31 +6505,31 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.429864130434783</v>
+        <v>0.4369502048131082</v>
       </c>
       <c r="C80" t="n">
         <v>-43.44583910757746</v>
       </c>
       <c r="D80" t="n">
+        <v>0.4870633677549687</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.429864130434783</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.766427672047497</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.7969324217602153</v>
       </c>
-      <c r="E80" t="n">
-        <v>1.766427672047497</v>
-      </c>
-      <c r="F80" t="n">
+      <c r="H80" t="n">
+        <v>2.170774120876672</v>
+      </c>
+      <c r="I80" t="n">
         <v>0.570215203486378</v>
       </c>
-      <c r="G80" t="n">
-        <v>0.4369502048131082</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-27.94225208234025</v>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>0.2585132453793839</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.4870633677549687</v>
       </c>
     </row>
     <row r="81">
@@ -6539,31 +6539,31 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.342747252747253</v>
+        <v>0.4491250640040965</v>
       </c>
       <c r="C81" t="n">
         <v>-43.59689180876213</v>
       </c>
       <c r="D81" t="n">
+        <v>0.6155728606145845</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.342747252747253</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.009523553822333</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.7125004812386161</v>
       </c>
-      <c r="E81" t="n">
-        <v>2.009523553822333</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="H81" t="n">
+        <v>1.367059941407774</v>
+      </c>
+      <c r="I81" t="n">
         <v>0.7990574274444159</v>
       </c>
-      <c r="G81" t="n">
-        <v>0.4491250640040965</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-27.15238795887211</v>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>0.03227762370571586</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6155728606145845</v>
       </c>
     </row>
     <row r="82">
@@ -6573,31 +6573,31 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.310989010989011</v>
+        <v>0.3951562499999997</v>
       </c>
       <c r="C82" t="n">
         <v>-42.77766190069848</v>
       </c>
       <c r="D82" t="n">
+        <v>0.3414686455448036</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.310989010989011</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.708655858081106</v>
+      </c>
+      <c r="G82" t="n">
         <v>1.634477220679891</v>
       </c>
-      <c r="E82" t="n">
-        <v>2.708655858081106</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
+        <v>1.892109010117906</v>
+      </c>
+      <c r="I82" t="n">
         <v>1.349637993896184</v>
       </c>
-      <c r="G82" t="n">
-        <v>0.3951562499999997</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-19.8035577188565</v>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>0.5768114526886964</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.3414686455448036</v>
       </c>
     </row>
     <row r="83">
@@ -6607,31 +6607,31 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.326548913043478</v>
+        <v>0.3783984374999994</v>
       </c>
       <c r="C83" t="n">
         <v>-42.22505039739417</v>
       </c>
       <c r="D83" t="n">
+        <v>0.4900744918798357</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.326548913043478</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.048779369208999</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.4985692471062164</v>
       </c>
-      <c r="E83" t="n">
-        <v>2.048779369208999</v>
-      </c>
-      <c r="F83" t="n">
+      <c r="H83" t="n">
+        <v>2.486321266265179</v>
+      </c>
+      <c r="I83" t="n">
         <v>0.3806604441839119</v>
       </c>
-      <c r="G83" t="n">
-        <v>0.3783984374999994</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-19.86574033045702</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>0.3292291352777339</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.4900744918798357</v>
       </c>
     </row>
     <row r="84">
@@ -6641,31 +6641,31 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.320217391304347</v>
+        <v>0.3922177419354842</v>
       </c>
       <c r="C84" t="n">
         <v>-41.94283804437397</v>
       </c>
       <c r="D84" t="n">
+        <v>0.3982878908466979</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.320217391304347</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.075465378408611</v>
+      </c>
+      <c r="G84" t="n">
         <v>1.133580469739027</v>
       </c>
-      <c r="E84" t="n">
-        <v>1.075465378408611</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="H84" t="n">
+        <v>2.94596685423403</v>
+      </c>
+      <c r="I84" t="n">
         <v>1.002165754260838</v>
       </c>
-      <c r="G84" t="n">
-        <v>0.3922177419354842</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-24.38727619827381</v>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>0.4143576648558447</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.3982878908466979</v>
       </c>
     </row>
     <row r="85">
@@ -6675,31 +6675,31 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.31961111111111</v>
+        <v>0.3772663934426224</v>
       </c>
       <c r="C85" t="n">
         <v>-41.79766641045085</v>
       </c>
       <c r="D85" t="n">
+        <v>0.7228112067641712</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.31961111111111</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.224685429352858</v>
+      </c>
+      <c r="G85" t="n">
         <v>1.067248665992981</v>
       </c>
-      <c r="E85" t="n">
-        <v>1.224685429352858</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="H85" t="n">
+        <v>3.354616438720029</v>
+      </c>
+      <c r="I85" t="n">
         <v>0.9872671805742985</v>
       </c>
-      <c r="G85" t="n">
-        <v>0.3772663934426224</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-22.474600682127</v>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>-0.1846933163125067</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.7228112067641712</v>
       </c>
     </row>
     <row r="86">
@@ -6709,31 +6709,31 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.38054945054945</v>
+        <v>0.3723437500000006</v>
       </c>
       <c r="C86" t="n">
         <v>-41.17710718681963</v>
       </c>
       <c r="D86" t="n">
+        <v>0.4528012461306312</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.38054945054945</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.216086615202498</v>
+      </c>
+      <c r="G86" t="n">
         <v>1.430515529546919</v>
       </c>
-      <c r="E86" t="n">
-        <v>2.216086615202498</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="H86" t="n">
+        <v>3.777628565463544</v>
+      </c>
+      <c r="I86" t="n">
         <v>0.2963896191648462</v>
       </c>
-      <c r="G86" t="n">
-        <v>0.3723437500000006</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-21.08514043756998</v>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>-0.09565800937092235</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.4528012461306312</v>
       </c>
     </row>
     <row r="87">
@@ -6743,31 +6743,31 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1.383668478260869</v>
+        <v>0.3791406249999991</v>
       </c>
       <c r="C87" t="n">
         <v>-40.95610757010943</v>
       </c>
       <c r="D87" t="n">
+        <v>0.2942043899093243</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.383668478260869</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.142250490257475</v>
+      </c>
+      <c r="G87" t="n">
         <v>1.036189960480518</v>
       </c>
-      <c r="E87" t="n">
-        <v>3.142250490257475</v>
-      </c>
-      <c r="F87" t="n">
+      <c r="H87" t="n">
+        <v>4.089149268573067</v>
+      </c>
+      <c r="I87" t="n">
         <v>1.608695221681822</v>
       </c>
-      <c r="G87" t="n">
-        <v>0.3791406249999991</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-26.48295880784241</v>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>0.6814131046271403</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2942043899093243</v>
       </c>
     </row>
     <row r="88">
@@ -6777,31 +6777,31 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.376847826086956</v>
+        <v>0.3834677419354837</v>
       </c>
       <c r="C88" t="n">
         <v>-40.90854085083651</v>
       </c>
       <c r="D88" t="n">
+        <v>0.3616640470188515</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.376847826086956</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.6291333871134438</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.6828614423982419</v>
       </c>
-      <c r="E88" t="n">
-        <v>0.6291333871134438</v>
-      </c>
-      <c r="F88" t="n">
+      <c r="H88" t="n">
+        <v>4.112295725119736</v>
+      </c>
+      <c r="I88" t="n">
         <v>0.7920131637462404</v>
       </c>
-      <c r="G88" t="n">
-        <v>0.3834677419354837</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-30.67582994073322</v>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>1.127631985910102</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.3616640470188515</v>
       </c>
     </row>
     <row r="89">
@@ -6811,31 +6811,31 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.379833333333333</v>
+        <v>0.4170901639344258</v>
       </c>
       <c r="C89" t="n">
         <v>-40.74522569438824</v>
       </c>
       <c r="D89" t="n">
+        <v>0.2533620532872358</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.379833333333333</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3.361230079846785</v>
+      </c>
+      <c r="G89" t="n">
         <v>1.582975648845578</v>
       </c>
-      <c r="E89" t="n">
-        <v>3.361230079846785</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="H89" t="n">
+        <v>4.121099936362782</v>
+      </c>
+      <c r="I89" t="n">
         <v>1.016194276619068</v>
       </c>
-      <c r="G89" t="n">
-        <v>0.4170901639344258</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-33.13613240646447</v>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>1.299732149800417</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.2533620532872358</v>
       </c>
     </row>
     <row r="90">
@@ -6845,31 +6845,31 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.374368131868132</v>
+        <v>0.4146031746031751</v>
       </c>
       <c r="C90" t="n">
         <v>-40.7216859923744</v>
       </c>
       <c r="D90" t="n">
+        <v>0.2818408979699453</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.374368131868132</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.886425207663567</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.719602405788173</v>
       </c>
-      <c r="E90" t="n">
-        <v>2.886425207663567</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="H90" t="n">
+        <v>4.004923899337712</v>
+      </c>
+      <c r="I90" t="n">
         <v>1.432300013720079</v>
       </c>
-      <c r="G90" t="n">
-        <v>0.4146031746031751</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-33.24523330332752</v>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>0.9942291610514674</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.2818408979699453</v>
       </c>
     </row>
     <row r="91">
@@ -6879,31 +6879,31 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.382907608695652</v>
+        <v>0.4799609374999994</v>
       </c>
       <c r="C91" t="n">
         <v>-40.9379256598767</v>
       </c>
       <c r="D91" t="n">
+        <v>0.3681104612031821</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.382907608695652</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.7853048633254653</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.8469044691327877</v>
       </c>
-      <c r="E91" t="n">
-        <v>0.7853048633254653</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="H91" t="n">
+        <v>3.710641718589272</v>
+      </c>
+      <c r="I91" t="n">
         <v>1.033047039045272</v>
       </c>
-      <c r="G91" t="n">
-        <v>0.4799609374999994</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-34.97341302458176</v>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>0.891881008497622</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.3681104612031821</v>
       </c>
     </row>
     <row r="92">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.215135869565217</v>
+        <v>0.6459274193548394</v>
       </c>
       <c r="C92" t="n">
         <v>-40.60553795356979</v>
       </c>
       <c r="D92" t="n">
+        <v>0.2607311602111331</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.215135869565217</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.513436431854259</v>
+      </c>
+      <c r="G92" t="n">
         <v>1.359947902525827</v>
       </c>
-      <c r="E92" t="n">
-        <v>2.513436431854259</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="H92" t="n">
+        <v>4.835218171747897</v>
+      </c>
+      <c r="I92" t="n">
         <v>1.298858566712822</v>
       </c>
-      <c r="G92" t="n">
-        <v>0.6459274193548394</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-33.32502058387374</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>0.6532760337286826</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.2607311602111331</v>
       </c>
     </row>
     <row r="93">
@@ -6947,31 +6947,31 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.183638888888889</v>
+        <v>0.6028278688524591</v>
       </c>
       <c r="C93" t="n">
         <v>-40.6984930641263</v>
       </c>
       <c r="D93" t="n">
+        <v>0.5386182108723997</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.183638888888889</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.828010868213278</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.8685952967194454</v>
       </c>
-      <c r="E93" t="n">
-        <v>1.828010868213278</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="H93" t="n">
+        <v>4.779806918302313</v>
+      </c>
+      <c r="I93" t="n">
         <v>1.270282232205684</v>
       </c>
-      <c r="G93" t="n">
-        <v>0.6028278688524591</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-31.05328246097869</v>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>0.4490441387187689</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5386182108723997</v>
       </c>
     </row>
     <row r="94">
@@ -6981,31 +6981,31 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.186923076923077</v>
+        <v>0.5494921874999998</v>
       </c>
       <c r="C94" t="n">
         <v>-40.86088452049536</v>
       </c>
       <c r="D94" t="n">
+        <v>0.3638456714045064</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.186923076923077</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.716127854955996</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.6075436086874911</v>
       </c>
-      <c r="E94" t="n">
-        <v>1.716127854955996</v>
-      </c>
-      <c r="F94" t="n">
+      <c r="H94" t="n">
+        <v>4.757695378654887</v>
+      </c>
+      <c r="I94" t="n">
         <v>1.551425708656503</v>
       </c>
-      <c r="G94" t="n">
-        <v>0.5494921874999998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-26.73500810094703</v>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>0.6952273640583474</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.3638456714045064</v>
       </c>
     </row>
     <row r="95">
@@ -7015,31 +7015,31 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.273885869565218</v>
+        <v>0.5548437500000007</v>
       </c>
       <c r="C95" t="n">
         <v>-40.8294230355643</v>
       </c>
       <c r="D95" t="n">
+        <v>0.2577198009295625</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.273885869565218</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.545923844130261</v>
+      </c>
+      <c r="G95" t="n">
         <v>1.386194393825136</v>
       </c>
-      <c r="E95" t="n">
-        <v>1.545923844130261</v>
-      </c>
-      <c r="F95" t="n">
+      <c r="H95" t="n">
+        <v>4.910468401602259</v>
+      </c>
+      <c r="I95" t="n">
         <v>1.44554910442485</v>
       </c>
-      <c r="G95" t="n">
-        <v>0.5548437500000007</v>
-      </c>
-      <c r="H95" t="n">
-        <v>-22.14974551480776</v>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>1.030542782171802</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.2577198009295625</v>
       </c>
     </row>
     <row r="96">
@@ -7049,31 +7049,31 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.326005434782608</v>
+        <v>0.5225601638504864</v>
       </c>
       <c r="C96" t="n">
         <v>-40.65082235436009</v>
       </c>
       <c r="D96" t="n">
+        <v>0.3900865990254268</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.326005434782608</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.357376453300973</v>
+      </c>
+      <c r="G96" t="n">
         <v>1.982288267244167</v>
       </c>
-      <c r="E96" t="n">
-        <v>1.357376453300973</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="H96" t="n">
+        <v>4.966786458873344</v>
+      </c>
+      <c r="I96" t="n">
         <v>1.589690062317656</v>
       </c>
-      <c r="G96" t="n">
-        <v>0.5225601638504864</v>
-      </c>
-      <c r="H96" t="n">
-        <v>-20.52478257085801</v>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>0.6445426063889922</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.3900865990254268</v>
       </c>
     </row>
     <row r="97">
@@ -7083,31 +7083,31 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.419423076923077</v>
+        <v>0.465595238095238</v>
       </c>
       <c r="C97" t="n">
         <v>-40.10116621611106</v>
       </c>
       <c r="D97" t="n">
+        <v>0.8133201632975978</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.419423076923077</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.61763445211032</v>
+      </c>
+      <c r="G97" t="n">
         <v>1.178614971018704</v>
       </c>
-      <c r="E97" t="n">
-        <v>3.61763445211032</v>
-      </c>
-      <c r="F97" t="n">
+      <c r="H97" t="n">
+        <v>5.141752573721362</v>
+      </c>
+      <c r="I97" t="n">
         <v>1.872281501131163</v>
       </c>
-      <c r="G97" t="n">
-        <v>0.465595238095238</v>
-      </c>
-      <c r="H97" t="n">
-        <v>-19.36920989781669</v>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>0.2107139921268283</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.8133201632975978</v>
       </c>
     </row>
     <row r="98">
@@ -7117,31 +7117,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.567994505494505</v>
+        <v>0.6048015873015873</v>
       </c>
       <c r="C98" t="n">
         <v>-40.31188148404594</v>
       </c>
       <c r="D98" t="n">
+        <v>0.5916343500612675</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.567994505494505</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.52871691430126</v>
+      </c>
+      <c r="G98" t="n">
         <v>1.373281372157375</v>
       </c>
-      <c r="E98" t="n">
-        <v>2.52871691430126</v>
-      </c>
-      <c r="F98" t="n">
+      <c r="H98" t="n">
+        <v>4.743832357389465</v>
+      </c>
+      <c r="I98" t="n">
         <v>0.6773871093566295</v>
       </c>
-      <c r="G98" t="n">
-        <v>0.6048015873015873</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-16.14088567959396</v>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>0.8091667655498215</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5916343500612675</v>
       </c>
     </row>
     <row r="99">
@@ -7151,31 +7151,31 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1.629864130434783</v>
+        <v>0.6057936507936512</v>
       </c>
       <c r="C99" t="n">
         <v>-41.06596582809084</v>
       </c>
       <c r="D99" t="n">
+        <v>0.3924871873297208</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.629864130434783</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.8632848612187485</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.5415137052743655</v>
       </c>
-      <c r="E99" t="n">
-        <v>0.8632848612187485</v>
-      </c>
-      <c r="F99" t="n">
+      <c r="H99" t="n">
+        <v>4.205925546125343</v>
+      </c>
+      <c r="I99" t="n">
         <v>1.15471209178025</v>
       </c>
-      <c r="G99" t="n">
-        <v>0.6057936507936512</v>
-      </c>
-      <c r="H99" t="n">
-        <v>-19.58283628561293</v>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>1.141285211041262</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.3924871873297208</v>
       </c>
     </row>
     <row r="100">
@@ -7185,31 +7185,31 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.618722826086957</v>
+        <v>0.6617338709677425</v>
       </c>
       <c r="C100" t="n">
         <v>-41.25286827241382</v>
       </c>
       <c r="D100" t="n">
+        <v>0.5116528209348645</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.618722826086957</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.8004777273366943</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.3409517979808664</v>
       </c>
-      <c r="E100" t="n">
-        <v>-0.8004777273366943</v>
-      </c>
-      <c r="F100" t="n">
+      <c r="H100" t="n">
+        <v>3.990031571985526</v>
+      </c>
+      <c r="I100" t="n">
         <v>0.7242788925457383</v>
       </c>
-      <c r="G100" t="n">
-        <v>0.6617338709677425</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-20.73749864844524</v>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>1.073884358044545</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5116528209348645</v>
       </c>
     </row>
     <row r="101">
@@ -7219,20 +7219,18 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.456</v>
+        <v>0.6879032258064515</v>
       </c>
       <c r="C101" t="n">
         <v>-41.00969390841499</v>
       </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>1.456</v>
+      </c>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="n">
-        <v>0.6879032258064515</v>
-      </c>
-      <c r="H101" t="n">
-        <v>-24.70739391600341</v>
-      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
     </row>

--- a/data/vintage_data/data_20010214.xlsx
+++ b/data/vintage_data/data_20010214.xlsx
@@ -15421,9 +15421,7 @@
       <c r="V101" t="n">
         <v>0.4558281786283396</v>
       </c>
-      <c r="W101" t="n">
-        <v>4.2471</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -22970,16 +22968,16 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-41.00969390841499</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -30534,7 +30532,9 @@
       <c r="O101" t="n">
         <v>915.0627734175878</v>
       </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-41.00969390841499</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30545,9 +30545,7 @@
       <c r="V101" t="n">
         <v>0.4558281786283396</v>
       </c>
-      <c r="W101" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/vintage_data/data_20010214.xlsx
+++ b/data/vintage_data/data_20010214.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -554,9 +564,15 @@
         <v>5.737711258330243</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9553205128205124</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.933524117734704</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.566666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>1.084206314342287</v>
       </c>
     </row>
@@ -628,9 +644,15 @@
         <v>-0.1239925763320658</v>
       </c>
       <c r="W3" t="n">
+        <v>0.9457971014492754</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.480554372593275</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.733333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.9792716222166878</v>
       </c>
     </row>
@@ -702,9 +724,15 @@
         <v>13.77099950057969</v>
       </c>
       <c r="W4" t="n">
+        <v>1.05560688405797</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.131640479739709</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.766666666666667</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.06683252609622044</v>
       </c>
     </row>
@@ -776,9 +804,15 @@
         <v>5.366884890066718</v>
       </c>
       <c r="W5" t="n">
+        <v>1.083999999999999</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.717050355749061</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.1100168193805117</v>
       </c>
     </row>
@@ -850,9 +884,15 @@
         <v>13.49392126561083</v>
       </c>
       <c r="W6" t="n">
+        <v>0.9497985347985345</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.200416606827117</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.3511548983591037</v>
       </c>
     </row>
@@ -924,9 +964,15 @@
         <v>2.911542228809501</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8033967391304353</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.554980878654789</v>
+      </c>
+      <c r="Y7" t="n">
         <v>6.899999999999999</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.5372392541554332</v>
       </c>
     </row>
@@ -998,9 +1044,15 @@
         <v>1.638674011477274</v>
       </c>
       <c r="W8" t="n">
+        <v>0.6438405797101452</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.90475794561558</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.2372366897785221</v>
       </c>
     </row>
@@ -1072,9 +1124,15 @@
         <v>3.529778208102369</v>
       </c>
       <c r="W9" t="n">
+        <v>0.6084444444444457</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.946460074608637</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.333333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.105860947915959</v>
       </c>
     </row>
@@ -1146,9 +1204,15 @@
         <v>7.475657620370151</v>
       </c>
       <c r="W10" t="n">
+        <v>0.5243406593406585</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.257638883874519</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>-0.3760612173782659</v>
       </c>
     </row>
@@ -1220,9 +1284,15 @@
         <v>3.980998836184768</v>
       </c>
       <c r="W11" t="n">
+        <v>0.4029710144927541</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.661330677451166</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.2437737982964335</v>
       </c>
     </row>
@@ -1294,9 +1364,15 @@
         <v>2.400988380480139</v>
       </c>
       <c r="W12" t="n">
+        <v>0.09304347826086756</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.278850908866682</v>
+      </c>
+      <c r="Y12" t="n">
         <v>5.899999999999999</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.4044686137477984</v>
       </c>
     </row>
@@ -1368,9 +1444,15 @@
         <v>-0.3601012173594343</v>
       </c>
       <c r="W13" t="n">
+        <v>0.06752777777777741</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.463231383102256</v>
+      </c>
+      <c r="Y13" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.6371039027000576</v>
       </c>
     </row>
@@ -1442,9 +1524,15 @@
         <v>1.64583321488318</v>
       </c>
       <c r="W14" t="n">
+        <v>0.1003388278388302</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.983344783239858</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.699999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.03646260775651751</v>
       </c>
     </row>
@@ -1516,9 +1604,15 @@
         <v>1.82846162950412</v>
       </c>
       <c r="W15" t="n">
+        <v>0.02663949275362398</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.171814367932647</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2052059121961721</v>
       </c>
     </row>
@@ -1590,9 +1684,15 @@
         <v>-1.615771014053415</v>
       </c>
       <c r="W16" t="n">
+        <v>-0.5183876811594206</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.79566940527454</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.3744340145790591</v>
       </c>
     </row>
@@ -1664,9 +1764,15 @@
         <v>-4.861312601724782</v>
       </c>
       <c r="W17" t="n">
+        <v>-0.6729853479853483</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.507463473540271</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.4682372125669566</v>
       </c>
     </row>
@@ -1738,9 +1844,15 @@
         <v>-19.02338172254117</v>
       </c>
       <c r="W18" t="n">
+        <v>0.2169413919413929</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.049652415683261</v>
+      </c>
+      <c r="Y18" t="n">
         <v>7.333333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.5428319962623585</v>
       </c>
     </row>
@@ -1812,9 +1924,15 @@
         <v>4.139736852922409</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6467119565217376</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.089370663175538</v>
+      </c>
+      <c r="Y19" t="n">
         <v>7.666666666666667</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.3354941442740488</v>
       </c>
     </row>
@@ -1886,9 +2004,15 @@
         <v>12.47570309630446</v>
       </c>
       <c r="W20" t="n">
+        <v>-0.6857065217391312</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.752070744192177</v>
+      </c>
+      <c r="Y20" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.3139831505368311</v>
       </c>
     </row>
@@ -1960,9 +2084,15 @@
         <v>0.5317141277620339</v>
       </c>
       <c r="W21" t="n">
+        <v>-0.6688888888888909</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.506155818001225</v>
+      </c>
+      <c r="Y21" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.07696787743255375</v>
       </c>
     </row>
@@ -2034,9 +2164,15 @@
         <v>-2.376501264122911</v>
       </c>
       <c r="W22" t="n">
+        <v>-0.8075641025641009</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.473021313130527</v>
+      </c>
+      <c r="Y22" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.2833897789660766</v>
       </c>
     </row>
@@ -2108,9 +2244,15 @@
         <v>-6.987988784403447</v>
       </c>
       <c r="W23" t="n">
+        <v>-0.5444202898550752</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.821296849374302</v>
+      </c>
+      <c r="Y23" t="n">
         <v>7.400000000000001</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.4126566203039123</v>
       </c>
     </row>
@@ -2182,9 +2324,15 @@
         <v>-9.231964758719208</v>
       </c>
       <c r="W24" t="n">
+        <v>0.6229076086956531</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.65657007356288</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8.233333333333334</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.3361321699064641</v>
       </c>
     </row>
@@ -2256,9 +2404,15 @@
         <v>-4.478360262697331</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3614722222222202</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.9630701025829564</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8.833333333333334</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6974992692667927</v>
       </c>
     </row>
@@ -2330,9 +2484,15 @@
         <v>-1.926841886587703</v>
       </c>
       <c r="W26" t="n">
+        <v>0.3431227106227128</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.119832531002954</v>
+      </c>
+      <c r="Y26" t="n">
         <v>9.433333333333335</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.2957830403413962</v>
       </c>
     </row>
@@ -2404,9 +2564,15 @@
         <v>-0.4875680063483918</v>
       </c>
       <c r="W27" t="n">
+        <v>1.11848731884058</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.1492435007543214</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9.9</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.4907338633348499</v>
       </c>
     </row>
@@ -2478,9 +2644,15 @@
         <v>9.770666610637765</v>
       </c>
       <c r="W28" t="n">
+        <v>1.256521739130434</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.311967902203365</v>
+      </c>
+      <c r="Y28" t="n">
         <v>10.66666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.04276391816866596</v>
       </c>
     </row>
@@ -2552,9 +2724,15 @@
         <v>14.88173338518959</v>
       </c>
       <c r="W29" t="n">
+        <v>1.172277777777778</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.4782791102065472</v>
+      </c>
+      <c r="Y29" t="n">
         <v>10.36666666666667</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.1115741126881956</v>
       </c>
     </row>
@@ -2626,9 +2804,15 @@
         <v>12.41290399461322</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9826465201465213</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.643486701191391</v>
+      </c>
+      <c r="Y30" t="n">
         <v>10.13333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>-0.1420023892476789</v>
       </c>
     </row>
@@ -2700,9 +2884,15 @@
         <v>9.273048425172373</v>
       </c>
       <c r="W31" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y31" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>-0.2450324114759349</v>
       </c>
     </row>
@@ -2774,9 +2964,15 @@
         <v>3.564255267870626</v>
       </c>
       <c r="W32" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y32" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.3484279558021058</v>
       </c>
     </row>
@@ -2848,9 +3044,15 @@
         <v>4.12729314085998</v>
       </c>
       <c r="W33" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.1729576653708816</v>
       </c>
     </row>
@@ -2922,9 +3124,15 @@
         <v>3.249585648002008</v>
       </c>
       <c r="W34" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.3254164667776762</v>
       </c>
     </row>
@@ -2996,9 +3204,15 @@
         <v>-0.3313089722960126</v>
       </c>
       <c r="W35" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.5029918571160692</v>
       </c>
     </row>
@@ -3070,9 +3284,15 @@
         <v>0.2761669802729211</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.2948636640604868</v>
       </c>
     </row>
@@ -3144,9 +3364,15 @@
         <v>1.151644206155908</v>
       </c>
       <c r="W37" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.08053697142812447</v>
       </c>
     </row>
@@ -3218,9 +3444,15 @@
         <v>-0.3276900802314798</v>
       </c>
       <c r="W38" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.3</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.4527521303786584</v>
       </c>
     </row>
@@ -3292,9 +3524,15 @@
         <v>2.645228457241332</v>
       </c>
       <c r="W39" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X39" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.2</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>0.8387291113820747</v>
       </c>
     </row>
@@ -3366,9 +3604,15 @@
         <v>3.249761865614301</v>
       </c>
       <c r="W40" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>0.9159072737594085</v>
       </c>
     </row>
@@ -3440,9 +3684,15 @@
         <v>5.322541323425025</v>
       </c>
       <c r="W41" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.9390135137965314</v>
       </c>
     </row>
@@ -3514,9 +3764,15 @@
         <v>6.530228807304192</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y42" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.4517357855170038</v>
       </c>
     </row>
@@ -3588,9 +3844,15 @@
         <v>2.622211725098292</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.2864923080875492</v>
       </c>
     </row>
@@ -3662,9 +3924,15 @@
         <v>0.66711388170226</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.9573246867664578</v>
       </c>
     </row>
@@ -3736,9 +4004,15 @@
         <v>-0.133067218570495</v>
       </c>
       <c r="W45" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.635721684927732</v>
       </c>
     </row>
@@ -3810,9 +4084,15 @@
         <v>1.716213740238562</v>
       </c>
       <c r="W46" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X46" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.3100850481010285</v>
       </c>
     </row>
@@ -3884,9 +4164,15 @@
         <v>-0.7884403524148759</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y47" t="n">
         <v>6</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.1545314186378164</v>
       </c>
     </row>
@@ -3958,9 +4244,15 @@
         <v>0.4387896465419438</v>
       </c>
       <c r="W48" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.6789778325916129</v>
       </c>
     </row>
@@ -4032,9 +4324,15 @@
         <v>0.524018666355625</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.7</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.06116528608373858</v>
       </c>
     </row>
@@ -4106,9 +4404,15 @@
         <v>1.598651458197299</v>
       </c>
       <c r="W50" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.5652380764681929</v>
       </c>
     </row>
@@ -4180,9 +4484,15 @@
         <v>1.0234630914701</v>
       </c>
       <c r="W51" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>-0.09656980112504204</v>
       </c>
     </row>
@@ -4254,9 +4564,15 @@
         <v>1.139012524910935</v>
       </c>
       <c r="W52" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>-0.06728767838041383</v>
       </c>
     </row>
@@ -4328,9 +4644,15 @@
         <v>-0.5889794056063486</v>
       </c>
       <c r="W53" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.2</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>-0.9092999802385253</v>
       </c>
     </row>
@@ -4402,9 +4724,15 @@
         <v>-2.003050135876769</v>
       </c>
       <c r="W54" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>-0.6398900044790241</v>
       </c>
     </row>
@@ -4476,9 +4804,15 @@
         <v>-0.9081143488581298</v>
       </c>
       <c r="W55" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.09812118514135591</v>
       </c>
     </row>
@@ -4550,9 +4884,15 @@
         <v>-1.048044527470043</v>
       </c>
       <c r="W56" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7633360027423075</v>
       </c>
     </row>
@@ -4624,9 +4964,15 @@
         <v>2.728032348378334</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5.3</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.2453450499634662</v>
       </c>
     </row>
@@ -4698,9 +5044,15 @@
         <v>-4.32098638588056</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y58" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.7610161773768187</v>
       </c>
     </row>
@@ -4772,9 +5124,15 @@
         <v>-5.548064906742272</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y59" t="n">
         <v>5.7</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.4739284442903958</v>
       </c>
     </row>
@@ -4846,9 +5204,15 @@
         <v>-7.43618759255569</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y60" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.1100965736310962</v>
       </c>
     </row>
@@ -4920,9 +5284,15 @@
         <v>-6.234016056675502</v>
       </c>
       <c r="W61" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y61" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.2925540664699352</v>
       </c>
     </row>
@@ -4994,9 +5364,15 @@
         <v>0.8611463334918544</v>
       </c>
       <c r="W62" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y62" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.8912158433473732</v>
       </c>
     </row>
@@ -5068,9 +5444,15 @@
         <v>4.146487464525759</v>
       </c>
       <c r="W63" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y63" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.3002751130221616</v>
       </c>
     </row>
@@ -5142,9 +5524,15 @@
         <v>2.788520348953564</v>
       </c>
       <c r="W64" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y64" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.7167403980770832</v>
       </c>
     </row>
@@ -5216,9 +5604,15 @@
         <v>5.732506661926956</v>
       </c>
       <c r="W65" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y65" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.287364364035414</v>
       </c>
     </row>
@@ -5290,9 +5684,15 @@
         <v>5.555709043740305</v>
       </c>
       <c r="W66" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y66" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.03725760227447895</v>
       </c>
     </row>
@@ -5364,9 +5764,15 @@
         <v>1.198682498919672</v>
       </c>
       <c r="W67" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y67" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.9739777469163584</v>
       </c>
     </row>
@@ -5438,9 +5844,15 @@
         <v>5.620179284643276</v>
       </c>
       <c r="W68" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y68" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.1634912717800875</v>
       </c>
     </row>
@@ -5512,9 +5924,15 @@
         <v>1.243797129221705</v>
       </c>
       <c r="W69" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y69" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.7298809367475073</v>
       </c>
     </row>
@@ -5586,9 +6004,15 @@
         <v>0.5751864666358764</v>
       </c>
       <c r="W70" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y70" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.05508919644747602</v>
       </c>
     </row>
@@ -5660,9 +6084,15 @@
         <v>3.541617627700523</v>
       </c>
       <c r="W71" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y71" t="n">
         <v>6.8</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.1638299758838738</v>
       </c>
     </row>
@@ -5734,9 +6164,15 @@
         <v>5.537746946895389</v>
       </c>
       <c r="W72" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y72" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>-0.2681592640260389</v>
       </c>
     </row>
@@ -5810,9 +6246,15 @@
         <v>3.347746874864147</v>
       </c>
       <c r="W73" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y73" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.8383852104316034</v>
       </c>
     </row>
@@ -5886,9 +6328,15 @@
         <v>4.249931351727917</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y74" t="n">
         <v>6.2</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.4607337993127787</v>
       </c>
     </row>
@@ -5962,9 +6410,15 @@
         <v>0.311580657129551</v>
       </c>
       <c r="W75" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y75" t="n">
         <v>6</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.4977054513676619</v>
       </c>
     </row>
@@ -6038,9 +6492,15 @@
         <v>0.1726817904492678</v>
       </c>
       <c r="W76" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.2985724695612195</v>
       </c>
     </row>
@@ -6114,9 +6574,15 @@
         <v>-0.7620404039690383</v>
       </c>
       <c r="W77" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>-0.3510172608994027</v>
       </c>
     </row>
@@ -6190,9 +6656,15 @@
         <v>-3.791419566997561</v>
       </c>
       <c r="W78" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.3363012793168789</v>
       </c>
     </row>
@@ -6266,9 +6738,15 @@
         <v>2.848181132694648</v>
       </c>
       <c r="W79" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.1981843705305607</v>
       </c>
     </row>
@@ -6342,9 +6820,15 @@
         <v>2.83756062129842</v>
       </c>
       <c r="W80" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.2585132453793839</v>
       </c>
     </row>
@@ -6418,9 +6902,15 @@
         <v>2.493390625841537</v>
       </c>
       <c r="W81" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.03227762370571586</v>
       </c>
     </row>
@@ -6494,9 +6984,15 @@
         <v>5.124337633634101</v>
       </c>
       <c r="W82" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.5</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.5768114526886964</v>
       </c>
     </row>
@@ -6570,9 +7066,15 @@
         <v>0.8499972473241366</v>
       </c>
       <c r="W83" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3292291352777339</v>
       </c>
     </row>
@@ -6646,9 +7148,15 @@
         <v>-0.5658613024151704</v>
       </c>
       <c r="W84" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.4143576648558447</v>
       </c>
     </row>
@@ -6722,9 +7230,15 @@
         <v>0.8788506033079337</v>
       </c>
       <c r="W85" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.1846933163125067</v>
       </c>
     </row>
@@ -6798,9 +7312,15 @@
         <v>1.765571648841558</v>
       </c>
       <c r="W86" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X86" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.09565800937092235</v>
       </c>
     </row>
@@ -6874,9 +7394,15 @@
         <v>1.250969784331084</v>
       </c>
       <c r="W87" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.6814131046271403</v>
       </c>
     </row>
@@ -6950,9 +7476,15 @@
         <v>2.30791001870859</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X88" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>1.127631985910102</v>
       </c>
     </row>
@@ -7026,9 +7558,15 @@
         <v>2.689434237839329</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>1.299732149800417</v>
       </c>
     </row>
@@ -7102,9 +7640,15 @@
         <v>3.653244990648756</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.9942291610514674</v>
       </c>
     </row>
@@ -7178,9 +7722,15 @@
         <v>3.363269833355901</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.891881008497622</v>
       </c>
     </row>
@@ -7254,9 +7804,15 @@
         <v>3.045382968051981</v>
       </c>
       <c r="W92" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.6532760337286826</v>
       </c>
     </row>
@@ -7330,9 +7886,15 @@
         <v>3.056613969109574</v>
       </c>
       <c r="W93" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.3</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.4490441387187689</v>
       </c>
     </row>
@@ -7406,9 +7968,15 @@
         <v>2.522926371525981</v>
       </c>
       <c r="W94" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.300000000000001</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6952273640583474</v>
       </c>
     </row>
@@ -7482,9 +8050,15 @@
         <v>0.04932182590737506</v>
       </c>
       <c r="W95" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>1.030542782171802</v>
       </c>
     </row>
@@ -7558,9 +8132,15 @@
         <v>0.785858661252131</v>
       </c>
       <c r="W96" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.1</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.6445426063889922</v>
       </c>
     </row>
@@ -7634,9 +8214,15 @@
         <v>2.057934870801231</v>
       </c>
       <c r="W97" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.2107139921268283</v>
       </c>
     </row>
@@ -7710,9 +8296,15 @@
         <v>0.9539781387463867</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.8091667655498215</v>
       </c>
     </row>
@@ -7786,9 +8378,15 @@
         <v>-2.135141684216609</v>
       </c>
       <c r="W99" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>1.141285211041262</v>
       </c>
     </row>
@@ -7860,9 +8458,13 @@
         <v>0.1453840818227853</v>
       </c>
       <c r="W100" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>1.073884358044545</v>
       </c>
     </row>
@@ -7877,7 +8479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7993,10 +8595,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -8070,9 +8682,15 @@
         <v>5.737711258330243</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9553205128205124</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.933524117734704</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.566666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>1.084206314342287</v>
       </c>
     </row>
@@ -8144,9 +8762,15 @@
         <v>-0.1239925763320658</v>
       </c>
       <c r="W3" t="n">
+        <v>0.9457971014492754</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.480554372593275</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.733333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.9792716222166878</v>
       </c>
     </row>
@@ -8218,9 +8842,15 @@
         <v>13.77099950057969</v>
       </c>
       <c r="W4" t="n">
+        <v>1.05560688405797</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.131640479739709</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.766666666666667</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.06683252609622044</v>
       </c>
     </row>
@@ -8292,9 +8922,15 @@
         <v>5.366884890066718</v>
       </c>
       <c r="W5" t="n">
+        <v>1.083999999999999</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.717050355749061</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.1100168193805117</v>
       </c>
     </row>
@@ -8366,9 +9002,15 @@
         <v>13.49392126561083</v>
       </c>
       <c r="W6" t="n">
+        <v>0.9497985347985345</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.200416606827117</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.3511548983591037</v>
       </c>
     </row>
@@ -8440,9 +9082,15 @@
         <v>2.911542228809501</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8033967391304353</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.554980878654789</v>
+      </c>
+      <c r="Y7" t="n">
         <v>6.899999999999999</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.5372392541554332</v>
       </c>
     </row>
@@ -8514,9 +9162,15 @@
         <v>1.638674011477274</v>
       </c>
       <c r="W8" t="n">
+        <v>0.6438405797101452</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.90475794561558</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.2372366897785221</v>
       </c>
     </row>
@@ -8588,9 +9242,15 @@
         <v>3.529778208102369</v>
       </c>
       <c r="W9" t="n">
+        <v>0.6084444444444457</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.946460074608637</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.333333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.105860947915959</v>
       </c>
     </row>
@@ -8662,9 +9322,15 @@
         <v>7.475657620370151</v>
       </c>
       <c r="W10" t="n">
+        <v>0.5243406593406585</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.257638883874519</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>-0.3760612173782659</v>
       </c>
     </row>
@@ -8736,9 +9402,15 @@
         <v>3.980998836184768</v>
       </c>
       <c r="W11" t="n">
+        <v>0.4029710144927541</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.661330677451166</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.2437737982964335</v>
       </c>
     </row>
@@ -8810,9 +9482,15 @@
         <v>2.400988380480139</v>
       </c>
       <c r="W12" t="n">
+        <v>0.09304347826086756</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.278850908866682</v>
+      </c>
+      <c r="Y12" t="n">
         <v>5.899999999999999</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.4044686137477984</v>
       </c>
     </row>
@@ -8884,9 +9562,15 @@
         <v>-0.3601012173594343</v>
       </c>
       <c r="W13" t="n">
+        <v>0.06752777777777741</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.463231383102256</v>
+      </c>
+      <c r="Y13" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.6371039027000576</v>
       </c>
     </row>
@@ -8958,9 +9642,15 @@
         <v>1.64583321488318</v>
       </c>
       <c r="W14" t="n">
+        <v>0.1003388278388302</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.983344783239858</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.699999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.03646260775651751</v>
       </c>
     </row>
@@ -9032,9 +9722,15 @@
         <v>1.82846162950412</v>
       </c>
       <c r="W15" t="n">
+        <v>0.02663949275362398</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.171814367932647</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2052059121961721</v>
       </c>
     </row>
@@ -9106,9 +9802,15 @@
         <v>-1.615771014053415</v>
       </c>
       <c r="W16" t="n">
+        <v>-0.5183876811594206</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.79566940527454</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.3744340145790591</v>
       </c>
     </row>
@@ -9180,9 +9882,15 @@
         <v>-4.861312601724782</v>
       </c>
       <c r="W17" t="n">
+        <v>-0.6729853479853483</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.507463473540271</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.4682372125669566</v>
       </c>
     </row>
@@ -9254,9 +9962,15 @@
         <v>-19.02338172254117</v>
       </c>
       <c r="W18" t="n">
+        <v>0.2169413919413929</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.049652415683261</v>
+      </c>
+      <c r="Y18" t="n">
         <v>7.333333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.5428319962623585</v>
       </c>
     </row>
@@ -9328,9 +10042,15 @@
         <v>4.139736852922409</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6467119565217376</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.089370663175538</v>
+      </c>
+      <c r="Y19" t="n">
         <v>7.666666666666667</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.3354941442740488</v>
       </c>
     </row>
@@ -9402,9 +10122,15 @@
         <v>12.47570309630446</v>
       </c>
       <c r="W20" t="n">
+        <v>-0.6857065217391312</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.752070744192177</v>
+      </c>
+      <c r="Y20" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.3139831505368311</v>
       </c>
     </row>
@@ -9476,9 +10202,15 @@
         <v>0.5317141277620339</v>
       </c>
       <c r="W21" t="n">
+        <v>-0.6688888888888909</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.506155818001225</v>
+      </c>
+      <c r="Y21" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.07696787743255375</v>
       </c>
     </row>
@@ -9550,9 +10282,15 @@
         <v>-2.376501264122911</v>
       </c>
       <c r="W22" t="n">
+        <v>-0.8075641025641009</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.473021313130527</v>
+      </c>
+      <c r="Y22" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.2833897789660766</v>
       </c>
     </row>
@@ -9624,9 +10362,15 @@
         <v>-6.987988784403447</v>
       </c>
       <c r="W23" t="n">
+        <v>-0.5444202898550752</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.821296849374302</v>
+      </c>
+      <c r="Y23" t="n">
         <v>7.400000000000001</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.4126566203039123</v>
       </c>
     </row>
@@ -9698,9 +10442,15 @@
         <v>-9.231964758719208</v>
       </c>
       <c r="W24" t="n">
+        <v>0.6229076086956531</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.65657007356288</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8.233333333333334</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.3361321699064641</v>
       </c>
     </row>
@@ -9772,9 +10522,15 @@
         <v>-4.478360262697331</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3614722222222202</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.9630701025829564</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8.833333333333334</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6974992692667927</v>
       </c>
     </row>
@@ -9846,9 +10602,15 @@
         <v>-1.926841886587703</v>
       </c>
       <c r="W26" t="n">
+        <v>0.3431227106227128</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.119832531002954</v>
+      </c>
+      <c r="Y26" t="n">
         <v>9.433333333333335</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.2957830403413962</v>
       </c>
     </row>
@@ -9920,9 +10682,15 @@
         <v>-0.4875680063483918</v>
       </c>
       <c r="W27" t="n">
+        <v>1.11848731884058</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.1492435007543214</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9.9</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.4907338633348499</v>
       </c>
     </row>
@@ -9994,9 +10762,15 @@
         <v>9.770666610637765</v>
       </c>
       <c r="W28" t="n">
+        <v>1.256521739130434</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.311967902203365</v>
+      </c>
+      <c r="Y28" t="n">
         <v>10.66666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.04276391816866596</v>
       </c>
     </row>
@@ -10068,9 +10842,15 @@
         <v>14.88173338518959</v>
       </c>
       <c r="W29" t="n">
+        <v>1.172277777777778</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.4782791102065472</v>
+      </c>
+      <c r="Y29" t="n">
         <v>10.36666666666667</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.1115741126881956</v>
       </c>
     </row>
@@ -10142,9 +10922,15 @@
         <v>12.41290399461322</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9826465201465213</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.643486701191391</v>
+      </c>
+      <c r="Y30" t="n">
         <v>10.13333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>-0.1420023892476789</v>
       </c>
     </row>
@@ -10216,9 +11002,15 @@
         <v>9.273048425172373</v>
       </c>
       <c r="W31" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y31" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>-0.2450324114759349</v>
       </c>
     </row>
@@ -10290,9 +11082,15 @@
         <v>3.564255267870626</v>
       </c>
       <c r="W32" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y32" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.3484279558021058</v>
       </c>
     </row>
@@ -10364,9 +11162,15 @@
         <v>4.12729314085998</v>
       </c>
       <c r="W33" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.1729576653708816</v>
       </c>
     </row>
@@ -10438,9 +11242,15 @@
         <v>3.249585648002008</v>
       </c>
       <c r="W34" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.3254164667776762</v>
       </c>
     </row>
@@ -10512,9 +11322,15 @@
         <v>-0.3313089722960126</v>
       </c>
       <c r="W35" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.5029918571160692</v>
       </c>
     </row>
@@ -10586,9 +11402,15 @@
         <v>0.2761669802729211</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.2948636640604868</v>
       </c>
     </row>
@@ -10660,9 +11482,15 @@
         <v>1.151644206155908</v>
       </c>
       <c r="W37" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.08053697142812447</v>
       </c>
     </row>
@@ -10734,9 +11562,15 @@
         <v>-0.3276900802314798</v>
       </c>
       <c r="W38" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.3</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.4527521303786584</v>
       </c>
     </row>
@@ -10808,9 +11642,15 @@
         <v>2.645228457241332</v>
       </c>
       <c r="W39" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X39" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.2</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>0.8387291113820747</v>
       </c>
     </row>
@@ -10882,9 +11722,15 @@
         <v>3.249761865614301</v>
       </c>
       <c r="W40" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>0.9159072737594085</v>
       </c>
     </row>
@@ -10956,9 +11802,15 @@
         <v>5.322541323425025</v>
       </c>
       <c r="W41" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.9390135137965314</v>
       </c>
     </row>
@@ -11030,9 +11882,15 @@
         <v>6.530228807304192</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y42" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.4517357855170038</v>
       </c>
     </row>
@@ -11104,9 +11962,15 @@
         <v>2.622211725098292</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.2864923080875492</v>
       </c>
     </row>
@@ -11178,9 +12042,15 @@
         <v>0.66711388170226</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.9573246867664578</v>
       </c>
     </row>
@@ -11252,9 +12122,15 @@
         <v>-0.133067218570495</v>
       </c>
       <c r="W45" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.635721684927732</v>
       </c>
     </row>
@@ -11326,9 +12202,15 @@
         <v>1.716213740238562</v>
       </c>
       <c r="W46" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X46" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.3100850481010285</v>
       </c>
     </row>
@@ -11400,9 +12282,15 @@
         <v>-0.7884403524148759</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y47" t="n">
         <v>6</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.1545314186378164</v>
       </c>
     </row>
@@ -11474,9 +12362,15 @@
         <v>0.4387896465419438</v>
       </c>
       <c r="W48" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.6789778325916129</v>
       </c>
     </row>
@@ -11548,9 +12442,15 @@
         <v>0.524018666355625</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.7</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.06116528608373858</v>
       </c>
     </row>
@@ -11622,9 +12522,15 @@
         <v>1.598651458197299</v>
       </c>
       <c r="W50" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.5652380764681929</v>
       </c>
     </row>
@@ -11696,9 +12602,15 @@
         <v>1.0234630914701</v>
       </c>
       <c r="W51" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>-0.09656980112504204</v>
       </c>
     </row>
@@ -11770,9 +12682,15 @@
         <v>1.139012524910935</v>
       </c>
       <c r="W52" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>-0.06728767838041383</v>
       </c>
     </row>
@@ -11844,9 +12762,15 @@
         <v>-0.5889794056063486</v>
       </c>
       <c r="W53" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.2</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>-0.9092999802385253</v>
       </c>
     </row>
@@ -11918,9 +12842,15 @@
         <v>-2.003050135876769</v>
       </c>
       <c r="W54" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>-0.6398900044790241</v>
       </c>
     </row>
@@ -11992,9 +12922,15 @@
         <v>-0.9081143488581298</v>
       </c>
       <c r="W55" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.09812118514135591</v>
       </c>
     </row>
@@ -12066,9 +13002,15 @@
         <v>-1.048044527470043</v>
       </c>
       <c r="W56" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7633360027423075</v>
       </c>
     </row>
@@ -12140,9 +13082,15 @@
         <v>2.728032348378334</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5.3</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.2453450499634662</v>
       </c>
     </row>
@@ -12214,9 +13162,15 @@
         <v>-4.32098638588056</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y58" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.7610161773768187</v>
       </c>
     </row>
@@ -12288,9 +13242,15 @@
         <v>-5.548064906742272</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y59" t="n">
         <v>5.7</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.4739284442903958</v>
       </c>
     </row>
@@ -12362,9 +13322,15 @@
         <v>-7.43618759255569</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y60" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.1100965736310962</v>
       </c>
     </row>
@@ -12436,9 +13402,15 @@
         <v>-6.234016056675502</v>
       </c>
       <c r="W61" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y61" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.2925540664699352</v>
       </c>
     </row>
@@ -12510,9 +13482,15 @@
         <v>0.8611463334918544</v>
       </c>
       <c r="W62" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y62" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.8912158433473732</v>
       </c>
     </row>
@@ -12584,9 +13562,15 @@
         <v>4.146487464525759</v>
       </c>
       <c r="W63" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y63" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.3002751130221616</v>
       </c>
     </row>
@@ -12658,9 +13642,15 @@
         <v>2.788520348953564</v>
       </c>
       <c r="W64" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y64" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.7167403980770832</v>
       </c>
     </row>
@@ -12732,9 +13722,15 @@
         <v>5.732506661926956</v>
       </c>
       <c r="W65" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y65" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.287364364035414</v>
       </c>
     </row>
@@ -12806,9 +13802,15 @@
         <v>5.555709043740305</v>
       </c>
       <c r="W66" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y66" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.03725760227447895</v>
       </c>
     </row>
@@ -12880,9 +13882,15 @@
         <v>1.198682498919672</v>
       </c>
       <c r="W67" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y67" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.9739777469163584</v>
       </c>
     </row>
@@ -12954,9 +13962,15 @@
         <v>5.620179284643276</v>
       </c>
       <c r="W68" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y68" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.1634912717800875</v>
       </c>
     </row>
@@ -13028,9 +14042,15 @@
         <v>1.243797129221705</v>
       </c>
       <c r="W69" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y69" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.7298809367475073</v>
       </c>
     </row>
@@ -13102,9 +14122,15 @@
         <v>0.5751864666358764</v>
       </c>
       <c r="W70" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y70" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.05508919644747602</v>
       </c>
     </row>
@@ -13176,9 +14202,15 @@
         <v>3.541617627700523</v>
       </c>
       <c r="W71" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y71" t="n">
         <v>6.8</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.1638299758838738</v>
       </c>
     </row>
@@ -13250,9 +14282,15 @@
         <v>5.537746946895389</v>
       </c>
       <c r="W72" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y72" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>-0.2681592640260389</v>
       </c>
     </row>
@@ -13326,9 +14364,15 @@
         <v>3.347746874864147</v>
       </c>
       <c r="W73" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y73" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.8383852104316034</v>
       </c>
     </row>
@@ -13402,9 +14446,15 @@
         <v>4.249931351727917</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y74" t="n">
         <v>6.2</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.4607337993127787</v>
       </c>
     </row>
@@ -13478,9 +14528,15 @@
         <v>0.311580657129551</v>
       </c>
       <c r="W75" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y75" t="n">
         <v>6</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.4977054513676619</v>
       </c>
     </row>
@@ -13554,9 +14610,15 @@
         <v>0.1726817904492678</v>
       </c>
       <c r="W76" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.2985724695612195</v>
       </c>
     </row>
@@ -13630,9 +14692,15 @@
         <v>-0.7620404039690383</v>
       </c>
       <c r="W77" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>-0.3510172608994027</v>
       </c>
     </row>
@@ -13706,9 +14774,15 @@
         <v>-3.791419566997561</v>
       </c>
       <c r="W78" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.3363012793168789</v>
       </c>
     </row>
@@ -13782,9 +14856,15 @@
         <v>2.848181132694648</v>
       </c>
       <c r="W79" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.1981843705305607</v>
       </c>
     </row>
@@ -13858,9 +14938,15 @@
         <v>2.83756062129842</v>
       </c>
       <c r="W80" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.2585132453793839</v>
       </c>
     </row>
@@ -13934,9 +15020,15 @@
         <v>2.493390625841537</v>
       </c>
       <c r="W81" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.03227762370571586</v>
       </c>
     </row>
@@ -14010,9 +15102,15 @@
         <v>5.124337633634101</v>
       </c>
       <c r="W82" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.5</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.5768114526886964</v>
       </c>
     </row>
@@ -14086,9 +15184,15 @@
         <v>0.8499972473241366</v>
       </c>
       <c r="W83" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3292291352777339</v>
       </c>
     </row>
@@ -14162,9 +15266,15 @@
         <v>-0.5658613024151704</v>
       </c>
       <c r="W84" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.4143576648558447</v>
       </c>
     </row>
@@ -14238,9 +15348,15 @@
         <v>0.8788506033079337</v>
       </c>
       <c r="W85" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.1846933163125067</v>
       </c>
     </row>
@@ -14314,9 +15430,15 @@
         <v>1.765571648841558</v>
       </c>
       <c r="W86" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X86" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.09565800937092235</v>
       </c>
     </row>
@@ -14390,9 +15512,15 @@
         <v>1.250969784331084</v>
       </c>
       <c r="W87" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.6814131046271403</v>
       </c>
     </row>
@@ -14466,9 +15594,15 @@
         <v>2.30791001870859</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X88" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>1.127631985910102</v>
       </c>
     </row>
@@ -14542,9 +15676,15 @@
         <v>2.689434237839329</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>1.299732149800417</v>
       </c>
     </row>
@@ -14618,9 +15758,15 @@
         <v>3.653244990648756</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.9942291610514674</v>
       </c>
     </row>
@@ -14694,9 +15840,15 @@
         <v>3.363269833355901</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.891881008497622</v>
       </c>
     </row>
@@ -14770,9 +15922,15 @@
         <v>3.045382968051981</v>
       </c>
       <c r="W92" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.6532760337286826</v>
       </c>
     </row>
@@ -14846,9 +16004,15 @@
         <v>3.056613969109574</v>
       </c>
       <c r="W93" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.3</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.4490441387187689</v>
       </c>
     </row>
@@ -14922,9 +16086,15 @@
         <v>2.522926371525981</v>
       </c>
       <c r="W94" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.300000000000001</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6952273640583474</v>
       </c>
     </row>
@@ -14998,9 +16168,15 @@
         <v>0.04932182590737506</v>
       </c>
       <c r="W95" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>1.030542782171802</v>
       </c>
     </row>
@@ -15074,9 +16250,15 @@
         <v>0.785858661252131</v>
       </c>
       <c r="W96" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.1</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.6445426063889922</v>
       </c>
     </row>
@@ -15150,9 +16332,15 @@
         <v>2.057934870801231</v>
       </c>
       <c r="W97" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.2107139921268283</v>
       </c>
     </row>
@@ -15226,9 +16414,15 @@
         <v>0.9539781387463867</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.8091667655498215</v>
       </c>
     </row>
@@ -15302,9 +16496,15 @@
         <v>-2.135141684216609</v>
       </c>
       <c r="W99" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>1.141285211041262</v>
       </c>
     </row>
@@ -15376,9 +16576,13 @@
         <v>0.1453840818227853</v>
       </c>
       <c r="W100" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>1.073884358044545</v>
       </c>
     </row>
@@ -15423,6 +16627,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -15435,7 +16641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15551,10 +16757,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -15628,9 +16844,15 @@
         <v>5.737711258330243</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9553205128205124</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.933524117734704</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.566666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>1.084206314342287</v>
       </c>
     </row>
@@ -15702,9 +16924,15 @@
         <v>-0.1239925763320658</v>
       </c>
       <c r="W3" t="n">
+        <v>0.9457971014492754</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.480554372593275</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.733333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.9792716222166878</v>
       </c>
     </row>
@@ -15776,9 +17004,15 @@
         <v>13.77099950057969</v>
       </c>
       <c r="W4" t="n">
+        <v>1.05560688405797</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.131640479739709</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.766666666666667</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.06683252609622044</v>
       </c>
     </row>
@@ -15850,9 +17084,15 @@
         <v>5.366884890066718</v>
       </c>
       <c r="W5" t="n">
+        <v>1.083999999999999</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.717050355749061</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.1100168193805117</v>
       </c>
     </row>
@@ -15924,9 +17164,15 @@
         <v>13.49392126561083</v>
       </c>
       <c r="W6" t="n">
+        <v>0.9497985347985345</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.200416606827117</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.3511548983591037</v>
       </c>
     </row>
@@ -15998,9 +17244,15 @@
         <v>2.911542228809501</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8033967391304353</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.554980878654789</v>
+      </c>
+      <c r="Y7" t="n">
         <v>6.899999999999999</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.5372392541554332</v>
       </c>
     </row>
@@ -16072,9 +17324,15 @@
         <v>1.638674011477274</v>
       </c>
       <c r="W8" t="n">
+        <v>0.6438405797101452</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.90475794561558</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.2372366897785221</v>
       </c>
     </row>
@@ -16146,9 +17404,15 @@
         <v>3.529778208102369</v>
       </c>
       <c r="W9" t="n">
+        <v>0.6084444444444457</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.946460074608637</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.333333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.105860947915959</v>
       </c>
     </row>
@@ -16220,9 +17484,15 @@
         <v>7.475657620370151</v>
       </c>
       <c r="W10" t="n">
+        <v>0.5243406593406585</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.257638883874519</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>-0.3760612173782659</v>
       </c>
     </row>
@@ -16294,9 +17564,15 @@
         <v>3.980998836184768</v>
       </c>
       <c r="W11" t="n">
+        <v>0.4029710144927541</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.661330677451166</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.2437737982964335</v>
       </c>
     </row>
@@ -16368,9 +17644,15 @@
         <v>2.400988380480139</v>
       </c>
       <c r="W12" t="n">
+        <v>0.09304347826086756</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.278850908866682</v>
+      </c>
+      <c r="Y12" t="n">
         <v>5.899999999999999</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.4044686137477984</v>
       </c>
     </row>
@@ -16442,9 +17724,15 @@
         <v>-0.3601012173594343</v>
       </c>
       <c r="W13" t="n">
+        <v>0.06752777777777741</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.463231383102256</v>
+      </c>
+      <c r="Y13" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.6371039027000576</v>
       </c>
     </row>
@@ -16516,9 +17804,15 @@
         <v>1.64583321488318</v>
       </c>
       <c r="W14" t="n">
+        <v>0.1003388278388302</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.983344783239858</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.699999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.03646260775651751</v>
       </c>
     </row>
@@ -16590,9 +17884,15 @@
         <v>1.82846162950412</v>
       </c>
       <c r="W15" t="n">
+        <v>0.02663949275362398</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.171814367932647</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2052059121961721</v>
       </c>
     </row>
@@ -16664,9 +17964,15 @@
         <v>-1.615771014053415</v>
       </c>
       <c r="W16" t="n">
+        <v>-0.5183876811594206</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.79566940527454</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.3744340145790591</v>
       </c>
     </row>
@@ -16738,9 +18044,15 @@
         <v>-4.861312601724782</v>
       </c>
       <c r="W17" t="n">
+        <v>-0.6729853479853483</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.507463473540271</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.4682372125669566</v>
       </c>
     </row>
@@ -16812,9 +18124,15 @@
         <v>-19.02338172254117</v>
       </c>
       <c r="W18" t="n">
+        <v>0.2169413919413929</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.049652415683261</v>
+      </c>
+      <c r="Y18" t="n">
         <v>7.333333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.5428319962623585</v>
       </c>
     </row>
@@ -16886,9 +18204,15 @@
         <v>4.139736852922409</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6467119565217376</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.089370663175538</v>
+      </c>
+      <c r="Y19" t="n">
         <v>7.666666666666667</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.3354941442740488</v>
       </c>
     </row>
@@ -16960,9 +18284,15 @@
         <v>12.47570309630446</v>
       </c>
       <c r="W20" t="n">
+        <v>-0.6857065217391312</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.752070744192177</v>
+      </c>
+      <c r="Y20" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.3139831505368311</v>
       </c>
     </row>
@@ -17034,9 +18364,15 @@
         <v>0.5317141277620339</v>
       </c>
       <c r="W21" t="n">
+        <v>-0.6688888888888909</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.506155818001225</v>
+      </c>
+      <c r="Y21" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.07696787743255375</v>
       </c>
     </row>
@@ -17108,9 +18444,15 @@
         <v>-2.376501264122911</v>
       </c>
       <c r="W22" t="n">
+        <v>-0.8075641025641009</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.473021313130527</v>
+      </c>
+      <c r="Y22" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.2833897789660766</v>
       </c>
     </row>
@@ -17182,9 +18524,15 @@
         <v>-6.987988784403447</v>
       </c>
       <c r="W23" t="n">
+        <v>-0.5444202898550752</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.821296849374302</v>
+      </c>
+      <c r="Y23" t="n">
         <v>7.400000000000001</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.4126566203039123</v>
       </c>
     </row>
@@ -17256,9 +18604,15 @@
         <v>-9.231964758719208</v>
       </c>
       <c r="W24" t="n">
+        <v>0.6229076086956531</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.65657007356288</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8.233333333333334</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.3361321699064641</v>
       </c>
     </row>
@@ -17330,9 +18684,15 @@
         <v>-4.478360262697331</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3614722222222202</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.9630701025829564</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8.833333333333334</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6974992692667927</v>
       </c>
     </row>
@@ -17404,9 +18764,15 @@
         <v>-1.926841886587703</v>
       </c>
       <c r="W26" t="n">
+        <v>0.3431227106227128</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.119832531002954</v>
+      </c>
+      <c r="Y26" t="n">
         <v>9.433333333333335</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.2957830403413962</v>
       </c>
     </row>
@@ -17478,9 +18844,15 @@
         <v>-0.4875680063483918</v>
       </c>
       <c r="W27" t="n">
+        <v>1.11848731884058</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.1492435007543214</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9.9</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.4907338633348499</v>
       </c>
     </row>
@@ -17552,9 +18924,15 @@
         <v>9.770666610637765</v>
       </c>
       <c r="W28" t="n">
+        <v>1.256521739130434</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.311967902203365</v>
+      </c>
+      <c r="Y28" t="n">
         <v>10.66666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.04276391816866596</v>
       </c>
     </row>
@@ -17626,9 +19004,15 @@
         <v>14.88173338518959</v>
       </c>
       <c r="W29" t="n">
+        <v>1.172277777777778</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.4782791102065472</v>
+      </c>
+      <c r="Y29" t="n">
         <v>10.36666666666667</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.1115741126881956</v>
       </c>
     </row>
@@ -17700,9 +19084,15 @@
         <v>12.41290399461322</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9826465201465213</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.643486701191391</v>
+      </c>
+      <c r="Y30" t="n">
         <v>10.13333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>-0.1420023892476789</v>
       </c>
     </row>
@@ -17774,9 +19164,15 @@
         <v>9.273048425172373</v>
       </c>
       <c r="W31" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y31" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>-0.2450324114759349</v>
       </c>
     </row>
@@ -17848,9 +19244,15 @@
         <v>3.564255267870626</v>
       </c>
       <c r="W32" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y32" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.3484279558021058</v>
       </c>
     </row>
@@ -17922,9 +19324,15 @@
         <v>4.12729314085998</v>
       </c>
       <c r="W33" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.1729576653708816</v>
       </c>
     </row>
@@ -17996,9 +19404,15 @@
         <v>3.249585648002008</v>
       </c>
       <c r="W34" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.3254164667776762</v>
       </c>
     </row>
@@ -18070,9 +19484,15 @@
         <v>-0.3313089722960126</v>
       </c>
       <c r="W35" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.5029918571160692</v>
       </c>
     </row>
@@ -18144,9 +19564,15 @@
         <v>0.2761669802729211</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.2948636640604868</v>
       </c>
     </row>
@@ -18218,9 +19644,15 @@
         <v>1.151644206155908</v>
       </c>
       <c r="W37" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.08053697142812447</v>
       </c>
     </row>
@@ -18292,9 +19724,15 @@
         <v>-0.3276900802314798</v>
       </c>
       <c r="W38" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.3</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.4527521303786584</v>
       </c>
     </row>
@@ -18366,9 +19804,15 @@
         <v>2.645228457241332</v>
       </c>
       <c r="W39" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X39" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.2</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>0.8387291113820747</v>
       </c>
     </row>
@@ -18440,9 +19884,15 @@
         <v>3.249761865614301</v>
       </c>
       <c r="W40" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>0.9159072737594085</v>
       </c>
     </row>
@@ -18514,9 +19964,15 @@
         <v>5.322541323425025</v>
       </c>
       <c r="W41" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.9390135137965314</v>
       </c>
     </row>
@@ -18588,9 +20044,15 @@
         <v>6.530228807304192</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y42" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.4517357855170038</v>
       </c>
     </row>
@@ -18662,9 +20124,15 @@
         <v>2.622211725098292</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.2864923080875492</v>
       </c>
     </row>
@@ -18736,9 +20204,15 @@
         <v>0.66711388170226</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.9573246867664578</v>
       </c>
     </row>
@@ -18810,9 +20284,15 @@
         <v>-0.133067218570495</v>
       </c>
       <c r="W45" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.635721684927732</v>
       </c>
     </row>
@@ -18884,9 +20364,15 @@
         <v>1.716213740238562</v>
       </c>
       <c r="W46" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X46" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.3100850481010285</v>
       </c>
     </row>
@@ -18958,9 +20444,15 @@
         <v>-0.7884403524148759</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y47" t="n">
         <v>6</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.1545314186378164</v>
       </c>
     </row>
@@ -19032,9 +20524,15 @@
         <v>0.4387896465419438</v>
       </c>
       <c r="W48" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.6789778325916129</v>
       </c>
     </row>
@@ -19106,9 +20604,15 @@
         <v>0.524018666355625</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.7</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.06116528608373858</v>
       </c>
     </row>
@@ -19180,9 +20684,15 @@
         <v>1.598651458197299</v>
       </c>
       <c r="W50" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.5652380764681929</v>
       </c>
     </row>
@@ -19254,9 +20764,15 @@
         <v>1.0234630914701</v>
       </c>
       <c r="W51" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>-0.09656980112504204</v>
       </c>
     </row>
@@ -19328,9 +20844,15 @@
         <v>1.139012524910935</v>
       </c>
       <c r="W52" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>-0.06728767838041383</v>
       </c>
     </row>
@@ -19402,9 +20924,15 @@
         <v>-0.5889794056063486</v>
       </c>
       <c r="W53" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.2</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>-0.9092999802385253</v>
       </c>
     </row>
@@ -19476,9 +21004,15 @@
         <v>-2.003050135876769</v>
       </c>
       <c r="W54" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>-0.6398900044790241</v>
       </c>
     </row>
@@ -19550,9 +21084,15 @@
         <v>-0.9081143488581298</v>
       </c>
       <c r="W55" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.09812118514135591</v>
       </c>
     </row>
@@ -19624,9 +21164,15 @@
         <v>-1.048044527470043</v>
       </c>
       <c r="W56" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7633360027423075</v>
       </c>
     </row>
@@ -19698,9 +21244,15 @@
         <v>2.728032348378334</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5.3</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.2453450499634662</v>
       </c>
     </row>
@@ -19772,9 +21324,15 @@
         <v>-4.32098638588056</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y58" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.7610161773768187</v>
       </c>
     </row>
@@ -19846,9 +21404,15 @@
         <v>-5.548064906742272</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y59" t="n">
         <v>5.7</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.4739284442903958</v>
       </c>
     </row>
@@ -19920,9 +21484,15 @@
         <v>-7.43618759255569</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y60" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.1100965736310962</v>
       </c>
     </row>
@@ -19994,9 +21564,15 @@
         <v>-6.234016056675502</v>
       </c>
       <c r="W61" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y61" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.2925540664699352</v>
       </c>
     </row>
@@ -20068,9 +21644,15 @@
         <v>0.8611463334918544</v>
       </c>
       <c r="W62" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y62" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.8912158433473732</v>
       </c>
     </row>
@@ -20142,9 +21724,15 @@
         <v>4.146487464525759</v>
       </c>
       <c r="W63" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y63" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.3002751130221616</v>
       </c>
     </row>
@@ -20216,9 +21804,15 @@
         <v>2.788520348953564</v>
       </c>
       <c r="W64" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y64" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.7167403980770832</v>
       </c>
     </row>
@@ -20290,9 +21884,15 @@
         <v>5.732506661926956</v>
       </c>
       <c r="W65" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y65" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.287364364035414</v>
       </c>
     </row>
@@ -20364,9 +21964,15 @@
         <v>5.555709043740305</v>
       </c>
       <c r="W66" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y66" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.03725760227447895</v>
       </c>
     </row>
@@ -20438,9 +22044,15 @@
         <v>1.198682498919672</v>
       </c>
       <c r="W67" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y67" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.9739777469163584</v>
       </c>
     </row>
@@ -20512,9 +22124,15 @@
         <v>5.620179284643276</v>
       </c>
       <c r="W68" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y68" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.1634912717800875</v>
       </c>
     </row>
@@ -20586,9 +22204,15 @@
         <v>1.243797129221705</v>
       </c>
       <c r="W69" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y69" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.7298809367475073</v>
       </c>
     </row>
@@ -20660,9 +22284,15 @@
         <v>0.5751864666358764</v>
       </c>
       <c r="W70" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y70" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.05508919644747602</v>
       </c>
     </row>
@@ -20734,9 +22364,15 @@
         <v>3.541617627700523</v>
       </c>
       <c r="W71" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y71" t="n">
         <v>6.8</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.1638299758838738</v>
       </c>
     </row>
@@ -20808,9 +22444,15 @@
         <v>5.537746946895389</v>
       </c>
       <c r="W72" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y72" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>-0.2681592640260389</v>
       </c>
     </row>
@@ -20884,9 +22526,15 @@
         <v>3.347746874864147</v>
       </c>
       <c r="W73" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y73" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.8383852104316034</v>
       </c>
     </row>
@@ -20960,9 +22608,15 @@
         <v>4.249931351727917</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y74" t="n">
         <v>6.2</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.4607337993127787</v>
       </c>
     </row>
@@ -21036,9 +22690,15 @@
         <v>0.311580657129551</v>
       </c>
       <c r="W75" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y75" t="n">
         <v>6</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.4977054513676619</v>
       </c>
     </row>
@@ -21112,9 +22772,15 @@
         <v>0.1726817904492678</v>
       </c>
       <c r="W76" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.2985724695612195</v>
       </c>
     </row>
@@ -21188,9 +22854,15 @@
         <v>-0.7620404039690383</v>
       </c>
       <c r="W77" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>-0.3510172608994027</v>
       </c>
     </row>
@@ -21264,9 +22936,15 @@
         <v>-3.791419566997561</v>
       </c>
       <c r="W78" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.3363012793168789</v>
       </c>
     </row>
@@ -21340,9 +23018,15 @@
         <v>2.848181132694648</v>
       </c>
       <c r="W79" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.1981843705305607</v>
       </c>
     </row>
@@ -21416,9 +23100,15 @@
         <v>2.83756062129842</v>
       </c>
       <c r="W80" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.2585132453793839</v>
       </c>
     </row>
@@ -21492,9 +23182,15 @@
         <v>2.493390625841537</v>
       </c>
       <c r="W81" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.03227762370571586</v>
       </c>
     </row>
@@ -21568,9 +23264,15 @@
         <v>5.124337633634101</v>
       </c>
       <c r="W82" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.5</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.5768114526886964</v>
       </c>
     </row>
@@ -21644,9 +23346,15 @@
         <v>0.8499972473241366</v>
       </c>
       <c r="W83" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3292291352777339</v>
       </c>
     </row>
@@ -21720,9 +23428,15 @@
         <v>-0.5658613024151704</v>
       </c>
       <c r="W84" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.4143576648558447</v>
       </c>
     </row>
@@ -21796,9 +23510,15 @@
         <v>0.8788506033079337</v>
       </c>
       <c r="W85" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.1846933163125067</v>
       </c>
     </row>
@@ -21872,9 +23592,15 @@
         <v>1.765571648841558</v>
       </c>
       <c r="W86" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X86" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.09565800937092235</v>
       </c>
     </row>
@@ -21948,9 +23674,15 @@
         <v>1.250969784331084</v>
       </c>
       <c r="W87" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.6814131046271403</v>
       </c>
     </row>
@@ -22024,9 +23756,15 @@
         <v>2.30791001870859</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X88" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>1.127631985910102</v>
       </c>
     </row>
@@ -22100,9 +23838,15 @@
         <v>2.689434237839329</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>1.299732149800417</v>
       </c>
     </row>
@@ -22176,9 +23920,15 @@
         <v>3.653244990648756</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.9942291610514674</v>
       </c>
     </row>
@@ -22252,9 +24002,15 @@
         <v>3.363269833355901</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.891881008497622</v>
       </c>
     </row>
@@ -22328,9 +24084,15 @@
         <v>3.045382968051981</v>
       </c>
       <c r="W92" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.6532760337286826</v>
       </c>
     </row>
@@ -22404,9 +24166,15 @@
         <v>3.056613969109574</v>
       </c>
       <c r="W93" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.3</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.4490441387187689</v>
       </c>
     </row>
@@ -22480,9 +24248,15 @@
         <v>2.522926371525981</v>
       </c>
       <c r="W94" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.300000000000001</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6952273640583474</v>
       </c>
     </row>
@@ -22556,9 +24330,15 @@
         <v>0.04932182590737506</v>
       </c>
       <c r="W95" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>1.030542782171802</v>
       </c>
     </row>
@@ -22632,9 +24412,15 @@
         <v>0.785858661252131</v>
       </c>
       <c r="W96" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.1</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.6445426063889922</v>
       </c>
     </row>
@@ -22708,9 +24494,15 @@
         <v>2.057934870801231</v>
       </c>
       <c r="W97" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.2107139921268283</v>
       </c>
     </row>
@@ -22784,9 +24576,15 @@
         <v>0.9539781387463867</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.8091667655498215</v>
       </c>
     </row>
@@ -22860,9 +24658,15 @@
         <v>-2.135141684216609</v>
       </c>
       <c r="W99" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>1.141285211041262</v>
       </c>
     </row>
@@ -22934,9 +24738,13 @@
         <v>0.1453840818227853</v>
       </c>
       <c r="W100" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>1.073884358044545</v>
       </c>
     </row>
@@ -22968,9 +24776,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="n">
-        <v>-41.00969390841499</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -22979,6 +24785,8 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -22991,7 +24799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23107,10 +24915,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -23184,9 +25002,15 @@
         <v>5.737711258330243</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9553205128205124</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.933524117734704</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.566666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>1.084206314342287</v>
       </c>
     </row>
@@ -23258,9 +25082,15 @@
         <v>-0.1239925763320658</v>
       </c>
       <c r="W3" t="n">
+        <v>0.9457971014492754</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.480554372593275</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.733333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.9792716222166878</v>
       </c>
     </row>
@@ -23332,9 +25162,15 @@
         <v>13.77099950057969</v>
       </c>
       <c r="W4" t="n">
+        <v>1.05560688405797</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.131640479739709</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.766666666666667</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.06683252609622044</v>
       </c>
     </row>
@@ -23406,9 +25242,15 @@
         <v>5.366884890066718</v>
       </c>
       <c r="W5" t="n">
+        <v>1.083999999999999</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.717050355749061</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.1100168193805117</v>
       </c>
     </row>
@@ -23480,9 +25322,15 @@
         <v>13.49392126561083</v>
       </c>
       <c r="W6" t="n">
+        <v>0.9497985347985345</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.200416606827117</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.3511548983591037</v>
       </c>
     </row>
@@ -23554,9 +25402,15 @@
         <v>2.911542228809501</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8033967391304353</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.554980878654789</v>
+      </c>
+      <c r="Y7" t="n">
         <v>6.899999999999999</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.5372392541554332</v>
       </c>
     </row>
@@ -23628,9 +25482,15 @@
         <v>1.638674011477274</v>
       </c>
       <c r="W8" t="n">
+        <v>0.6438405797101452</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.90475794561558</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.2372366897785221</v>
       </c>
     </row>
@@ -23702,9 +25562,15 @@
         <v>3.529778208102369</v>
       </c>
       <c r="W9" t="n">
+        <v>0.6084444444444457</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.946460074608637</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.333333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.105860947915959</v>
       </c>
     </row>
@@ -23776,9 +25642,15 @@
         <v>7.475657620370151</v>
       </c>
       <c r="W10" t="n">
+        <v>0.5243406593406585</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.257638883874519</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>-0.3760612173782659</v>
       </c>
     </row>
@@ -23850,9 +25722,15 @@
         <v>3.980998836184768</v>
       </c>
       <c r="W11" t="n">
+        <v>0.4029710144927541</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.661330677451166</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.2437737982964335</v>
       </c>
     </row>
@@ -23924,9 +25802,15 @@
         <v>2.400988380480139</v>
       </c>
       <c r="W12" t="n">
+        <v>0.09304347826086756</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.278850908866682</v>
+      </c>
+      <c r="Y12" t="n">
         <v>5.899999999999999</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.4044686137477984</v>
       </c>
     </row>
@@ -23998,9 +25882,15 @@
         <v>-0.3601012173594343</v>
       </c>
       <c r="W13" t="n">
+        <v>0.06752777777777741</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.463231383102256</v>
+      </c>
+      <c r="Y13" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.6371039027000576</v>
       </c>
     </row>
@@ -24072,9 +25962,15 @@
         <v>1.64583321488318</v>
       </c>
       <c r="W14" t="n">
+        <v>0.1003388278388302</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.983344783239858</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.699999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.03646260775651751</v>
       </c>
     </row>
@@ -24146,9 +26042,15 @@
         <v>1.82846162950412</v>
       </c>
       <c r="W15" t="n">
+        <v>0.02663949275362398</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.171814367932647</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2052059121961721</v>
       </c>
     </row>
@@ -24220,9 +26122,15 @@
         <v>-1.615771014053415</v>
       </c>
       <c r="W16" t="n">
+        <v>-0.5183876811594206</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.79566940527454</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.3744340145790591</v>
       </c>
     </row>
@@ -24294,9 +26202,15 @@
         <v>-4.861312601724782</v>
       </c>
       <c r="W17" t="n">
+        <v>-0.6729853479853483</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.507463473540271</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.4682372125669566</v>
       </c>
     </row>
@@ -24368,9 +26282,15 @@
         <v>-19.02338172254117</v>
       </c>
       <c r="W18" t="n">
+        <v>0.2169413919413929</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.049652415683261</v>
+      </c>
+      <c r="Y18" t="n">
         <v>7.333333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.5428319962623585</v>
       </c>
     </row>
@@ -24442,9 +26362,15 @@
         <v>4.139736852922409</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6467119565217376</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.089370663175538</v>
+      </c>
+      <c r="Y19" t="n">
         <v>7.666666666666667</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.3354941442740488</v>
       </c>
     </row>
@@ -24516,9 +26442,15 @@
         <v>12.47570309630446</v>
       </c>
       <c r="W20" t="n">
+        <v>-0.6857065217391312</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.752070744192177</v>
+      </c>
+      <c r="Y20" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.3139831505368311</v>
       </c>
     </row>
@@ -24590,9 +26522,15 @@
         <v>0.5317141277620339</v>
       </c>
       <c r="W21" t="n">
+        <v>-0.6688888888888909</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.506155818001225</v>
+      </c>
+      <c r="Y21" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.07696787743255375</v>
       </c>
     </row>
@@ -24664,9 +26602,15 @@
         <v>-2.376501264122911</v>
       </c>
       <c r="W22" t="n">
+        <v>-0.8075641025641009</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.473021313130527</v>
+      </c>
+      <c r="Y22" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.2833897789660766</v>
       </c>
     </row>
@@ -24738,9 +26682,15 @@
         <v>-6.987988784403447</v>
       </c>
       <c r="W23" t="n">
+        <v>-0.5444202898550752</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.821296849374302</v>
+      </c>
+      <c r="Y23" t="n">
         <v>7.400000000000001</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.4126566203039123</v>
       </c>
     </row>
@@ -24812,9 +26762,15 @@
         <v>-9.231964758719208</v>
       </c>
       <c r="W24" t="n">
+        <v>0.6229076086956531</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.65657007356288</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8.233333333333334</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.3361321699064641</v>
       </c>
     </row>
@@ -24886,9 +26842,15 @@
         <v>-4.478360262697331</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3614722222222202</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.9630701025829564</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8.833333333333334</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6974992692667927</v>
       </c>
     </row>
@@ -24960,9 +26922,15 @@
         <v>-1.926841886587703</v>
       </c>
       <c r="W26" t="n">
+        <v>0.3431227106227128</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.119832531002954</v>
+      </c>
+      <c r="Y26" t="n">
         <v>9.433333333333335</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.2957830403413962</v>
       </c>
     </row>
@@ -25034,9 +27002,15 @@
         <v>-0.4875680063483918</v>
       </c>
       <c r="W27" t="n">
+        <v>1.11848731884058</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.1492435007543214</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9.9</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.4907338633348499</v>
       </c>
     </row>
@@ -25108,9 +27082,15 @@
         <v>9.770666610637765</v>
       </c>
       <c r="W28" t="n">
+        <v>1.256521739130434</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.311967902203365</v>
+      </c>
+      <c r="Y28" t="n">
         <v>10.66666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.04276391816866596</v>
       </c>
     </row>
@@ -25182,9 +27162,15 @@
         <v>14.88173338518959</v>
       </c>
       <c r="W29" t="n">
+        <v>1.172277777777778</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.4782791102065472</v>
+      </c>
+      <c r="Y29" t="n">
         <v>10.36666666666667</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.1115741126881956</v>
       </c>
     </row>
@@ -25256,9 +27242,15 @@
         <v>12.41290399461322</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9826465201465213</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.643486701191391</v>
+      </c>
+      <c r="Y30" t="n">
         <v>10.13333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>-0.1420023892476789</v>
       </c>
     </row>
@@ -25330,9 +27322,15 @@
         <v>9.273048425172373</v>
       </c>
       <c r="W31" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y31" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>-0.2450324114759349</v>
       </c>
     </row>
@@ -25404,9 +27402,15 @@
         <v>3.564255267870626</v>
       </c>
       <c r="W32" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y32" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.3484279558021058</v>
       </c>
     </row>
@@ -25478,9 +27482,15 @@
         <v>4.12729314085998</v>
       </c>
       <c r="W33" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.1729576653708816</v>
       </c>
     </row>
@@ -25552,9 +27562,15 @@
         <v>3.249585648002008</v>
       </c>
       <c r="W34" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.3254164667776762</v>
       </c>
     </row>
@@ -25626,9 +27642,15 @@
         <v>-0.3313089722960126</v>
       </c>
       <c r="W35" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.5029918571160692</v>
       </c>
     </row>
@@ -25700,9 +27722,15 @@
         <v>0.2761669802729211</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.2948636640604868</v>
       </c>
     </row>
@@ -25774,9 +27802,15 @@
         <v>1.151644206155908</v>
       </c>
       <c r="W37" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.08053697142812447</v>
       </c>
     </row>
@@ -25848,9 +27882,15 @@
         <v>-0.3276900802314798</v>
       </c>
       <c r="W38" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.3</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.4527521303786584</v>
       </c>
     </row>
@@ -25922,9 +27962,15 @@
         <v>2.645228457241332</v>
       </c>
       <c r="W39" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X39" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.2</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>0.8387291113820747</v>
       </c>
     </row>
@@ -25996,9 +28042,15 @@
         <v>3.249761865614301</v>
       </c>
       <c r="W40" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>0.9159072737594085</v>
       </c>
     </row>
@@ -26070,9 +28122,15 @@
         <v>5.322541323425025</v>
       </c>
       <c r="W41" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.9390135137965314</v>
       </c>
     </row>
@@ -26144,9 +28202,15 @@
         <v>6.530228807304192</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y42" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.4517357855170038</v>
       </c>
     </row>
@@ -26218,9 +28282,15 @@
         <v>2.622211725098292</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.2864923080875492</v>
       </c>
     </row>
@@ -26292,9 +28362,15 @@
         <v>0.66711388170226</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.9573246867664578</v>
       </c>
     </row>
@@ -26366,9 +28442,15 @@
         <v>-0.133067218570495</v>
       </c>
       <c r="W45" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.635721684927732</v>
       </c>
     </row>
@@ -26440,9 +28522,15 @@
         <v>1.716213740238562</v>
       </c>
       <c r="W46" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X46" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.3100850481010285</v>
       </c>
     </row>
@@ -26514,9 +28602,15 @@
         <v>-0.7884403524148759</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y47" t="n">
         <v>6</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.1545314186378164</v>
       </c>
     </row>
@@ -26588,9 +28682,15 @@
         <v>0.4387896465419438</v>
       </c>
       <c r="W48" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.6789778325916129</v>
       </c>
     </row>
@@ -26662,9 +28762,15 @@
         <v>0.524018666355625</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.7</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.06116528608373858</v>
       </c>
     </row>
@@ -26736,9 +28842,15 @@
         <v>1.598651458197299</v>
       </c>
       <c r="W50" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.5652380764681929</v>
       </c>
     </row>
@@ -26810,9 +28922,15 @@
         <v>1.0234630914701</v>
       </c>
       <c r="W51" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>-0.09656980112504204</v>
       </c>
     </row>
@@ -26884,9 +29002,15 @@
         <v>1.139012524910935</v>
       </c>
       <c r="W52" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>-0.06728767838041383</v>
       </c>
     </row>
@@ -26958,9 +29082,15 @@
         <v>-0.5889794056063486</v>
       </c>
       <c r="W53" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.2</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>-0.9092999802385253</v>
       </c>
     </row>
@@ -27032,9 +29162,15 @@
         <v>-2.003050135876769</v>
       </c>
       <c r="W54" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>-0.6398900044790241</v>
       </c>
     </row>
@@ -27106,9 +29242,15 @@
         <v>-0.9081143488581298</v>
       </c>
       <c r="W55" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.09812118514135591</v>
       </c>
     </row>
@@ -27180,9 +29322,15 @@
         <v>-1.048044527470043</v>
       </c>
       <c r="W56" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7633360027423075</v>
       </c>
     </row>
@@ -27254,9 +29402,15 @@
         <v>2.728032348378334</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5.3</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.2453450499634662</v>
       </c>
     </row>
@@ -27328,9 +29482,15 @@
         <v>-4.32098638588056</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y58" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.7610161773768187</v>
       </c>
     </row>
@@ -27402,9 +29562,15 @@
         <v>-5.548064906742272</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y59" t="n">
         <v>5.7</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.4739284442903958</v>
       </c>
     </row>
@@ -27476,9 +29642,15 @@
         <v>-7.43618759255569</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y60" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.1100965736310962</v>
       </c>
     </row>
@@ -27550,9 +29722,15 @@
         <v>-6.234016056675502</v>
       </c>
       <c r="W61" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y61" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.2925540664699352</v>
       </c>
     </row>
@@ -27624,9 +29802,15 @@
         <v>0.8611463334918544</v>
       </c>
       <c r="W62" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y62" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.8912158433473732</v>
       </c>
     </row>
@@ -27698,9 +29882,15 @@
         <v>4.146487464525759</v>
       </c>
       <c r="W63" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y63" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.3002751130221616</v>
       </c>
     </row>
@@ -27772,9 +29962,15 @@
         <v>2.788520348953564</v>
       </c>
       <c r="W64" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y64" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.7167403980770832</v>
       </c>
     </row>
@@ -27846,9 +30042,15 @@
         <v>5.732506661926956</v>
       </c>
       <c r="W65" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y65" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.287364364035414</v>
       </c>
     </row>
@@ -27920,9 +30122,15 @@
         <v>5.555709043740305</v>
       </c>
       <c r="W66" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y66" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.03725760227447895</v>
       </c>
     </row>
@@ -27994,9 +30202,15 @@
         <v>1.198682498919672</v>
       </c>
       <c r="W67" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y67" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.9739777469163584</v>
       </c>
     </row>
@@ -28068,9 +30282,15 @@
         <v>5.620179284643276</v>
       </c>
       <c r="W68" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y68" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.1634912717800875</v>
       </c>
     </row>
@@ -28142,9 +30362,15 @@
         <v>1.243797129221705</v>
       </c>
       <c r="W69" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y69" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.7298809367475073</v>
       </c>
     </row>
@@ -28216,9 +30442,15 @@
         <v>0.5751864666358764</v>
       </c>
       <c r="W70" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y70" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.05508919644747602</v>
       </c>
     </row>
@@ -28290,9 +30522,15 @@
         <v>3.541617627700523</v>
       </c>
       <c r="W71" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y71" t="n">
         <v>6.8</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.1638299758838738</v>
       </c>
     </row>
@@ -28364,9 +30602,15 @@
         <v>5.537746946895389</v>
       </c>
       <c r="W72" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y72" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>-0.2681592640260389</v>
       </c>
     </row>
@@ -28440,9 +30684,15 @@
         <v>3.347746874864147</v>
       </c>
       <c r="W73" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y73" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.8383852104316034</v>
       </c>
     </row>
@@ -28516,9 +30766,15 @@
         <v>4.249931351727917</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y74" t="n">
         <v>6.2</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.4607337993127787</v>
       </c>
     </row>
@@ -28592,9 +30848,15 @@
         <v>0.311580657129551</v>
       </c>
       <c r="W75" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y75" t="n">
         <v>6</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.4977054513676619</v>
       </c>
     </row>
@@ -28668,9 +30930,15 @@
         <v>0.1726817904492678</v>
       </c>
       <c r="W76" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.2985724695612195</v>
       </c>
     </row>
@@ -28744,9 +31012,15 @@
         <v>-0.7620404039690383</v>
       </c>
       <c r="W77" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>-0.3510172608994027</v>
       </c>
     </row>
@@ -28820,9 +31094,15 @@
         <v>-3.791419566997561</v>
       </c>
       <c r="W78" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.3363012793168789</v>
       </c>
     </row>
@@ -28896,9 +31176,15 @@
         <v>2.848181132694648</v>
       </c>
       <c r="W79" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.1981843705305607</v>
       </c>
     </row>
@@ -28972,9 +31258,15 @@
         <v>2.83756062129842</v>
       </c>
       <c r="W80" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.2585132453793839</v>
       </c>
     </row>
@@ -29048,9 +31340,15 @@
         <v>2.493390625841537</v>
       </c>
       <c r="W81" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.03227762370571586</v>
       </c>
     </row>
@@ -29124,9 +31422,15 @@
         <v>5.124337633634101</v>
       </c>
       <c r="W82" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.5</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.5768114526886964</v>
       </c>
     </row>
@@ -29200,9 +31504,15 @@
         <v>0.8499972473241366</v>
       </c>
       <c r="W83" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3292291352777339</v>
       </c>
     </row>
@@ -29276,9 +31586,15 @@
         <v>-0.5658613024151704</v>
       </c>
       <c r="W84" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.4143576648558447</v>
       </c>
     </row>
@@ -29352,9 +31668,15 @@
         <v>0.8788506033079337</v>
       </c>
       <c r="W85" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.1846933163125067</v>
       </c>
     </row>
@@ -29428,9 +31750,15 @@
         <v>1.765571648841558</v>
       </c>
       <c r="W86" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X86" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.09565800937092235</v>
       </c>
     </row>
@@ -29504,9 +31832,15 @@
         <v>1.250969784331084</v>
       </c>
       <c r="W87" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.6814131046271403</v>
       </c>
     </row>
@@ -29580,9 +31914,15 @@
         <v>2.30791001870859</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X88" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>1.127631985910102</v>
       </c>
     </row>
@@ -29656,9 +31996,15 @@
         <v>2.689434237839329</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>1.299732149800417</v>
       </c>
     </row>
@@ -29732,9 +32078,15 @@
         <v>3.653244990648756</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.9942291610514674</v>
       </c>
     </row>
@@ -29808,9 +32160,15 @@
         <v>3.363269833355901</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.891881008497622</v>
       </c>
     </row>
@@ -29884,9 +32242,15 @@
         <v>3.045382968051981</v>
       </c>
       <c r="W92" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.6532760337286826</v>
       </c>
     </row>
@@ -29960,9 +32324,15 @@
         <v>3.056613969109574</v>
       </c>
       <c r="W93" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.3</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.4490441387187689</v>
       </c>
     </row>
@@ -30036,9 +32406,15 @@
         <v>2.522926371525981</v>
       </c>
       <c r="W94" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.300000000000001</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6952273640583474</v>
       </c>
     </row>
@@ -30112,9 +32488,15 @@
         <v>0.04932182590737506</v>
       </c>
       <c r="W95" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>1.030542782171802</v>
       </c>
     </row>
@@ -30188,9 +32570,15 @@
         <v>0.785858661252131</v>
       </c>
       <c r="W96" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.1</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.6445426063889922</v>
       </c>
     </row>
@@ -30264,9 +32652,15 @@
         <v>2.057934870801231</v>
       </c>
       <c r="W97" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.2107139921268283</v>
       </c>
     </row>
@@ -30340,9 +32734,15 @@
         <v>0.9539781387463867</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.8091667655498215</v>
       </c>
     </row>
@@ -30416,9 +32816,15 @@
         <v>-2.135141684216609</v>
       </c>
       <c r="W99" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>1.141285211041262</v>
       </c>
     </row>
@@ -30490,9 +32896,13 @@
         <v>0.1453840818227853</v>
       </c>
       <c r="W100" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>1.073884358044545</v>
       </c>
     </row>
@@ -30532,9 +32942,7 @@
       <c r="O101" t="n">
         <v>915.0627734175878</v>
       </c>
-      <c r="P101" t="n">
-        <v>-41.00969390841499</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30547,6 +32955,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/vintage_data/data_20010214.xlsx
+++ b/data/vintage_data/data_20010214.xlsx
@@ -16627,7 +16627,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>4.2471</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -32955,7 +32957,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>4.2471</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
